--- a/Agent_Model_v2.xlsx
+++ b/Agent_Model_v2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="398">
   <si>
     <t xml:space="preserve">📊 DASHBOARD</t>
   </si>
@@ -508,6 +508,15 @@
   </si>
   <si>
     <t xml:space="preserve">Original invoice in 1,980 BHD. Agent paid in AED. SWIFT confirmed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGD 110,000 — наш депозит агенту (Сингапур)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore | ⏳ ПРЕДВ. КУРС — уточнить у агента</t>
   </si>
   <si>
     <t xml:space="preserve">📋 INVOICE TRACKER</t>
@@ -1354,12 +1363,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="9"/>
       <color rgb="FF1F7A1F"/>
@@ -1423,6 +1426,12 @@
     <font>
       <sz val="8"/>
       <color rgb="FF606060"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1591,7 +1600,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="97">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1756,14 +1765,6 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1796,11 +1797,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1816,11 +1817,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1828,7 +1829,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1836,7 +1837,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1924,15 +1925,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1952,7 +1953,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1964,11 +1965,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1980,7 +1981,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4276,14 +4277,24 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="41" t="s">
+      <c r="A44" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="34"/>
+      <c r="E44" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="40" t="n">
+        <v>110000</v>
+      </c>
       <c r="G44" s="27" t="n">
         <v>1.2535</v>
       </c>
@@ -4293,14 +4304,15 @@
       <c r="I44" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="J44" s="42" t="n">
-        <f aca="false">IF(H44="","",IF(OR(B44="Deposit",B44="Cash In"),H44,-(H44/MAX(1-I44,0.0001))))</f>
-        <v>-87754.29</v>
+      <c r="J44" s="28" t="n">
+        <v>87754.29</v>
       </c>
       <c r="K44" s="30" t="n">
         <v>4417734.08</v>
       </c>
-      <c r="L44" s="31"/>
+      <c r="L44" s="31" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="32"/>
@@ -11669,32 +11681,32 @@
       <c r="L298" s="31"/>
     </row>
     <row r="299" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="43"/>
-      <c r="B299" s="43"/>
-      <c r="C299" s="43"/>
-      <c r="D299" s="43"/>
-      <c r="E299" s="44"/>
-      <c r="F299" s="45"/>
-      <c r="G299" s="46"/>
-      <c r="H299" s="47"/>
-      <c r="I299" s="48"/>
-      <c r="J299" s="47"/>
-      <c r="K299" s="49"/>
-      <c r="L299" s="50"/>
+      <c r="A299" s="41"/>
+      <c r="B299" s="41"/>
+      <c r="C299" s="41"/>
+      <c r="D299" s="41"/>
+      <c r="E299" s="42"/>
+      <c r="F299" s="43"/>
+      <c r="G299" s="44"/>
+      <c r="H299" s="45"/>
+      <c r="I299" s="46"/>
+      <c r="J299" s="45"/>
+      <c r="K299" s="47"/>
+      <c r="L299" s="48"/>
     </row>
     <row r="300" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="43"/>
-      <c r="B300" s="43"/>
-      <c r="C300" s="43"/>
-      <c r="D300" s="43"/>
-      <c r="E300" s="44"/>
-      <c r="F300" s="45"/>
-      <c r="G300" s="46"/>
-      <c r="H300" s="47"/>
-      <c r="I300" s="48"/>
-      <c r="J300" s="47"/>
-      <c r="K300" s="49"/>
-      <c r="L300" s="50"/>
+      <c r="A300" s="41"/>
+      <c r="B300" s="41"/>
+      <c r="C300" s="41"/>
+      <c r="D300" s="41"/>
+      <c r="E300" s="42"/>
+      <c r="F300" s="43"/>
+      <c r="G300" s="44"/>
+      <c r="H300" s="45"/>
+      <c r="I300" s="46"/>
+      <c r="J300" s="45"/>
+      <c r="K300" s="47"/>
+      <c r="L300" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11778,7 +11790,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11792,7 +11804,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -11806,31 +11818,31 @@
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>30</v>
@@ -11838,13 +11850,13 @@
     </row>
     <row r="5" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>35</v>
@@ -11856,25 +11868,25 @@
         <f aca="false">IF(OR(E5="",E5="TBC"),"TBC",IFERROR(E5/VLOOKUP(D5,Settings!$A$7:$B$17,2,FALSE()),E5))</f>
         <v>410483.321987747</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>174</v>
+      <c r="G5" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>179</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>40</v>
@@ -11889,17 +11901,17 @@
         <f aca="false">IF(OR(E6="",E6="TBC"),"TBC",IFERROR(E6/VLOOKUP(D6,Settings!$A$7:$B$17,2,FALSE()),E6))</f>
         <v>10626.7197831533</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>174</v>
+      <c r="G6" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="52" t="s">
-        <v>180</v>
+      <c r="I6" s="50" t="s">
+        <v>183</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11907,7 +11919,7 @@
         <v>51</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>53</v>
@@ -11922,17 +11934,17 @@
         <f aca="false">IF(OR(E7="",E7="TBC"),"TBC",IFERROR(E7/VLOOKUP(D7,Settings!$A$7:$B$17,2,FALSE()),E7))</f>
         <v>54344.1494289065</v>
       </c>
-      <c r="G7" s="51" t="s">
-        <v>174</v>
+      <c r="G7" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>183</v>
+      <c r="I7" s="50" t="s">
+        <v>186</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11940,7 +11952,7 @@
         <v>55</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>40</v>
@@ -11955,25 +11967,25 @@
         <f aca="false">IF(OR(E8="",E8="TBC"),"TBC",IFERROR(E8/VLOOKUP(D8,Settings!$A$7:$B$17,2,FALSE()),E8))</f>
         <v>621280.50832569</v>
       </c>
-      <c r="G8" s="51" t="s">
-        <v>174</v>
+      <c r="G8" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="52" t="s">
-        <v>186</v>
+      <c r="I8" s="50" t="s">
+        <v>189</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>71</v>
@@ -11988,25 +12000,25 @@
         <f aca="false">IF(OR(E9="",E9="TBC"),"TBC",IFERROR(E9/VLOOKUP(D9,Settings!$A$7:$B$17,2,FALSE()),E9))</f>
         <v>8234.17290673928</v>
       </c>
-      <c r="G9" s="51" t="s">
-        <v>174</v>
+      <c r="G9" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="52" t="s">
-        <v>190</v>
+      <c r="I9" s="50" t="s">
+        <v>193</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>74</v>
@@ -12021,25 +12033,25 @@
         <f aca="false">IF(OR(E10="",E10="TBC"),"TBC",IFERROR(E10/VLOOKUP(D10,Settings!$A$7:$B$17,2,FALSE()),E10))</f>
         <v>514.635806671205</v>
       </c>
-      <c r="G10" s="51" t="s">
-        <v>174</v>
+      <c r="G10" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="52" t="s">
-        <v>193</v>
+      <c r="I10" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>74</v>
@@ -12054,17 +12066,17 @@
         <f aca="false">IF(OR(E11="",E11="TBC"),"TBC",IFERROR(E11/VLOOKUP(D11,Settings!$A$7:$B$17,2,FALSE()),E11))</f>
         <v>7585.73179033356</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>174</v>
+      <c r="G11" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="52" t="s">
-        <v>196</v>
+      <c r="I11" s="50" t="s">
+        <v>199</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12072,7 +12084,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>80</v>
@@ -12087,25 +12099,25 @@
         <f aca="false">IF(OR(E12="",E12="TBC"),"TBC",IFERROR(E12/VLOOKUP(D12,Settings!$A$7:$B$17,2,FALSE()),E12))</f>
         <v>77171.7821647379</v>
       </c>
-      <c r="G12" s="51" t="s">
-        <v>174</v>
+      <c r="G12" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="52" t="s">
-        <v>199</v>
+      <c r="I12" s="50" t="s">
+        <v>202</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>83</v>
@@ -12120,25 +12132,25 @@
         <f aca="false">IF(OR(E13="",E13="TBC"),"TBC",IFERROR(E13/VLOOKUP(D13,Settings!$A$7:$B$17,2,FALSE()),E13))</f>
         <v>2473.11095983662</v>
       </c>
-      <c r="G13" s="51" t="s">
-        <v>174</v>
+      <c r="G13" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="52" t="s">
-        <v>203</v>
+      <c r="I13" s="50" t="s">
+        <v>206</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>83</v>
@@ -12153,25 +12165,25 @@
         <f aca="false">IF(OR(E14="",E14="TBC"),"TBC",IFERROR(E14/VLOOKUP(D14,Settings!$A$7:$B$17,2,FALSE()),E14))</f>
         <v>1132.74336283186</v>
       </c>
-      <c r="G14" s="51" t="s">
-        <v>174</v>
+      <c r="G14" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="52" t="s">
-        <v>206</v>
+      <c r="I14" s="50" t="s">
+        <v>209</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>95</v>
@@ -12186,25 +12198,25 @@
         <f aca="false">IF(OR(E15="",E15="TBC"),"TBC",IFERROR(E15/VLOOKUP(D15,Settings!$A$7:$B$17,2,FALSE()),E15))</f>
         <v>248.025528520144</v>
       </c>
-      <c r="G15" s="51" t="s">
-        <v>174</v>
+      <c r="G15" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="52" t="s">
-        <v>210</v>
+      <c r="I15" s="50" t="s">
+        <v>213</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>95</v>
@@ -12219,25 +12231,25 @@
         <f aca="false">IF(OR(E16="",E16="TBC"),"TBC",IFERROR(E16/VLOOKUP(D16,Settings!$A$7:$B$17,2,FALSE()),E16))</f>
         <v>248.025528520144</v>
       </c>
-      <c r="G16" s="51" t="s">
-        <v>174</v>
+      <c r="G16" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="52" t="s">
-        <v>210</v>
+      <c r="I16" s="50" t="s">
+        <v>213</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>95</v>
@@ -12252,25 +12264,25 @@
         <f aca="false">IF(OR(E17="",E17="TBC"),"TBC",IFERROR(E17/VLOOKUP(D17,Settings!$A$7:$B$17,2,FALSE()),E17))</f>
         <v>248.025528520144</v>
       </c>
-      <c r="G17" s="51" t="s">
-        <v>174</v>
+      <c r="G17" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="52" t="s">
-        <v>210</v>
+      <c r="I17" s="50" t="s">
+        <v>213</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>92</v>
@@ -12285,25 +12297,25 @@
         <f aca="false">IF(OR(E18="",E18="TBC"),"TBC",IFERROR(E18/VLOOKUP(D18,Settings!$A$7:$B$17,2,FALSE()),E18))</f>
         <v>639.891082368959</v>
       </c>
-      <c r="G18" s="51" t="s">
-        <v>174</v>
+      <c r="G18" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="52" t="s">
-        <v>217</v>
+      <c r="I18" s="50" t="s">
+        <v>220</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>89</v>
@@ -12318,17 +12330,17 @@
         <f aca="false">IF(OR(E19="",E19="TBC"),"TBC",IFERROR(E19/VLOOKUP(D19,Settings!$A$7:$B$17,2,FALSE()),E19))</f>
         <v>1361.47038801906</v>
       </c>
-      <c r="G19" s="51" t="s">
-        <v>174</v>
+      <c r="G19" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="52" t="s">
-        <v>221</v>
+      <c r="I19" s="50" t="s">
+        <v>224</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12336,7 +12348,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>102</v>
@@ -12351,25 +12363,25 @@
         <f aca="false">IF(OR(E20="",E20="TBC"),"TBC",IFERROR(E20/VLOOKUP(D20,Settings!$A$7:$B$17,2,FALSE()),E20))</f>
         <v>577593.511232131</v>
       </c>
-      <c r="G20" s="51" t="s">
-        <v>174</v>
+      <c r="G20" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="52" t="s">
-        <v>224</v>
+      <c r="I20" s="50" t="s">
+        <v>227</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>83</v>
@@ -12384,17 +12396,17 @@
         <f aca="false">IF(OR(E21="",E21="TBC"),"TBC",IFERROR(E21/VLOOKUP(D21,Settings!$A$7:$B$17,2,FALSE()),E21))</f>
         <v>15099.5616065351</v>
       </c>
-      <c r="G21" s="51" t="s">
-        <v>174</v>
+      <c r="G21" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="52" t="s">
-        <v>228</v>
+      <c r="I21" s="50" t="s">
+        <v>231</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12402,10 +12414,10 @@
         <v>108</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>41</v>
@@ -12417,25 +12429,25 @@
         <f aca="false">IF(OR(E22="",E22="TBC"),"TBC",IFERROR(E22/VLOOKUP(D22,Settings!$A$7:$B$17,2,FALSE()),E22))</f>
         <v>70796.3323271319</v>
       </c>
-      <c r="G22" s="51" t="s">
-        <v>174</v>
+      <c r="G22" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="52" t="s">
-        <v>232</v>
+      <c r="I22" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>119</v>
@@ -12450,54 +12462,54 @@
         <f aca="false">IF(OR(E23="",E23="TBC"),"TBC",IFERROR(E23/VLOOKUP(D23,Settings!$A$7:$B$17,2,FALSE()),E23))</f>
         <v>2330</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>174</v>
+      <c r="G23" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I23" s="52" t="s">
-        <v>236</v>
+      <c r="I23" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="54" t="s">
+      <c r="B24" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="55" t="n">
+      <c r="E24" s="53" t="n">
         <v>14280.54</v>
       </c>
-      <c r="F24" s="55" t="n">
+      <c r="F24" s="53" t="n">
         <f aca="false">IF(OR(E24="",E24="TBC"),"TBC",IFERROR(E24/VLOOKUP(D24,Settings!$A$7:$B$17,2,FALSE()),E24))</f>
         <v>14280.54</v>
       </c>
-      <c r="G24" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="57"/>
+      <c r="G24" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H24" s="51"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="31" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>95</v>
@@ -12512,25 +12524,25 @@
         <f aca="false">IF(OR(E25="",E25="TBC"),"TBC",IFERROR(E25/VLOOKUP(D25,Settings!$A$7:$B$17,2,FALSE()),E25))</f>
         <v>917.43119266055</v>
       </c>
-      <c r="G25" s="51" t="s">
-        <v>174</v>
+      <c r="G25" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I25" s="52" t="s">
-        <v>244</v>
+      <c r="I25" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>95</v>
@@ -12545,25 +12557,25 @@
         <f aca="false">IF(OR(E26="",E26="TBC"),"TBC",IFERROR(E26/VLOOKUP(D26,Settings!$A$7:$B$17,2,FALSE()),E26))</f>
         <v>619.226166733147</v>
       </c>
-      <c r="G26" s="51" t="s">
-        <v>174</v>
+      <c r="G26" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I26" s="52" t="s">
-        <v>244</v>
+      <c r="I26" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>95</v>
@@ -12578,25 +12590,25 @@
         <f aca="false">IF(OR(E27="",E27="TBC"),"TBC",IFERROR(E27/VLOOKUP(D27,Settings!$A$7:$B$17,2,FALSE()),E27))</f>
         <v>560.909453530116</v>
       </c>
-      <c r="G27" s="51" t="s">
-        <v>174</v>
+      <c r="G27" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I27" s="52" t="s">
-        <v>244</v>
+      <c r="I27" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>95</v>
@@ -12611,25 +12623,25 @@
         <f aca="false">IF(OR(E28="",E28="TBC"),"TBC",IFERROR(E28/VLOOKUP(D28,Settings!$A$7:$B$17,2,FALSE()),E28))</f>
         <v>513.04347826087</v>
       </c>
-      <c r="G28" s="51" t="s">
-        <v>174</v>
+      <c r="G28" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I28" s="52" t="s">
-        <v>244</v>
+      <c r="I28" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>95</v>
@@ -12644,28 +12656,28 @@
         <f aca="false">IF(OR(E29="",E29="TBC"),"TBC",IFERROR(E29/VLOOKUP(D29,Settings!$A$7:$B$17,2,FALSE()),E29))</f>
         <v>2323.93298763462</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>174</v>
+      <c r="G29" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="52" t="s">
-        <v>244</v>
+      <c r="I29" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>133</v>
@@ -12677,25 +12689,25 @@
         <f aca="false">IF(OR(E30="",E30="TBC"),"TBC",IFERROR(E30/VLOOKUP(D30,Settings!$A$7:$B$17,2,FALSE()),E30))</f>
         <v>3319.8956604221</v>
       </c>
-      <c r="G30" s="51" t="s">
-        <v>174</v>
+      <c r="G30" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="52" t="s">
-        <v>256</v>
+      <c r="I30" s="50" t="s">
+        <v>259</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>146</v>
@@ -12710,25 +12722,25 @@
         <f aca="false">IF(OR(E31="",E31="TBC"),"TBC",IFERROR(E31/VLOOKUP(D31,Settings!$A$7:$B$17,2,FALSE()),E31))</f>
         <v>23558.8835942818</v>
       </c>
-      <c r="G31" s="51" t="s">
-        <v>174</v>
+      <c r="G31" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="52" t="s">
-        <v>260</v>
+      <c r="I31" s="50" t="s">
+        <v>263</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>146</v>
@@ -12743,17 +12755,17 @@
         <f aca="false">IF(OR(E32="",E32="TBC"),"TBC",IFERROR(E32/VLOOKUP(D32,Settings!$A$7:$B$17,2,FALSE()),E32))</f>
         <v>18083.7304288632</v>
       </c>
-      <c r="G32" s="51" t="s">
-        <v>174</v>
+      <c r="G32" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="I32" s="52" t="s">
-        <v>263</v>
+      <c r="I32" s="50" t="s">
+        <v>266</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12761,7 +12773,7 @@
         <v>141</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>146</v>
@@ -12776,301 +12788,301 @@
         <f aca="false">IF(OR(E33="",E33="TBC"),"TBC",IFERROR(E33/VLOOKUP(D33,Settings!$A$7:$B$17,2,FALSE()),E33))</f>
         <v>3716.81415929204</v>
       </c>
-      <c r="G33" s="51" t="s">
-        <v>174</v>
+      <c r="G33" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="I33" s="52" t="s">
-        <v>266</v>
+      <c r="I33" s="50" t="s">
+        <v>269</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="54" t="s">
+      <c r="A34" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="55" t="n">
+      <c r="E34" s="53" t="n">
         <v>197334.74</v>
       </c>
-      <c r="F34" s="55" t="n">
+      <c r="F34" s="53" t="n">
         <f aca="false">IF(OR(E34="",E34="TBC"),"TBC",IFERROR(E34/VLOOKUP(D34,Settings!$A$7:$B$17,2,FALSE()),E34))</f>
         <v>53733.0810074881</v>
       </c>
-      <c r="G34" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="57"/>
+      <c r="G34" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="51" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="D35" s="54" t="s">
+      <c r="B35" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="55" t="n">
+      <c r="E35" s="53" t="n">
         <v>17799.36</v>
       </c>
-      <c r="F35" s="55" t="n">
+      <c r="F35" s="53" t="n">
         <f aca="false">IF(OR(E35="",E35="TBC"),"TBC",IFERROR(E35/VLOOKUP(D35,Settings!$A$7:$B$17,2,FALSE()),E35))</f>
         <v>4846.66031313819</v>
       </c>
-      <c r="G35" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="57"/>
+      <c r="G35" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="55"/>
       <c r="J35" s="31" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" s="54" t="s">
+      <c r="A36" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="55" t="n">
+      <c r="E36" s="53" t="n">
         <v>14988.6</v>
       </c>
-      <c r="F36" s="55" t="n">
+      <c r="F36" s="53" t="n">
         <f aca="false">IF(OR(E36="",E36="TBC"),"TBC",IFERROR(E36/VLOOKUP(D36,Settings!$A$7:$B$17,2,FALSE()),E36))</f>
         <v>4081.3070115725</v>
       </c>
-      <c r="G36" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H36" s="53"/>
-      <c r="I36" s="57"/>
+      <c r="G36" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H36" s="51"/>
+      <c r="I36" s="55"/>
       <c r="J36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="C37" s="53" t="s">
+      <c r="A37" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="55" t="n">
+      <c r="E37" s="53" t="n">
         <v>13865.24</v>
       </c>
-      <c r="F37" s="55" t="n">
+      <c r="F37" s="53" t="n">
         <f aca="false">IF(OR(E37="",E37="TBC"),"TBC",IFERROR(E37/VLOOKUP(D37,Settings!$A$7:$B$17,2,FALSE()),E37))</f>
         <v>3775.42273655548</v>
       </c>
-      <c r="G37" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="57"/>
+      <c r="G37" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" s="51"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="31" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" s="54" t="s">
+      <c r="A38" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="55" t="n">
+      <c r="E38" s="53" t="n">
         <v>242022.05</v>
       </c>
-      <c r="F38" s="55" t="n">
+      <c r="F38" s="53" t="n">
         <v>65901.17</v>
       </c>
-      <c r="G38" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="57"/>
+      <c r="G38" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H38" s="51"/>
+      <c r="I38" s="55"/>
       <c r="J38" s="31" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="B39" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="D39" s="54" t="s">
+      <c r="A39" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="55" t="n">
+      <c r="E39" s="53" t="n">
         <v>6037.5</v>
       </c>
-      <c r="F39" s="55" t="n">
+      <c r="F39" s="53" t="n">
         <v>6037.5</v>
       </c>
-      <c r="G39" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="57"/>
+      <c r="G39" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H39" s="51"/>
+      <c r="I39" s="55"/>
       <c r="J39" s="31" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="D40" s="54" t="s">
+      <c r="A40" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="D40" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="55" t="n">
+      <c r="E40" s="53" t="n">
         <v>8032.5</v>
       </c>
-      <c r="F40" s="55" t="n">
+      <c r="F40" s="53" t="n">
         <v>2187.2</v>
       </c>
-      <c r="G40" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H40" s="53"/>
-      <c r="I40" s="57"/>
+      <c r="G40" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H40" s="51"/>
+      <c r="I40" s="55"/>
       <c r="J40" s="31" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="B41" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="D41" s="54" t="s">
+      <c r="A41" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="55" t="n">
+      <c r="E41" s="53" t="n">
         <v>30240</v>
       </c>
-      <c r="F41" s="55" t="n">
+      <c r="F41" s="53" t="n">
         <v>8234.17</v>
       </c>
-      <c r="G41" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="57"/>
+      <c r="G41" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" s="51"/>
+      <c r="I41" s="55"/>
       <c r="J41" s="31" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="B42" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="D42" s="54" t="s">
+      <c r="B42" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="55" t="n">
+      <c r="E42" s="53" t="n">
         <v>19024.13</v>
       </c>
-      <c r="F42" s="55" t="n">
+      <c r="F42" s="53" t="n">
         <f aca="false">IF(OR(E42="",E42="TBC"),"TBC",IFERROR(E42/VLOOKUP(D42,Settings!$A$7:$B$17,2,FALSE()),E42))</f>
         <v>19024.13</v>
       </c>
-      <c r="G42" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="57"/>
+      <c r="G42" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" s="51"/>
+      <c r="I42" s="55"/>
       <c r="J42" s="31" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="D43" s="54" t="s">
+      <c r="A43" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="D43" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="55" t="n">
+      <c r="E43" s="53" t="n">
         <v>200000</v>
       </c>
-      <c r="F43" s="55" t="n">
+      <c r="F43" s="53" t="n">
         <f aca="false">IF(OR(E43="",E43="TBC"),"TBC",IFERROR(E43/VLOOKUP(D43,Settings!$A$7:$B$17,2,FALSE()),E43))</f>
         <v>200000</v>
       </c>
-      <c r="G43" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H43" s="53"/>
-      <c r="I43" s="57"/>
+      <c r="G43" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H43" s="51"/>
+      <c r="I43" s="55"/>
       <c r="J43" s="31" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13078,13 +13090,13 @@
         <v>155</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E44" s="26" t="n">
         <v>1980</v>
@@ -13093,15 +13105,15 @@
         <f aca="false">IF(OR(E44="",E44="TBC"),"TBC",IFERROR(E44/VLOOKUP(D44,Settings!$A$7:$B$17,2,FALSE()),E44))</f>
         <v>5310.30413560049</v>
       </c>
-      <c r="G44" s="51" t="s">
-        <v>174</v>
+      <c r="G44" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="H44" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I44" s="52"/>
+      <c r="I44" s="50"/>
       <c r="J44" s="31" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13114,9 +13126,9 @@
         <f aca="false">IF(OR(E45="",E45="TBC"),"TBC",IFERROR(E45/VLOOKUP(D45,Settings!$A$7:$B$17,2,FALSE()),E45))</f>
         <v>TBC</v>
       </c>
-      <c r="G45" s="58"/>
+      <c r="G45" s="56"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="59"/>
+      <c r="I45" s="57"/>
       <c r="J45" s="31"/>
     </row>
     <row r="46" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13129,9 +13141,9 @@
         <f aca="false">IF(OR(E46="",E46="TBC"),"TBC",IFERROR(E46/VLOOKUP(D46,Settings!$A$7:$B$17,2,FALSE()),E46))</f>
         <v>TBC</v>
       </c>
-      <c r="G46" s="58"/>
+      <c r="G46" s="56"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="59"/>
+      <c r="I46" s="57"/>
       <c r="J46" s="31"/>
     </row>
     <row r="47" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13144,9 +13156,9 @@
         <f aca="false">IF(OR(E47="",E47="TBC"),"TBC",IFERROR(E47/VLOOKUP(D47,Settings!$A$7:$B$17,2,FALSE()),E47))</f>
         <v>TBC</v>
       </c>
-      <c r="G47" s="58"/>
+      <c r="G47" s="56"/>
       <c r="H47" s="32"/>
-      <c r="I47" s="59"/>
+      <c r="I47" s="57"/>
       <c r="J47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13159,9 +13171,9 @@
         <f aca="false">IF(OR(E48="",E48="TBC"),"TBC",IFERROR(E48/VLOOKUP(D48,Settings!$A$7:$B$17,2,FALSE()),E48))</f>
         <v>TBC</v>
       </c>
-      <c r="G48" s="58"/>
+      <c r="G48" s="56"/>
       <c r="H48" s="32"/>
-      <c r="I48" s="59"/>
+      <c r="I48" s="57"/>
       <c r="J48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13174,9 +13186,9 @@
         <f aca="false">IF(OR(E49="",E49="TBC"),"TBC",IFERROR(E49/VLOOKUP(D49,Settings!$A$7:$B$17,2,FALSE()),E49))</f>
         <v>TBC</v>
       </c>
-      <c r="G49" s="58"/>
+      <c r="G49" s="56"/>
       <c r="H49" s="32"/>
-      <c r="I49" s="59"/>
+      <c r="I49" s="57"/>
       <c r="J49" s="31"/>
     </row>
     <row r="50" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13189,9 +13201,9 @@
         <f aca="false">IF(OR(E50="",E50="TBC"),"TBC",IFERROR(E50/VLOOKUP(D50,Settings!$A$7:$B$17,2,FALSE()),E50))</f>
         <v>TBC</v>
       </c>
-      <c r="G50" s="58"/>
+      <c r="G50" s="56"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="59"/>
+      <c r="I50" s="57"/>
       <c r="J50" s="31"/>
     </row>
     <row r="51" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13204,9 +13216,9 @@
         <f aca="false">IF(OR(E51="",E51="TBC"),"TBC",IFERROR(E51/VLOOKUP(D51,Settings!$A$7:$B$17,2,FALSE()),E51))</f>
         <v>TBC</v>
       </c>
-      <c r="G51" s="58"/>
+      <c r="G51" s="56"/>
       <c r="H51" s="32"/>
-      <c r="I51" s="59"/>
+      <c r="I51" s="57"/>
       <c r="J51" s="31"/>
     </row>
     <row r="52" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13219,9 +13231,9 @@
         <f aca="false">IF(OR(E52="",E52="TBC"),"TBC",IFERROR(E52/VLOOKUP(D52,Settings!$A$7:$B$17,2,FALSE()),E52))</f>
         <v>TBC</v>
       </c>
-      <c r="G52" s="58"/>
+      <c r="G52" s="56"/>
       <c r="H52" s="32"/>
-      <c r="I52" s="59"/>
+      <c r="I52" s="57"/>
       <c r="J52" s="31"/>
     </row>
     <row r="53" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13234,9 +13246,9 @@
         <f aca="false">IF(OR(E53="",E53="TBC"),"TBC",IFERROR(E53/VLOOKUP(D53,Settings!$A$7:$B$17,2,FALSE()),E53))</f>
         <v>TBC</v>
       </c>
-      <c r="G53" s="58"/>
+      <c r="G53" s="56"/>
       <c r="H53" s="32"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="57"/>
       <c r="J53" s="31"/>
     </row>
     <row r="54" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13249,9 +13261,9 @@
         <f aca="false">IF(OR(E54="",E54="TBC"),"TBC",IFERROR(E54/VLOOKUP(D54,Settings!$A$7:$B$17,2,FALSE()),E54))</f>
         <v>TBC</v>
       </c>
-      <c r="G54" s="58"/>
+      <c r="G54" s="56"/>
       <c r="H54" s="32"/>
-      <c r="I54" s="59"/>
+      <c r="I54" s="57"/>
       <c r="J54" s="31"/>
     </row>
     <row r="55" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13264,9 +13276,9 @@
         <f aca="false">IF(OR(E55="",E55="TBC"),"TBC",IFERROR(E55/VLOOKUP(D55,Settings!$A$7:$B$17,2,FALSE()),E55))</f>
         <v>TBC</v>
       </c>
-      <c r="G55" s="58"/>
+      <c r="G55" s="56"/>
       <c r="H55" s="32"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="57"/>
       <c r="J55" s="31"/>
     </row>
     <row r="56" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13279,9 +13291,9 @@
         <f aca="false">IF(OR(E56="",E56="TBC"),"TBC",IFERROR(E56/VLOOKUP(D56,Settings!$A$7:$B$17,2,FALSE()),E56))</f>
         <v>TBC</v>
       </c>
-      <c r="G56" s="58"/>
+      <c r="G56" s="56"/>
       <c r="H56" s="32"/>
-      <c r="I56" s="59"/>
+      <c r="I56" s="57"/>
       <c r="J56" s="31"/>
     </row>
     <row r="57" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13294,9 +13306,9 @@
         <f aca="false">IF(OR(E57="",E57="TBC"),"TBC",IFERROR(E57/VLOOKUP(D57,Settings!$A$7:$B$17,2,FALSE()),E57))</f>
         <v>TBC</v>
       </c>
-      <c r="G57" s="58"/>
+      <c r="G57" s="56"/>
       <c r="H57" s="32"/>
-      <c r="I57" s="59"/>
+      <c r="I57" s="57"/>
       <c r="J57" s="31"/>
     </row>
     <row r="58" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13309,9 +13321,9 @@
         <f aca="false">IF(OR(E58="",E58="TBC"),"TBC",IFERROR(E58/VLOOKUP(D58,Settings!$A$7:$B$17,2,FALSE()),E58))</f>
         <v>TBC</v>
       </c>
-      <c r="G58" s="58"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="32"/>
-      <c r="I58" s="59"/>
+      <c r="I58" s="57"/>
       <c r="J58" s="31"/>
     </row>
     <row r="59" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13324,9 +13336,9 @@
         <f aca="false">IF(OR(E59="",E59="TBC"),"TBC",IFERROR(E59/VLOOKUP(D59,Settings!$A$7:$B$17,2,FALSE()),E59))</f>
         <v>TBC</v>
       </c>
-      <c r="G59" s="58"/>
+      <c r="G59" s="56"/>
       <c r="H59" s="32"/>
-      <c r="I59" s="59"/>
+      <c r="I59" s="57"/>
       <c r="J59" s="31"/>
     </row>
     <row r="60" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13339,9 +13351,9 @@
         <f aca="false">IF(OR(E60="",E60="TBC"),"TBC",IFERROR(E60/VLOOKUP(D60,Settings!$A$7:$B$17,2,FALSE()),E60))</f>
         <v>TBC</v>
       </c>
-      <c r="G60" s="58"/>
+      <c r="G60" s="56"/>
       <c r="H60" s="32"/>
-      <c r="I60" s="59"/>
+      <c r="I60" s="57"/>
       <c r="J60" s="31"/>
     </row>
     <row r="61" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13354,9 +13366,9 @@
         <f aca="false">IF(OR(E61="",E61="TBC"),"TBC",IFERROR(E61/VLOOKUP(D61,Settings!$A$7:$B$17,2,FALSE()),E61))</f>
         <v>TBC</v>
       </c>
-      <c r="G61" s="58"/>
+      <c r="G61" s="56"/>
       <c r="H61" s="32"/>
-      <c r="I61" s="59"/>
+      <c r="I61" s="57"/>
       <c r="J61" s="31"/>
     </row>
     <row r="62" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13369,9 +13381,9 @@
         <f aca="false">IF(OR(E62="",E62="TBC"),"TBC",IFERROR(E62/VLOOKUP(D62,Settings!$A$7:$B$17,2,FALSE()),E62))</f>
         <v>TBC</v>
       </c>
-      <c r="G62" s="58"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="32"/>
-      <c r="I62" s="59"/>
+      <c r="I62" s="57"/>
       <c r="J62" s="31"/>
     </row>
     <row r="63" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13384,9 +13396,9 @@
         <f aca="false">IF(OR(E63="",E63="TBC"),"TBC",IFERROR(E63/VLOOKUP(D63,Settings!$A$7:$B$17,2,FALSE()),E63))</f>
         <v>TBC</v>
       </c>
-      <c r="G63" s="58"/>
+      <c r="G63" s="56"/>
       <c r="H63" s="32"/>
-      <c r="I63" s="59"/>
+      <c r="I63" s="57"/>
       <c r="J63" s="31"/>
     </row>
     <row r="64" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13399,9 +13411,9 @@
         <f aca="false">IF(OR(E64="",E64="TBC"),"TBC",IFERROR(E64/VLOOKUP(D64,Settings!$A$7:$B$17,2,FALSE()),E64))</f>
         <v>TBC</v>
       </c>
-      <c r="G64" s="58"/>
+      <c r="G64" s="56"/>
       <c r="H64" s="32"/>
-      <c r="I64" s="59"/>
+      <c r="I64" s="57"/>
       <c r="J64" s="31"/>
     </row>
     <row r="65" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13414,9 +13426,9 @@
         <f aca="false">IF(OR(E65="",E65="TBC"),"TBC",IFERROR(E65/VLOOKUP(D65,Settings!$A$7:$B$17,2,FALSE()),E65))</f>
         <v>TBC</v>
       </c>
-      <c r="G65" s="58"/>
+      <c r="G65" s="56"/>
       <c r="H65" s="32"/>
-      <c r="I65" s="59"/>
+      <c r="I65" s="57"/>
       <c r="J65" s="31"/>
     </row>
     <row r="66" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13429,9 +13441,9 @@
         <f aca="false">IF(OR(E66="",E66="TBC"),"TBC",IFERROR(E66/VLOOKUP(D66,Settings!$A$7:$B$17,2,FALSE()),E66))</f>
         <v>TBC</v>
       </c>
-      <c r="G66" s="58"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="32"/>
-      <c r="I66" s="59"/>
+      <c r="I66" s="57"/>
       <c r="J66" s="31"/>
     </row>
     <row r="67" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13444,9 +13456,9 @@
         <f aca="false">IF(OR(E67="",E67="TBC"),"TBC",IFERROR(E67/VLOOKUP(D67,Settings!$A$7:$B$17,2,FALSE()),E67))</f>
         <v>TBC</v>
       </c>
-      <c r="G67" s="58"/>
+      <c r="G67" s="56"/>
       <c r="H67" s="32"/>
-      <c r="I67" s="59"/>
+      <c r="I67" s="57"/>
       <c r="J67" s="31"/>
     </row>
     <row r="68" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13459,9 +13471,9 @@
         <f aca="false">IF(OR(E68="",E68="TBC"),"TBC",IFERROR(E68/VLOOKUP(D68,Settings!$A$7:$B$17,2,FALSE()),E68))</f>
         <v>TBC</v>
       </c>
-      <c r="G68" s="58"/>
+      <c r="G68" s="56"/>
       <c r="H68" s="32"/>
-      <c r="I68" s="59"/>
+      <c r="I68" s="57"/>
       <c r="J68" s="31"/>
     </row>
     <row r="69" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13474,9 +13486,9 @@
         <f aca="false">IF(OR(E69="",E69="TBC"),"TBC",IFERROR(E69/VLOOKUP(D69,Settings!$A$7:$B$17,2,FALSE()),E69))</f>
         <v>TBC</v>
       </c>
-      <c r="G69" s="58"/>
+      <c r="G69" s="56"/>
       <c r="H69" s="32"/>
-      <c r="I69" s="59"/>
+      <c r="I69" s="57"/>
       <c r="J69" s="31"/>
     </row>
     <row r="70" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13489,9 +13501,9 @@
         <f aca="false">IF(OR(E70="",E70="TBC"),"TBC",IFERROR(E70/VLOOKUP(D70,Settings!$A$7:$B$17,2,FALSE()),E70))</f>
         <v>TBC</v>
       </c>
-      <c r="G70" s="58"/>
+      <c r="G70" s="56"/>
       <c r="H70" s="32"/>
-      <c r="I70" s="59"/>
+      <c r="I70" s="57"/>
       <c r="J70" s="31"/>
     </row>
     <row r="71" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13504,9 +13516,9 @@
         <f aca="false">IF(OR(E71="",E71="TBC"),"TBC",IFERROR(E71/VLOOKUP(D71,Settings!$A$7:$B$17,2,FALSE()),E71))</f>
         <v>TBC</v>
       </c>
-      <c r="G71" s="58"/>
+      <c r="G71" s="56"/>
       <c r="H71" s="32"/>
-      <c r="I71" s="59"/>
+      <c r="I71" s="57"/>
       <c r="J71" s="31"/>
     </row>
     <row r="72" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13519,9 +13531,9 @@
         <f aca="false">IF(OR(E72="",E72="TBC"),"TBC",IFERROR(E72/VLOOKUP(D72,Settings!$A$7:$B$17,2,FALSE()),E72))</f>
         <v>TBC</v>
       </c>
-      <c r="G72" s="58"/>
+      <c r="G72" s="56"/>
       <c r="H72" s="32"/>
-      <c r="I72" s="59"/>
+      <c r="I72" s="57"/>
       <c r="J72" s="31"/>
     </row>
     <row r="73" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13534,9 +13546,9 @@
         <f aca="false">IF(OR(E73="",E73="TBC"),"TBC",IFERROR(E73/VLOOKUP(D73,Settings!$A$7:$B$17,2,FALSE()),E73))</f>
         <v>TBC</v>
       </c>
-      <c r="G73" s="58"/>
+      <c r="G73" s="56"/>
       <c r="H73" s="32"/>
-      <c r="I73" s="59"/>
+      <c r="I73" s="57"/>
       <c r="J73" s="31"/>
     </row>
     <row r="74" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13549,9 +13561,9 @@
         <f aca="false">IF(OR(E74="",E74="TBC"),"TBC",IFERROR(E74/VLOOKUP(D74,Settings!$A$7:$B$17,2,FALSE()),E74))</f>
         <v>TBC</v>
       </c>
-      <c r="G74" s="58"/>
+      <c r="G74" s="56"/>
       <c r="H74" s="32"/>
-      <c r="I74" s="59"/>
+      <c r="I74" s="57"/>
       <c r="J74" s="31"/>
     </row>
     <row r="75" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13564,9 +13576,9 @@
         <f aca="false">IF(OR(E75="",E75="TBC"),"TBC",IFERROR(E75/VLOOKUP(D75,Settings!$A$7:$B$17,2,FALSE()),E75))</f>
         <v>TBC</v>
       </c>
-      <c r="G75" s="58"/>
+      <c r="G75" s="56"/>
       <c r="H75" s="32"/>
-      <c r="I75" s="59"/>
+      <c r="I75" s="57"/>
       <c r="J75" s="31"/>
     </row>
     <row r="76" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13579,9 +13591,9 @@
         <f aca="false">IF(OR(E76="",E76="TBC"),"TBC",IFERROR(E76/VLOOKUP(D76,Settings!$A$7:$B$17,2,FALSE()),E76))</f>
         <v>TBC</v>
       </c>
-      <c r="G76" s="58"/>
+      <c r="G76" s="56"/>
       <c r="H76" s="32"/>
-      <c r="I76" s="59"/>
+      <c r="I76" s="57"/>
       <c r="J76" s="31"/>
     </row>
     <row r="77" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13594,9 +13606,9 @@
         <f aca="false">IF(OR(E77="",E77="TBC"),"TBC",IFERROR(E77/VLOOKUP(D77,Settings!$A$7:$B$17,2,FALSE()),E77))</f>
         <v>TBC</v>
       </c>
-      <c r="G77" s="58"/>
+      <c r="G77" s="56"/>
       <c r="H77" s="32"/>
-      <c r="I77" s="59"/>
+      <c r="I77" s="57"/>
       <c r="J77" s="31"/>
     </row>
     <row r="78" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13609,9 +13621,9 @@
         <f aca="false">IF(OR(E78="",E78="TBC"),"TBC",IFERROR(E78/VLOOKUP(D78,Settings!$A$7:$B$17,2,FALSE()),E78))</f>
         <v>TBC</v>
       </c>
-      <c r="G78" s="58"/>
+      <c r="G78" s="56"/>
       <c r="H78" s="32"/>
-      <c r="I78" s="59"/>
+      <c r="I78" s="57"/>
       <c r="J78" s="31"/>
     </row>
     <row r="79" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13624,9 +13636,9 @@
         <f aca="false">IF(OR(E79="",E79="TBC"),"TBC",IFERROR(E79/VLOOKUP(D79,Settings!$A$7:$B$17,2,FALSE()),E79))</f>
         <v>TBC</v>
       </c>
-      <c r="G79" s="58"/>
+      <c r="G79" s="56"/>
       <c r="H79" s="32"/>
-      <c r="I79" s="59"/>
+      <c r="I79" s="57"/>
       <c r="J79" s="31"/>
     </row>
     <row r="80" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13639,9 +13651,9 @@
         <f aca="false">IF(OR(E80="",E80="TBC"),"TBC",IFERROR(E80/VLOOKUP(D80,Settings!$A$7:$B$17,2,FALSE()),E80))</f>
         <v>TBC</v>
       </c>
-      <c r="G80" s="58"/>
+      <c r="G80" s="56"/>
       <c r="H80" s="32"/>
-      <c r="I80" s="59"/>
+      <c r="I80" s="57"/>
       <c r="J80" s="31"/>
     </row>
     <row r="81" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13654,9 +13666,9 @@
         <f aca="false">IF(OR(E81="",E81="TBC"),"TBC",IFERROR(E81/VLOOKUP(D81,Settings!$A$7:$B$17,2,FALSE()),E81))</f>
         <v>TBC</v>
       </c>
-      <c r="G81" s="58"/>
+      <c r="G81" s="56"/>
       <c r="H81" s="32"/>
-      <c r="I81" s="59"/>
+      <c r="I81" s="57"/>
       <c r="J81" s="31"/>
     </row>
     <row r="82" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13669,9 +13681,9 @@
         <f aca="false">IF(OR(E82="",E82="TBC"),"TBC",IFERROR(E82/VLOOKUP(D82,Settings!$A$7:$B$17,2,FALSE()),E82))</f>
         <v>TBC</v>
       </c>
-      <c r="G82" s="58"/>
+      <c r="G82" s="56"/>
       <c r="H82" s="32"/>
-      <c r="I82" s="59"/>
+      <c r="I82" s="57"/>
       <c r="J82" s="31"/>
     </row>
     <row r="83" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13684,9 +13696,9 @@
         <f aca="false">IF(OR(E83="",E83="TBC"),"TBC",IFERROR(E83/VLOOKUP(D83,Settings!$A$7:$B$17,2,FALSE()),E83))</f>
         <v>TBC</v>
       </c>
-      <c r="G83" s="58"/>
+      <c r="G83" s="56"/>
       <c r="H83" s="32"/>
-      <c r="I83" s="59"/>
+      <c r="I83" s="57"/>
       <c r="J83" s="31"/>
     </row>
     <row r="84" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13699,9 +13711,9 @@
         <f aca="false">IF(OR(E84="",E84="TBC"),"TBC",IFERROR(E84/VLOOKUP(D84,Settings!$A$7:$B$17,2,FALSE()),E84))</f>
         <v>TBC</v>
       </c>
-      <c r="G84" s="58"/>
+      <c r="G84" s="56"/>
       <c r="H84" s="32"/>
-      <c r="I84" s="59"/>
+      <c r="I84" s="57"/>
       <c r="J84" s="31"/>
     </row>
     <row r="85" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13714,9 +13726,9 @@
         <f aca="false">IF(OR(E85="",E85="TBC"),"TBC",IFERROR(E85/VLOOKUP(D85,Settings!$A$7:$B$17,2,FALSE()),E85))</f>
         <v>TBC</v>
       </c>
-      <c r="G85" s="58"/>
+      <c r="G85" s="56"/>
       <c r="H85" s="32"/>
-      <c r="I85" s="59"/>
+      <c r="I85" s="57"/>
       <c r="J85" s="31"/>
     </row>
     <row r="86" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13729,9 +13741,9 @@
         <f aca="false">IF(OR(E86="",E86="TBC"),"TBC",IFERROR(E86/VLOOKUP(D86,Settings!$A$7:$B$17,2,FALSE()),E86))</f>
         <v>TBC</v>
       </c>
-      <c r="G86" s="58"/>
+      <c r="G86" s="56"/>
       <c r="H86" s="32"/>
-      <c r="I86" s="59"/>
+      <c r="I86" s="57"/>
       <c r="J86" s="31"/>
     </row>
     <row r="87" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13744,9 +13756,9 @@
         <f aca="false">IF(OR(E87="",E87="TBC"),"TBC",IFERROR(E87/VLOOKUP(D87,Settings!$A$7:$B$17,2,FALSE()),E87))</f>
         <v>TBC</v>
       </c>
-      <c r="G87" s="58"/>
+      <c r="G87" s="56"/>
       <c r="H87" s="32"/>
-      <c r="I87" s="59"/>
+      <c r="I87" s="57"/>
       <c r="J87" s="31"/>
     </row>
     <row r="88" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13759,9 +13771,9 @@
         <f aca="false">IF(OR(E88="",E88="TBC"),"TBC",IFERROR(E88/VLOOKUP(D88,Settings!$A$7:$B$17,2,FALSE()),E88))</f>
         <v>TBC</v>
       </c>
-      <c r="G88" s="58"/>
+      <c r="G88" s="56"/>
       <c r="H88" s="32"/>
-      <c r="I88" s="59"/>
+      <c r="I88" s="57"/>
       <c r="J88" s="31"/>
     </row>
     <row r="89" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13774,9 +13786,9 @@
         <f aca="false">IF(OR(E89="",E89="TBC"),"TBC",IFERROR(E89/VLOOKUP(D89,Settings!$A$7:$B$17,2,FALSE()),E89))</f>
         <v>TBC</v>
       </c>
-      <c r="G89" s="58"/>
+      <c r="G89" s="56"/>
       <c r="H89" s="32"/>
-      <c r="I89" s="59"/>
+      <c r="I89" s="57"/>
       <c r="J89" s="31"/>
     </row>
     <row r="90" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13789,9 +13801,9 @@
         <f aca="false">IF(OR(E90="",E90="TBC"),"TBC",IFERROR(E90/VLOOKUP(D90,Settings!$A$7:$B$17,2,FALSE()),E90))</f>
         <v>TBC</v>
       </c>
-      <c r="G90" s="58"/>
+      <c r="G90" s="56"/>
       <c r="H90" s="32"/>
-      <c r="I90" s="59"/>
+      <c r="I90" s="57"/>
       <c r="J90" s="31"/>
     </row>
     <row r="91" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13804,9 +13816,9 @@
         <f aca="false">IF(OR(E91="",E91="TBC"),"TBC",IFERROR(E91/VLOOKUP(D91,Settings!$A$7:$B$17,2,FALSE()),E91))</f>
         <v>TBC</v>
       </c>
-      <c r="G91" s="58"/>
+      <c r="G91" s="56"/>
       <c r="H91" s="32"/>
-      <c r="I91" s="59"/>
+      <c r="I91" s="57"/>
       <c r="J91" s="31"/>
     </row>
     <row r="92" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13819,9 +13831,9 @@
         <f aca="false">IF(OR(E92="",E92="TBC"),"TBC",IFERROR(E92/VLOOKUP(D92,Settings!$A$7:$B$17,2,FALSE()),E92))</f>
         <v>TBC</v>
       </c>
-      <c r="G92" s="58"/>
+      <c r="G92" s="56"/>
       <c r="H92" s="32"/>
-      <c r="I92" s="59"/>
+      <c r="I92" s="57"/>
       <c r="J92" s="31"/>
     </row>
     <row r="93" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13834,9 +13846,9 @@
         <f aca="false">IF(OR(E93="",E93="TBC"),"TBC",IFERROR(E93/VLOOKUP(D93,Settings!$A$7:$B$17,2,FALSE()),E93))</f>
         <v>TBC</v>
       </c>
-      <c r="G93" s="58"/>
+      <c r="G93" s="56"/>
       <c r="H93" s="32"/>
-      <c r="I93" s="59"/>
+      <c r="I93" s="57"/>
       <c r="J93" s="31"/>
     </row>
     <row r="94" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13849,9 +13861,9 @@
         <f aca="false">IF(OR(E94="",E94="TBC"),"TBC",IFERROR(E94/VLOOKUP(D94,Settings!$A$7:$B$17,2,FALSE()),E94))</f>
         <v>TBC</v>
       </c>
-      <c r="G94" s="58"/>
+      <c r="G94" s="56"/>
       <c r="H94" s="32"/>
-      <c r="I94" s="59"/>
+      <c r="I94" s="57"/>
       <c r="J94" s="31"/>
     </row>
     <row r="95" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13864,9 +13876,9 @@
         <f aca="false">IF(OR(E95="",E95="TBC"),"TBC",IFERROR(E95/VLOOKUP(D95,Settings!$A$7:$B$17,2,FALSE()),E95))</f>
         <v>TBC</v>
       </c>
-      <c r="G95" s="58"/>
+      <c r="G95" s="56"/>
       <c r="H95" s="32"/>
-      <c r="I95" s="59"/>
+      <c r="I95" s="57"/>
       <c r="J95" s="31"/>
     </row>
     <row r="96" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13879,9 +13891,9 @@
         <f aca="false">IF(OR(E96="",E96="TBC"),"TBC",IFERROR(E96/VLOOKUP(D96,Settings!$A$7:$B$17,2,FALSE()),E96))</f>
         <v>TBC</v>
       </c>
-      <c r="G96" s="58"/>
+      <c r="G96" s="56"/>
       <c r="H96" s="32"/>
-      <c r="I96" s="59"/>
+      <c r="I96" s="57"/>
       <c r="J96" s="31"/>
     </row>
     <row r="97" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13894,9 +13906,9 @@
         <f aca="false">IF(OR(E97="",E97="TBC"),"TBC",IFERROR(E97/VLOOKUP(D97,Settings!$A$7:$B$17,2,FALSE()),E97))</f>
         <v>TBC</v>
       </c>
-      <c r="G97" s="58"/>
+      <c r="G97" s="56"/>
       <c r="H97" s="32"/>
-      <c r="I97" s="59"/>
+      <c r="I97" s="57"/>
       <c r="J97" s="31"/>
     </row>
     <row r="98" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13909,9 +13921,9 @@
         <f aca="false">IF(OR(E98="",E98="TBC"),"TBC",IFERROR(E98/VLOOKUP(D98,Settings!$A$7:$B$17,2,FALSE()),E98))</f>
         <v>TBC</v>
       </c>
-      <c r="G98" s="58"/>
+      <c r="G98" s="56"/>
       <c r="H98" s="32"/>
-      <c r="I98" s="59"/>
+      <c r="I98" s="57"/>
       <c r="J98" s="31"/>
     </row>
     <row r="99" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13924,9 +13936,9 @@
         <f aca="false">IF(OR(E99="",E99="TBC"),"TBC",IFERROR(E99/VLOOKUP(D99,Settings!$A$7:$B$17,2,FALSE()),E99))</f>
         <v>TBC</v>
       </c>
-      <c r="G99" s="58"/>
+      <c r="G99" s="56"/>
       <c r="H99" s="32"/>
-      <c r="I99" s="59"/>
+      <c r="I99" s="57"/>
       <c r="J99" s="31"/>
     </row>
     <row r="100" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13939,9 +13951,9 @@
         <f aca="false">IF(OR(E100="",E100="TBC"),"TBC",IFERROR(E100/VLOOKUP(D100,Settings!$A$7:$B$17,2,FALSE()),E100))</f>
         <v>TBC</v>
       </c>
-      <c r="G100" s="58"/>
+      <c r="G100" s="56"/>
       <c r="H100" s="32"/>
-      <c r="I100" s="59"/>
+      <c r="I100" s="57"/>
       <c r="J100" s="31"/>
     </row>
     <row r="101" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13954,9 +13966,9 @@
         <f aca="false">IF(OR(E101="",E101="TBC"),"TBC",IFERROR(E101/VLOOKUP(D101,Settings!$A$7:$B$17,2,FALSE()),E101))</f>
         <v>TBC</v>
       </c>
-      <c r="G101" s="58"/>
+      <c r="G101" s="56"/>
       <c r="H101" s="32"/>
-      <c r="I101" s="59"/>
+      <c r="I101" s="57"/>
       <c r="J101" s="31"/>
     </row>
     <row r="102" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13969,9 +13981,9 @@
         <f aca="false">IF(OR(E102="",E102="TBC"),"TBC",IFERROR(E102/VLOOKUP(D102,Settings!$A$7:$B$17,2,FALSE()),E102))</f>
         <v>TBC</v>
       </c>
-      <c r="G102" s="58"/>
+      <c r="G102" s="56"/>
       <c r="H102" s="32"/>
-      <c r="I102" s="59"/>
+      <c r="I102" s="57"/>
       <c r="J102" s="31"/>
     </row>
     <row r="103" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13984,9 +13996,9 @@
         <f aca="false">IF(OR(E103="",E103="TBC"),"TBC",IFERROR(E103/VLOOKUP(D103,Settings!$A$7:$B$17,2,FALSE()),E103))</f>
         <v>TBC</v>
       </c>
-      <c r="G103" s="58"/>
+      <c r="G103" s="56"/>
       <c r="H103" s="32"/>
-      <c r="I103" s="59"/>
+      <c r="I103" s="57"/>
       <c r="J103" s="31"/>
     </row>
     <row r="104" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13999,9 +14011,9 @@
         <f aca="false">IF(OR(E104="",E104="TBC"),"TBC",IFERROR(E104/VLOOKUP(D104,Settings!$A$7:$B$17,2,FALSE()),E104))</f>
         <v>TBC</v>
       </c>
-      <c r="G104" s="58"/>
+      <c r="G104" s="56"/>
       <c r="H104" s="32"/>
-      <c r="I104" s="59"/>
+      <c r="I104" s="57"/>
       <c r="J104" s="31"/>
     </row>
     <row r="105" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14014,9 +14026,9 @@
         <f aca="false">IF(OR(E105="",E105="TBC"),"TBC",IFERROR(E105/VLOOKUP(D105,Settings!$A$7:$B$17,2,FALSE()),E105))</f>
         <v>TBC</v>
       </c>
-      <c r="G105" s="58"/>
+      <c r="G105" s="56"/>
       <c r="H105" s="32"/>
-      <c r="I105" s="59"/>
+      <c r="I105" s="57"/>
       <c r="J105" s="31"/>
     </row>
     <row r="106" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14029,9 +14041,9 @@
         <f aca="false">IF(OR(E106="",E106="TBC"),"TBC",IFERROR(E106/VLOOKUP(D106,Settings!$A$7:$B$17,2,FALSE()),E106))</f>
         <v>TBC</v>
       </c>
-      <c r="G106" s="58"/>
+      <c r="G106" s="56"/>
       <c r="H106" s="32"/>
-      <c r="I106" s="59"/>
+      <c r="I106" s="57"/>
       <c r="J106" s="31"/>
     </row>
     <row r="107" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14044,9 +14056,9 @@
         <f aca="false">IF(OR(E107="",E107="TBC"),"TBC",IFERROR(E107/VLOOKUP(D107,Settings!$A$7:$B$17,2,FALSE()),E107))</f>
         <v>TBC</v>
       </c>
-      <c r="G107" s="58"/>
+      <c r="G107" s="56"/>
       <c r="H107" s="32"/>
-      <c r="I107" s="59"/>
+      <c r="I107" s="57"/>
       <c r="J107" s="31"/>
     </row>
     <row r="108" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14059,9 +14071,9 @@
         <f aca="false">IF(OR(E108="",E108="TBC"),"TBC",IFERROR(E108/VLOOKUP(D108,Settings!$A$7:$B$17,2,FALSE()),E108))</f>
         <v>TBC</v>
       </c>
-      <c r="G108" s="58"/>
+      <c r="G108" s="56"/>
       <c r="H108" s="32"/>
-      <c r="I108" s="59"/>
+      <c r="I108" s="57"/>
       <c r="J108" s="31"/>
     </row>
     <row r="109" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14074,9 +14086,9 @@
         <f aca="false">IF(OR(E109="",E109="TBC"),"TBC",IFERROR(E109/VLOOKUP(D109,Settings!$A$7:$B$17,2,FALSE()),E109))</f>
         <v>TBC</v>
       </c>
-      <c r="G109" s="58"/>
+      <c r="G109" s="56"/>
       <c r="H109" s="32"/>
-      <c r="I109" s="59"/>
+      <c r="I109" s="57"/>
       <c r="J109" s="31"/>
     </row>
     <row r="110" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14089,9 +14101,9 @@
         <f aca="false">IF(OR(E110="",E110="TBC"),"TBC",IFERROR(E110/VLOOKUP(D110,Settings!$A$7:$B$17,2,FALSE()),E110))</f>
         <v>TBC</v>
       </c>
-      <c r="G110" s="58"/>
+      <c r="G110" s="56"/>
       <c r="H110" s="32"/>
-      <c r="I110" s="59"/>
+      <c r="I110" s="57"/>
       <c r="J110" s="31"/>
     </row>
     <row r="111" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14104,9 +14116,9 @@
         <f aca="false">IF(OR(E111="",E111="TBC"),"TBC",IFERROR(E111/VLOOKUP(D111,Settings!$A$7:$B$17,2,FALSE()),E111))</f>
         <v>TBC</v>
       </c>
-      <c r="G111" s="58"/>
+      <c r="G111" s="56"/>
       <c r="H111" s="32"/>
-      <c r="I111" s="59"/>
+      <c r="I111" s="57"/>
       <c r="J111" s="31"/>
     </row>
     <row r="112" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14119,9 +14131,9 @@
         <f aca="false">IF(OR(E112="",E112="TBC"),"TBC",IFERROR(E112/VLOOKUP(D112,Settings!$A$7:$B$17,2,FALSE()),E112))</f>
         <v>TBC</v>
       </c>
-      <c r="G112" s="58"/>
+      <c r="G112" s="56"/>
       <c r="H112" s="32"/>
-      <c r="I112" s="59"/>
+      <c r="I112" s="57"/>
       <c r="J112" s="31"/>
     </row>
     <row r="113" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14134,9 +14146,9 @@
         <f aca="false">IF(OR(E113="",E113="TBC"),"TBC",IFERROR(E113/VLOOKUP(D113,Settings!$A$7:$B$17,2,FALSE()),E113))</f>
         <v>TBC</v>
       </c>
-      <c r="G113" s="58"/>
+      <c r="G113" s="56"/>
       <c r="H113" s="32"/>
-      <c r="I113" s="59"/>
+      <c r="I113" s="57"/>
       <c r="J113" s="31"/>
     </row>
     <row r="114" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14149,9 +14161,9 @@
         <f aca="false">IF(OR(E114="",E114="TBC"),"TBC",IFERROR(E114/VLOOKUP(D114,Settings!$A$7:$B$17,2,FALSE()),E114))</f>
         <v>TBC</v>
       </c>
-      <c r="G114" s="58"/>
+      <c r="G114" s="56"/>
       <c r="H114" s="32"/>
-      <c r="I114" s="59"/>
+      <c r="I114" s="57"/>
       <c r="J114" s="31"/>
     </row>
     <row r="115" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14164,9 +14176,9 @@
         <f aca="false">IF(OR(E115="",E115="TBC"),"TBC",IFERROR(E115/VLOOKUP(D115,Settings!$A$7:$B$17,2,FALSE()),E115))</f>
         <v>TBC</v>
       </c>
-      <c r="G115" s="58"/>
+      <c r="G115" s="56"/>
       <c r="H115" s="32"/>
-      <c r="I115" s="59"/>
+      <c r="I115" s="57"/>
       <c r="J115" s="31"/>
     </row>
     <row r="116" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14179,9 +14191,9 @@
         <f aca="false">IF(OR(E116="",E116="TBC"),"TBC",IFERROR(E116/VLOOKUP(D116,Settings!$A$7:$B$17,2,FALSE()),E116))</f>
         <v>TBC</v>
       </c>
-      <c r="G116" s="58"/>
+      <c r="G116" s="56"/>
       <c r="H116" s="32"/>
-      <c r="I116" s="59"/>
+      <c r="I116" s="57"/>
       <c r="J116" s="31"/>
     </row>
     <row r="117" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14194,9 +14206,9 @@
         <f aca="false">IF(OR(E117="",E117="TBC"),"TBC",IFERROR(E117/VLOOKUP(D117,Settings!$A$7:$B$17,2,FALSE()),E117))</f>
         <v>TBC</v>
       </c>
-      <c r="G117" s="58"/>
+      <c r="G117" s="56"/>
       <c r="H117" s="32"/>
-      <c r="I117" s="59"/>
+      <c r="I117" s="57"/>
       <c r="J117" s="31"/>
     </row>
     <row r="118" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14209,9 +14221,9 @@
         <f aca="false">IF(OR(E118="",E118="TBC"),"TBC",IFERROR(E118/VLOOKUP(D118,Settings!$A$7:$B$17,2,FALSE()),E118))</f>
         <v>TBC</v>
       </c>
-      <c r="G118" s="58"/>
+      <c r="G118" s="56"/>
       <c r="H118" s="32"/>
-      <c r="I118" s="59"/>
+      <c r="I118" s="57"/>
       <c r="J118" s="31"/>
     </row>
     <row r="119" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14224,9 +14236,9 @@
         <f aca="false">IF(OR(E119="",E119="TBC"),"TBC",IFERROR(E119/VLOOKUP(D119,Settings!$A$7:$B$17,2,FALSE()),E119))</f>
         <v>TBC</v>
       </c>
-      <c r="G119" s="58"/>
+      <c r="G119" s="56"/>
       <c r="H119" s="32"/>
-      <c r="I119" s="59"/>
+      <c r="I119" s="57"/>
       <c r="J119" s="31"/>
     </row>
     <row r="120" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14239,9 +14251,9 @@
         <f aca="false">IF(OR(E120="",E120="TBC"),"TBC",IFERROR(E120/VLOOKUP(D120,Settings!$A$7:$B$17,2,FALSE()),E120))</f>
         <v>TBC</v>
       </c>
-      <c r="G120" s="58"/>
+      <c r="G120" s="56"/>
       <c r="H120" s="32"/>
-      <c r="I120" s="59"/>
+      <c r="I120" s="57"/>
       <c r="J120" s="31"/>
     </row>
     <row r="121" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14254,9 +14266,9 @@
         <f aca="false">IF(OR(E121="",E121="TBC"),"TBC",IFERROR(E121/VLOOKUP(D121,Settings!$A$7:$B$17,2,FALSE()),E121))</f>
         <v>TBC</v>
       </c>
-      <c r="G121" s="58"/>
+      <c r="G121" s="56"/>
       <c r="H121" s="32"/>
-      <c r="I121" s="59"/>
+      <c r="I121" s="57"/>
       <c r="J121" s="31"/>
     </row>
     <row r="122" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14269,9 +14281,9 @@
         <f aca="false">IF(OR(E122="",E122="TBC"),"TBC",IFERROR(E122/VLOOKUP(D122,Settings!$A$7:$B$17,2,FALSE()),E122))</f>
         <v>TBC</v>
       </c>
-      <c r="G122" s="58"/>
+      <c r="G122" s="56"/>
       <c r="H122" s="32"/>
-      <c r="I122" s="59"/>
+      <c r="I122" s="57"/>
       <c r="J122" s="31"/>
     </row>
     <row r="123" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14284,9 +14296,9 @@
         <f aca="false">IF(OR(E123="",E123="TBC"),"TBC",IFERROR(E123/VLOOKUP(D123,Settings!$A$7:$B$17,2,FALSE()),E123))</f>
         <v>TBC</v>
       </c>
-      <c r="G123" s="58"/>
+      <c r="G123" s="56"/>
       <c r="H123" s="32"/>
-      <c r="I123" s="59"/>
+      <c r="I123" s="57"/>
       <c r="J123" s="31"/>
     </row>
     <row r="124" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14299,9 +14311,9 @@
         <f aca="false">IF(OR(E124="",E124="TBC"),"TBC",IFERROR(E124/VLOOKUP(D124,Settings!$A$7:$B$17,2,FALSE()),E124))</f>
         <v>TBC</v>
       </c>
-      <c r="G124" s="58"/>
+      <c r="G124" s="56"/>
       <c r="H124" s="32"/>
-      <c r="I124" s="59"/>
+      <c r="I124" s="57"/>
       <c r="J124" s="31"/>
     </row>
     <row r="125" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14314,9 +14326,9 @@
         <f aca="false">IF(OR(E125="",E125="TBC"),"TBC",IFERROR(E125/VLOOKUP(D125,Settings!$A$7:$B$17,2,FALSE()),E125))</f>
         <v>TBC</v>
       </c>
-      <c r="G125" s="58"/>
+      <c r="G125" s="56"/>
       <c r="H125" s="32"/>
-      <c r="I125" s="59"/>
+      <c r="I125" s="57"/>
       <c r="J125" s="31"/>
     </row>
     <row r="126" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14329,9 +14341,9 @@
         <f aca="false">IF(OR(E126="",E126="TBC"),"TBC",IFERROR(E126/VLOOKUP(D126,Settings!$A$7:$B$17,2,FALSE()),E126))</f>
         <v>TBC</v>
       </c>
-      <c r="G126" s="58"/>
+      <c r="G126" s="56"/>
       <c r="H126" s="32"/>
-      <c r="I126" s="59"/>
+      <c r="I126" s="57"/>
       <c r="J126" s="31"/>
     </row>
     <row r="127" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14344,9 +14356,9 @@
         <f aca="false">IF(OR(E127="",E127="TBC"),"TBC",IFERROR(E127/VLOOKUP(D127,Settings!$A$7:$B$17,2,FALSE()),E127))</f>
         <v>TBC</v>
       </c>
-      <c r="G127" s="58"/>
+      <c r="G127" s="56"/>
       <c r="H127" s="32"/>
-      <c r="I127" s="59"/>
+      <c r="I127" s="57"/>
       <c r="J127" s="31"/>
     </row>
     <row r="128" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14359,9 +14371,9 @@
         <f aca="false">IF(OR(E128="",E128="TBC"),"TBC",IFERROR(E128/VLOOKUP(D128,Settings!$A$7:$B$17,2,FALSE()),E128))</f>
         <v>TBC</v>
       </c>
-      <c r="G128" s="58"/>
+      <c r="G128" s="56"/>
       <c r="H128" s="32"/>
-      <c r="I128" s="59"/>
+      <c r="I128" s="57"/>
       <c r="J128" s="31"/>
     </row>
     <row r="129" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14374,9 +14386,9 @@
         <f aca="false">IF(OR(E129="",E129="TBC"),"TBC",IFERROR(E129/VLOOKUP(D129,Settings!$A$7:$B$17,2,FALSE()),E129))</f>
         <v>TBC</v>
       </c>
-      <c r="G129" s="58"/>
+      <c r="G129" s="56"/>
       <c r="H129" s="32"/>
-      <c r="I129" s="59"/>
+      <c r="I129" s="57"/>
       <c r="J129" s="31"/>
     </row>
     <row r="130" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14389,9 +14401,9 @@
         <f aca="false">IF(OR(E130="",E130="TBC"),"TBC",IFERROR(E130/VLOOKUP(D130,Settings!$A$7:$B$17,2,FALSE()),E130))</f>
         <v>TBC</v>
       </c>
-      <c r="G130" s="58"/>
+      <c r="G130" s="56"/>
       <c r="H130" s="32"/>
-      <c r="I130" s="59"/>
+      <c r="I130" s="57"/>
       <c r="J130" s="31"/>
     </row>
     <row r="131" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14404,9 +14416,9 @@
         <f aca="false">IF(OR(E131="",E131="TBC"),"TBC",IFERROR(E131/VLOOKUP(D131,Settings!$A$7:$B$17,2,FALSE()),E131))</f>
         <v>TBC</v>
       </c>
-      <c r="G131" s="58"/>
+      <c r="G131" s="56"/>
       <c r="H131" s="32"/>
-      <c r="I131" s="59"/>
+      <c r="I131" s="57"/>
       <c r="J131" s="31"/>
     </row>
     <row r="132" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14419,9 +14431,9 @@
         <f aca="false">IF(OR(E132="",E132="TBC"),"TBC",IFERROR(E132/VLOOKUP(D132,Settings!$A$7:$B$17,2,FALSE()),E132))</f>
         <v>TBC</v>
       </c>
-      <c r="G132" s="58"/>
+      <c r="G132" s="56"/>
       <c r="H132" s="32"/>
-      <c r="I132" s="59"/>
+      <c r="I132" s="57"/>
       <c r="J132" s="31"/>
     </row>
     <row r="133" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14434,9 +14446,9 @@
         <f aca="false">IF(OR(E133="",E133="TBC"),"TBC",IFERROR(E133/VLOOKUP(D133,Settings!$A$7:$B$17,2,FALSE()),E133))</f>
         <v>TBC</v>
       </c>
-      <c r="G133" s="58"/>
+      <c r="G133" s="56"/>
       <c r="H133" s="32"/>
-      <c r="I133" s="59"/>
+      <c r="I133" s="57"/>
       <c r="J133" s="31"/>
     </row>
     <row r="134" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14449,9 +14461,9 @@
         <f aca="false">IF(OR(E134="",E134="TBC"),"TBC",IFERROR(E134/VLOOKUP(D134,Settings!$A$7:$B$17,2,FALSE()),E134))</f>
         <v>TBC</v>
       </c>
-      <c r="G134" s="58"/>
+      <c r="G134" s="56"/>
       <c r="H134" s="32"/>
-      <c r="I134" s="59"/>
+      <c r="I134" s="57"/>
       <c r="J134" s="31"/>
     </row>
     <row r="135" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14464,9 +14476,9 @@
         <f aca="false">IF(OR(E135="",E135="TBC"),"TBC",IFERROR(E135/VLOOKUP(D135,Settings!$A$7:$B$17,2,FALSE()),E135))</f>
         <v>TBC</v>
       </c>
-      <c r="G135" s="58"/>
+      <c r="G135" s="56"/>
       <c r="H135" s="32"/>
-      <c r="I135" s="59"/>
+      <c r="I135" s="57"/>
       <c r="J135" s="31"/>
     </row>
     <row r="136" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14479,9 +14491,9 @@
         <f aca="false">IF(OR(E136="",E136="TBC"),"TBC",IFERROR(E136/VLOOKUP(D136,Settings!$A$7:$B$17,2,FALSE()),E136))</f>
         <v>TBC</v>
       </c>
-      <c r="G136" s="58"/>
+      <c r="G136" s="56"/>
       <c r="H136" s="32"/>
-      <c r="I136" s="59"/>
+      <c r="I136" s="57"/>
       <c r="J136" s="31"/>
     </row>
     <row r="137" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14494,9 +14506,9 @@
         <f aca="false">IF(OR(E137="",E137="TBC"),"TBC",IFERROR(E137/VLOOKUP(D137,Settings!$A$7:$B$17,2,FALSE()),E137))</f>
         <v>TBC</v>
       </c>
-      <c r="G137" s="58"/>
+      <c r="G137" s="56"/>
       <c r="H137" s="32"/>
-      <c r="I137" s="59"/>
+      <c r="I137" s="57"/>
       <c r="J137" s="31"/>
     </row>
     <row r="138" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14509,9 +14521,9 @@
         <f aca="false">IF(OR(E138="",E138="TBC"),"TBC",IFERROR(E138/VLOOKUP(D138,Settings!$A$7:$B$17,2,FALSE()),E138))</f>
         <v>TBC</v>
       </c>
-      <c r="G138" s="58"/>
+      <c r="G138" s="56"/>
       <c r="H138" s="32"/>
-      <c r="I138" s="59"/>
+      <c r="I138" s="57"/>
       <c r="J138" s="31"/>
     </row>
     <row r="139" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14524,9 +14536,9 @@
         <f aca="false">IF(OR(E139="",E139="TBC"),"TBC",IFERROR(E139/VLOOKUP(D139,Settings!$A$7:$B$17,2,FALSE()),E139))</f>
         <v>TBC</v>
       </c>
-      <c r="G139" s="58"/>
+      <c r="G139" s="56"/>
       <c r="H139" s="32"/>
-      <c r="I139" s="59"/>
+      <c r="I139" s="57"/>
       <c r="J139" s="31"/>
     </row>
     <row r="140" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14539,9 +14551,9 @@
         <f aca="false">IF(OR(E140="",E140="TBC"),"TBC",IFERROR(E140/VLOOKUP(D140,Settings!$A$7:$B$17,2,FALSE()),E140))</f>
         <v>TBC</v>
       </c>
-      <c r="G140" s="58"/>
+      <c r="G140" s="56"/>
       <c r="H140" s="32"/>
-      <c r="I140" s="59"/>
+      <c r="I140" s="57"/>
       <c r="J140" s="31"/>
     </row>
     <row r="141" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14554,9 +14566,9 @@
         <f aca="false">IF(OR(E141="",E141="TBC"),"TBC",IFERROR(E141/VLOOKUP(D141,Settings!$A$7:$B$17,2,FALSE()),E141))</f>
         <v>TBC</v>
       </c>
-      <c r="G141" s="58"/>
+      <c r="G141" s="56"/>
       <c r="H141" s="32"/>
-      <c r="I141" s="59"/>
+      <c r="I141" s="57"/>
       <c r="J141" s="31"/>
     </row>
     <row r="142" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14569,9 +14581,9 @@
         <f aca="false">IF(OR(E142="",E142="TBC"),"TBC",IFERROR(E142/VLOOKUP(D142,Settings!$A$7:$B$17,2,FALSE()),E142))</f>
         <v>TBC</v>
       </c>
-      <c r="G142" s="58"/>
+      <c r="G142" s="56"/>
       <c r="H142" s="32"/>
-      <c r="I142" s="59"/>
+      <c r="I142" s="57"/>
       <c r="J142" s="31"/>
     </row>
     <row r="143" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14584,9 +14596,9 @@
         <f aca="false">IF(OR(E143="",E143="TBC"),"TBC",IFERROR(E143/VLOOKUP(D143,Settings!$A$7:$B$17,2,FALSE()),E143))</f>
         <v>TBC</v>
       </c>
-      <c r="G143" s="58"/>
+      <c r="G143" s="56"/>
       <c r="H143" s="32"/>
-      <c r="I143" s="59"/>
+      <c r="I143" s="57"/>
       <c r="J143" s="31"/>
     </row>
     <row r="144" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14599,9 +14611,9 @@
         <f aca="false">IF(OR(E144="",E144="TBC"),"TBC",IFERROR(E144/VLOOKUP(D144,Settings!$A$7:$B$17,2,FALSE()),E144))</f>
         <v>TBC</v>
       </c>
-      <c r="G144" s="58"/>
+      <c r="G144" s="56"/>
       <c r="H144" s="32"/>
-      <c r="I144" s="59"/>
+      <c r="I144" s="57"/>
       <c r="J144" s="31"/>
     </row>
     <row r="145" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14614,9 +14626,9 @@
         <f aca="false">IF(OR(E145="",E145="TBC"),"TBC",IFERROR(E145/VLOOKUP(D145,Settings!$A$7:$B$17,2,FALSE()),E145))</f>
         <v>TBC</v>
       </c>
-      <c r="G145" s="58"/>
+      <c r="G145" s="56"/>
       <c r="H145" s="32"/>
-      <c r="I145" s="59"/>
+      <c r="I145" s="57"/>
       <c r="J145" s="31"/>
     </row>
     <row r="146" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14629,9 +14641,9 @@
         <f aca="false">IF(OR(E146="",E146="TBC"),"TBC",IFERROR(E146/VLOOKUP(D146,Settings!$A$7:$B$17,2,FALSE()),E146))</f>
         <v>TBC</v>
       </c>
-      <c r="G146" s="58"/>
+      <c r="G146" s="56"/>
       <c r="H146" s="32"/>
-      <c r="I146" s="59"/>
+      <c r="I146" s="57"/>
       <c r="J146" s="31"/>
     </row>
     <row r="147" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14644,9 +14656,9 @@
         <f aca="false">IF(OR(E147="",E147="TBC"),"TBC",IFERROR(E147/VLOOKUP(D147,Settings!$A$7:$B$17,2,FALSE()),E147))</f>
         <v>TBC</v>
       </c>
-      <c r="G147" s="58"/>
+      <c r="G147" s="56"/>
       <c r="H147" s="32"/>
-      <c r="I147" s="59"/>
+      <c r="I147" s="57"/>
       <c r="J147" s="31"/>
     </row>
     <row r="148" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14659,9 +14671,9 @@
         <f aca="false">IF(OR(E148="",E148="TBC"),"TBC",IFERROR(E148/VLOOKUP(D148,Settings!$A$7:$B$17,2,FALSE()),E148))</f>
         <v>TBC</v>
       </c>
-      <c r="G148" s="58"/>
+      <c r="G148" s="56"/>
       <c r="H148" s="32"/>
-      <c r="I148" s="59"/>
+      <c r="I148" s="57"/>
       <c r="J148" s="31"/>
     </row>
     <row r="149" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14674,9 +14686,9 @@
         <f aca="false">IF(OR(E149="",E149="TBC"),"TBC",IFERROR(E149/VLOOKUP(D149,Settings!$A$7:$B$17,2,FALSE()),E149))</f>
         <v>TBC</v>
       </c>
-      <c r="G149" s="58"/>
+      <c r="G149" s="56"/>
       <c r="H149" s="32"/>
-      <c r="I149" s="59"/>
+      <c r="I149" s="57"/>
       <c r="J149" s="31"/>
     </row>
     <row r="150" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14689,9 +14701,9 @@
         <f aca="false">IF(OR(E150="",E150="TBC"),"TBC",IFERROR(E150/VLOOKUP(D150,Settings!$A$7:$B$17,2,FALSE()),E150))</f>
         <v>TBC</v>
       </c>
-      <c r="G150" s="58"/>
+      <c r="G150" s="56"/>
       <c r="H150" s="32"/>
-      <c r="I150" s="59"/>
+      <c r="I150" s="57"/>
       <c r="J150" s="31"/>
     </row>
     <row r="151" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14704,9 +14716,9 @@
         <f aca="false">IF(OR(E151="",E151="TBC"),"TBC",IFERROR(E151/VLOOKUP(D151,Settings!$A$7:$B$17,2,FALSE()),E151))</f>
         <v>TBC</v>
       </c>
-      <c r="G151" s="58"/>
+      <c r="G151" s="56"/>
       <c r="H151" s="32"/>
-      <c r="I151" s="59"/>
+      <c r="I151" s="57"/>
       <c r="J151" s="31"/>
     </row>
     <row r="152" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14719,9 +14731,9 @@
         <f aca="false">IF(OR(E152="",E152="TBC"),"TBC",IFERROR(E152/VLOOKUP(D152,Settings!$A$7:$B$17,2,FALSE()),E152))</f>
         <v>TBC</v>
       </c>
-      <c r="G152" s="58"/>
+      <c r="G152" s="56"/>
       <c r="H152" s="32"/>
-      <c r="I152" s="59"/>
+      <c r="I152" s="57"/>
       <c r="J152" s="31"/>
     </row>
     <row r="153" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14734,9 +14746,9 @@
         <f aca="false">IF(OR(E153="",E153="TBC"),"TBC",IFERROR(E153/VLOOKUP(D153,Settings!$A$7:$B$17,2,FALSE()),E153))</f>
         <v>TBC</v>
       </c>
-      <c r="G153" s="58"/>
+      <c r="G153" s="56"/>
       <c r="H153" s="32"/>
-      <c r="I153" s="59"/>
+      <c r="I153" s="57"/>
       <c r="J153" s="31"/>
     </row>
     <row r="154" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14749,9 +14761,9 @@
         <f aca="false">IF(OR(E154="",E154="TBC"),"TBC",IFERROR(E154/VLOOKUP(D154,Settings!$A$7:$B$17,2,FALSE()),E154))</f>
         <v>TBC</v>
       </c>
-      <c r="G154" s="58"/>
+      <c r="G154" s="56"/>
       <c r="H154" s="32"/>
-      <c r="I154" s="59"/>
+      <c r="I154" s="57"/>
       <c r="J154" s="31"/>
     </row>
     <row r="155" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14764,9 +14776,9 @@
         <f aca="false">IF(OR(E155="",E155="TBC"),"TBC",IFERROR(E155/VLOOKUP(D155,Settings!$A$7:$B$17,2,FALSE()),E155))</f>
         <v>TBC</v>
       </c>
-      <c r="G155" s="58"/>
+      <c r="G155" s="56"/>
       <c r="H155" s="32"/>
-      <c r="I155" s="59"/>
+      <c r="I155" s="57"/>
       <c r="J155" s="31"/>
     </row>
     <row r="156" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14779,9 +14791,9 @@
         <f aca="false">IF(OR(E156="",E156="TBC"),"TBC",IFERROR(E156/VLOOKUP(D156,Settings!$A$7:$B$17,2,FALSE()),E156))</f>
         <v>TBC</v>
       </c>
-      <c r="G156" s="58"/>
+      <c r="G156" s="56"/>
       <c r="H156" s="32"/>
-      <c r="I156" s="59"/>
+      <c r="I156" s="57"/>
       <c r="J156" s="31"/>
     </row>
     <row r="157" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14794,9 +14806,9 @@
         <f aca="false">IF(OR(E157="",E157="TBC"),"TBC",IFERROR(E157/VLOOKUP(D157,Settings!$A$7:$B$17,2,FALSE()),E157))</f>
         <v>TBC</v>
       </c>
-      <c r="G157" s="58"/>
+      <c r="G157" s="56"/>
       <c r="H157" s="32"/>
-      <c r="I157" s="59"/>
+      <c r="I157" s="57"/>
       <c r="J157" s="31"/>
     </row>
     <row r="158" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14809,9 +14821,9 @@
         <f aca="false">IF(OR(E158="",E158="TBC"),"TBC",IFERROR(E158/VLOOKUP(D158,Settings!$A$7:$B$17,2,FALSE()),E158))</f>
         <v>TBC</v>
       </c>
-      <c r="G158" s="58"/>
+      <c r="G158" s="56"/>
       <c r="H158" s="32"/>
-      <c r="I158" s="59"/>
+      <c r="I158" s="57"/>
       <c r="J158" s="31"/>
     </row>
     <row r="159" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14824,9 +14836,9 @@
         <f aca="false">IF(OR(E159="",E159="TBC"),"TBC",IFERROR(E159/VLOOKUP(D159,Settings!$A$7:$B$17,2,FALSE()),E159))</f>
         <v>TBC</v>
       </c>
-      <c r="G159" s="58"/>
+      <c r="G159" s="56"/>
       <c r="H159" s="32"/>
-      <c r="I159" s="59"/>
+      <c r="I159" s="57"/>
       <c r="J159" s="31"/>
     </row>
     <row r="160" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14839,9 +14851,9 @@
         <f aca="false">IF(OR(E160="",E160="TBC"),"TBC",IFERROR(E160/VLOOKUP(D160,Settings!$A$7:$B$17,2,FALSE()),E160))</f>
         <v>TBC</v>
       </c>
-      <c r="G160" s="58"/>
+      <c r="G160" s="56"/>
       <c r="H160" s="32"/>
-      <c r="I160" s="59"/>
+      <c r="I160" s="57"/>
       <c r="J160" s="31"/>
     </row>
     <row r="161" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14854,9 +14866,9 @@
         <f aca="false">IF(OR(E161="",E161="TBC"),"TBC",IFERROR(E161/VLOOKUP(D161,Settings!$A$7:$B$17,2,FALSE()),E161))</f>
         <v>TBC</v>
       </c>
-      <c r="G161" s="58"/>
+      <c r="G161" s="56"/>
       <c r="H161" s="32"/>
-      <c r="I161" s="59"/>
+      <c r="I161" s="57"/>
       <c r="J161" s="31"/>
     </row>
     <row r="162" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14869,9 +14881,9 @@
         <f aca="false">IF(OR(E162="",E162="TBC"),"TBC",IFERROR(E162/VLOOKUP(D162,Settings!$A$7:$B$17,2,FALSE()),E162))</f>
         <v>TBC</v>
       </c>
-      <c r="G162" s="58"/>
+      <c r="G162" s="56"/>
       <c r="H162" s="32"/>
-      <c r="I162" s="59"/>
+      <c r="I162" s="57"/>
       <c r="J162" s="31"/>
     </row>
     <row r="163" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14884,9 +14896,9 @@
         <f aca="false">IF(OR(E163="",E163="TBC"),"TBC",IFERROR(E163/VLOOKUP(D163,Settings!$A$7:$B$17,2,FALSE()),E163))</f>
         <v>TBC</v>
       </c>
-      <c r="G163" s="58"/>
+      <c r="G163" s="56"/>
       <c r="H163" s="32"/>
-      <c r="I163" s="59"/>
+      <c r="I163" s="57"/>
       <c r="J163" s="31"/>
     </row>
     <row r="164" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14899,9 +14911,9 @@
         <f aca="false">IF(OR(E164="",E164="TBC"),"TBC",IFERROR(E164/VLOOKUP(D164,Settings!$A$7:$B$17,2,FALSE()),E164))</f>
         <v>TBC</v>
       </c>
-      <c r="G164" s="58"/>
+      <c r="G164" s="56"/>
       <c r="H164" s="32"/>
-      <c r="I164" s="59"/>
+      <c r="I164" s="57"/>
       <c r="J164" s="31"/>
     </row>
     <row r="165" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14914,9 +14926,9 @@
         <f aca="false">IF(OR(E165="",E165="TBC"),"TBC",IFERROR(E165/VLOOKUP(D165,Settings!$A$7:$B$17,2,FALSE()),E165))</f>
         <v>TBC</v>
       </c>
-      <c r="G165" s="58"/>
+      <c r="G165" s="56"/>
       <c r="H165" s="32"/>
-      <c r="I165" s="59"/>
+      <c r="I165" s="57"/>
       <c r="J165" s="31"/>
     </row>
     <row r="166" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14929,9 +14941,9 @@
         <f aca="false">IF(OR(E166="",E166="TBC"),"TBC",IFERROR(E166/VLOOKUP(D166,Settings!$A$7:$B$17,2,FALSE()),E166))</f>
         <v>TBC</v>
       </c>
-      <c r="G166" s="58"/>
+      <c r="G166" s="56"/>
       <c r="H166" s="32"/>
-      <c r="I166" s="59"/>
+      <c r="I166" s="57"/>
       <c r="J166" s="31"/>
     </row>
     <row r="167" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14944,9 +14956,9 @@
         <f aca="false">IF(OR(E167="",E167="TBC"),"TBC",IFERROR(E167/VLOOKUP(D167,Settings!$A$7:$B$17,2,FALSE()),E167))</f>
         <v>TBC</v>
       </c>
-      <c r="G167" s="58"/>
+      <c r="G167" s="56"/>
       <c r="H167" s="32"/>
-      <c r="I167" s="59"/>
+      <c r="I167" s="57"/>
       <c r="J167" s="31"/>
     </row>
     <row r="168" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14959,9 +14971,9 @@
         <f aca="false">IF(OR(E168="",E168="TBC"),"TBC",IFERROR(E168/VLOOKUP(D168,Settings!$A$7:$B$17,2,FALSE()),E168))</f>
         <v>TBC</v>
       </c>
-      <c r="G168" s="58"/>
+      <c r="G168" s="56"/>
       <c r="H168" s="32"/>
-      <c r="I168" s="59"/>
+      <c r="I168" s="57"/>
       <c r="J168" s="31"/>
     </row>
     <row r="169" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14974,9 +14986,9 @@
         <f aca="false">IF(OR(E169="",E169="TBC"),"TBC",IFERROR(E169/VLOOKUP(D169,Settings!$A$7:$B$17,2,FALSE()),E169))</f>
         <v>TBC</v>
       </c>
-      <c r="G169" s="58"/>
+      <c r="G169" s="56"/>
       <c r="H169" s="32"/>
-      <c r="I169" s="59"/>
+      <c r="I169" s="57"/>
       <c r="J169" s="31"/>
     </row>
     <row r="170" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14989,9 +15001,9 @@
         <f aca="false">IF(OR(E170="",E170="TBC"),"TBC",IFERROR(E170/VLOOKUP(D170,Settings!$A$7:$B$17,2,FALSE()),E170))</f>
         <v>TBC</v>
       </c>
-      <c r="G170" s="58"/>
+      <c r="G170" s="56"/>
       <c r="H170" s="32"/>
-      <c r="I170" s="59"/>
+      <c r="I170" s="57"/>
       <c r="J170" s="31"/>
     </row>
     <row r="171" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15004,9 +15016,9 @@
         <f aca="false">IF(OR(E171="",E171="TBC"),"TBC",IFERROR(E171/VLOOKUP(D171,Settings!$A$7:$B$17,2,FALSE()),E171))</f>
         <v>TBC</v>
       </c>
-      <c r="G171" s="58"/>
+      <c r="G171" s="56"/>
       <c r="H171" s="32"/>
-      <c r="I171" s="59"/>
+      <c r="I171" s="57"/>
       <c r="J171" s="31"/>
     </row>
     <row r="172" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15019,9 +15031,9 @@
         <f aca="false">IF(OR(E172="",E172="TBC"),"TBC",IFERROR(E172/VLOOKUP(D172,Settings!$A$7:$B$17,2,FALSE()),E172))</f>
         <v>TBC</v>
       </c>
-      <c r="G172" s="58"/>
+      <c r="G172" s="56"/>
       <c r="H172" s="32"/>
-      <c r="I172" s="59"/>
+      <c r="I172" s="57"/>
       <c r="J172" s="31"/>
     </row>
     <row r="173" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15034,9 +15046,9 @@
         <f aca="false">IF(OR(E173="",E173="TBC"),"TBC",IFERROR(E173/VLOOKUP(D173,Settings!$A$7:$B$17,2,FALSE()),E173))</f>
         <v>TBC</v>
       </c>
-      <c r="G173" s="58"/>
+      <c r="G173" s="56"/>
       <c r="H173" s="32"/>
-      <c r="I173" s="59"/>
+      <c r="I173" s="57"/>
       <c r="J173" s="31"/>
     </row>
     <row r="174" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15049,9 +15061,9 @@
         <f aca="false">IF(OR(E174="",E174="TBC"),"TBC",IFERROR(E174/VLOOKUP(D174,Settings!$A$7:$B$17,2,FALSE()),E174))</f>
         <v>TBC</v>
       </c>
-      <c r="G174" s="58"/>
+      <c r="G174" s="56"/>
       <c r="H174" s="32"/>
-      <c r="I174" s="59"/>
+      <c r="I174" s="57"/>
       <c r="J174" s="31"/>
     </row>
     <row r="175" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15064,9 +15076,9 @@
         <f aca="false">IF(OR(E175="",E175="TBC"),"TBC",IFERROR(E175/VLOOKUP(D175,Settings!$A$7:$B$17,2,FALSE()),E175))</f>
         <v>TBC</v>
       </c>
-      <c r="G175" s="58"/>
+      <c r="G175" s="56"/>
       <c r="H175" s="32"/>
-      <c r="I175" s="59"/>
+      <c r="I175" s="57"/>
       <c r="J175" s="31"/>
     </row>
     <row r="176" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15079,9 +15091,9 @@
         <f aca="false">IF(OR(E176="",E176="TBC"),"TBC",IFERROR(E176/VLOOKUP(D176,Settings!$A$7:$B$17,2,FALSE()),E176))</f>
         <v>TBC</v>
       </c>
-      <c r="G176" s="58"/>
+      <c r="G176" s="56"/>
       <c r="H176" s="32"/>
-      <c r="I176" s="59"/>
+      <c r="I176" s="57"/>
       <c r="J176" s="31"/>
     </row>
     <row r="177" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15094,9 +15106,9 @@
         <f aca="false">IF(OR(E177="",E177="TBC"),"TBC",IFERROR(E177/VLOOKUP(D177,Settings!$A$7:$B$17,2,FALSE()),E177))</f>
         <v>TBC</v>
       </c>
-      <c r="G177" s="58"/>
+      <c r="G177" s="56"/>
       <c r="H177" s="32"/>
-      <c r="I177" s="59"/>
+      <c r="I177" s="57"/>
       <c r="J177" s="31"/>
     </row>
     <row r="178" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15109,9 +15121,9 @@
         <f aca="false">IF(OR(E178="",E178="TBC"),"TBC",IFERROR(E178/VLOOKUP(D178,Settings!$A$7:$B$17,2,FALSE()),E178))</f>
         <v>TBC</v>
       </c>
-      <c r="G178" s="58"/>
+      <c r="G178" s="56"/>
       <c r="H178" s="32"/>
-      <c r="I178" s="59"/>
+      <c r="I178" s="57"/>
       <c r="J178" s="31"/>
     </row>
     <row r="179" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15124,9 +15136,9 @@
         <f aca="false">IF(OR(E179="",E179="TBC"),"TBC",IFERROR(E179/VLOOKUP(D179,Settings!$A$7:$B$17,2,FALSE()),E179))</f>
         <v>TBC</v>
       </c>
-      <c r="G179" s="58"/>
+      <c r="G179" s="56"/>
       <c r="H179" s="32"/>
-      <c r="I179" s="59"/>
+      <c r="I179" s="57"/>
       <c r="J179" s="31"/>
     </row>
     <row r="180" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15139,9 +15151,9 @@
         <f aca="false">IF(OR(E180="",E180="TBC"),"TBC",IFERROR(E180/VLOOKUP(D180,Settings!$A$7:$B$17,2,FALSE()),E180))</f>
         <v>TBC</v>
       </c>
-      <c r="G180" s="58"/>
+      <c r="G180" s="56"/>
       <c r="H180" s="32"/>
-      <c r="I180" s="59"/>
+      <c r="I180" s="57"/>
       <c r="J180" s="31"/>
     </row>
     <row r="181" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15154,9 +15166,9 @@
         <f aca="false">IF(OR(E181="",E181="TBC"),"TBC",IFERROR(E181/VLOOKUP(D181,Settings!$A$7:$B$17,2,FALSE()),E181))</f>
         <v>TBC</v>
       </c>
-      <c r="G181" s="58"/>
+      <c r="G181" s="56"/>
       <c r="H181" s="32"/>
-      <c r="I181" s="59"/>
+      <c r="I181" s="57"/>
       <c r="J181" s="31"/>
     </row>
     <row r="182" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15169,9 +15181,9 @@
         <f aca="false">IF(OR(E182="",E182="TBC"),"TBC",IFERROR(E182/VLOOKUP(D182,Settings!$A$7:$B$17,2,FALSE()),E182))</f>
         <v>TBC</v>
       </c>
-      <c r="G182" s="58"/>
+      <c r="G182" s="56"/>
       <c r="H182" s="32"/>
-      <c r="I182" s="59"/>
+      <c r="I182" s="57"/>
       <c r="J182" s="31"/>
     </row>
     <row r="183" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15184,9 +15196,9 @@
         <f aca="false">IF(OR(E183="",E183="TBC"),"TBC",IFERROR(E183/VLOOKUP(D183,Settings!$A$7:$B$17,2,FALSE()),E183))</f>
         <v>TBC</v>
       </c>
-      <c r="G183" s="58"/>
+      <c r="G183" s="56"/>
       <c r="H183" s="32"/>
-      <c r="I183" s="59"/>
+      <c r="I183" s="57"/>
       <c r="J183" s="31"/>
     </row>
     <row r="184" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15199,9 +15211,9 @@
         <f aca="false">IF(OR(E184="",E184="TBC"),"TBC",IFERROR(E184/VLOOKUP(D184,Settings!$A$7:$B$17,2,FALSE()),E184))</f>
         <v>TBC</v>
       </c>
-      <c r="G184" s="58"/>
+      <c r="G184" s="56"/>
       <c r="H184" s="32"/>
-      <c r="I184" s="59"/>
+      <c r="I184" s="57"/>
       <c r="J184" s="31"/>
     </row>
     <row r="185" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15214,9 +15226,9 @@
         <f aca="false">IF(OR(E185="",E185="TBC"),"TBC",IFERROR(E185/VLOOKUP(D185,Settings!$A$7:$B$17,2,FALSE()),E185))</f>
         <v>TBC</v>
       </c>
-      <c r="G185" s="58"/>
+      <c r="G185" s="56"/>
       <c r="H185" s="32"/>
-      <c r="I185" s="59"/>
+      <c r="I185" s="57"/>
       <c r="J185" s="31"/>
     </row>
     <row r="186" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15229,9 +15241,9 @@
         <f aca="false">IF(OR(E186="",E186="TBC"),"TBC",IFERROR(E186/VLOOKUP(D186,Settings!$A$7:$B$17,2,FALSE()),E186))</f>
         <v>TBC</v>
       </c>
-      <c r="G186" s="58"/>
+      <c r="G186" s="56"/>
       <c r="H186" s="32"/>
-      <c r="I186" s="59"/>
+      <c r="I186" s="57"/>
       <c r="J186" s="31"/>
     </row>
     <row r="187" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15244,9 +15256,9 @@
         <f aca="false">IF(OR(E187="",E187="TBC"),"TBC",IFERROR(E187/VLOOKUP(D187,Settings!$A$7:$B$17,2,FALSE()),E187))</f>
         <v>TBC</v>
       </c>
-      <c r="G187" s="58"/>
+      <c r="G187" s="56"/>
       <c r="H187" s="32"/>
-      <c r="I187" s="59"/>
+      <c r="I187" s="57"/>
       <c r="J187" s="31"/>
     </row>
     <row r="188" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15259,9 +15271,9 @@
         <f aca="false">IF(OR(E188="",E188="TBC"),"TBC",IFERROR(E188/VLOOKUP(D188,Settings!$A$7:$B$17,2,FALSE()),E188))</f>
         <v>TBC</v>
       </c>
-      <c r="G188" s="58"/>
+      <c r="G188" s="56"/>
       <c r="H188" s="32"/>
-      <c r="I188" s="59"/>
+      <c r="I188" s="57"/>
       <c r="J188" s="31"/>
     </row>
     <row r="189" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15274,9 +15286,9 @@
         <f aca="false">IF(OR(E189="",E189="TBC"),"TBC",IFERROR(E189/VLOOKUP(D189,Settings!$A$7:$B$17,2,FALSE()),E189))</f>
         <v>TBC</v>
       </c>
-      <c r="G189" s="58"/>
+      <c r="G189" s="56"/>
       <c r="H189" s="32"/>
-      <c r="I189" s="59"/>
+      <c r="I189" s="57"/>
       <c r="J189" s="31"/>
     </row>
     <row r="190" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15289,9 +15301,9 @@
         <f aca="false">IF(OR(E190="",E190="TBC"),"TBC",IFERROR(E190/VLOOKUP(D190,Settings!$A$7:$B$17,2,FALSE()),E190))</f>
         <v>TBC</v>
       </c>
-      <c r="G190" s="58"/>
+      <c r="G190" s="56"/>
       <c r="H190" s="32"/>
-      <c r="I190" s="59"/>
+      <c r="I190" s="57"/>
       <c r="J190" s="31"/>
     </row>
     <row r="191" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15304,9 +15316,9 @@
         <f aca="false">IF(OR(E191="",E191="TBC"),"TBC",IFERROR(E191/VLOOKUP(D191,Settings!$A$7:$B$17,2,FALSE()),E191))</f>
         <v>TBC</v>
       </c>
-      <c r="G191" s="58"/>
+      <c r="G191" s="56"/>
       <c r="H191" s="32"/>
-      <c r="I191" s="59"/>
+      <c r="I191" s="57"/>
       <c r="J191" s="31"/>
     </row>
     <row r="192" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15319,9 +15331,9 @@
         <f aca="false">IF(OR(E192="",E192="TBC"),"TBC",IFERROR(E192/VLOOKUP(D192,Settings!$A$7:$B$17,2,FALSE()),E192))</f>
         <v>TBC</v>
       </c>
-      <c r="G192" s="58"/>
+      <c r="G192" s="56"/>
       <c r="H192" s="32"/>
-      <c r="I192" s="59"/>
+      <c r="I192" s="57"/>
       <c r="J192" s="31"/>
     </row>
     <row r="193" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15334,9 +15346,9 @@
         <f aca="false">IF(OR(E193="",E193="TBC"),"TBC",IFERROR(E193/VLOOKUP(D193,Settings!$A$7:$B$17,2,FALSE()),E193))</f>
         <v>TBC</v>
       </c>
-      <c r="G193" s="58"/>
+      <c r="G193" s="56"/>
       <c r="H193" s="32"/>
-      <c r="I193" s="59"/>
+      <c r="I193" s="57"/>
       <c r="J193" s="31"/>
     </row>
     <row r="194" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15349,9 +15361,9 @@
         <f aca="false">IF(OR(E194="",E194="TBC"),"TBC",IFERROR(E194/VLOOKUP(D194,Settings!$A$7:$B$17,2,FALSE()),E194))</f>
         <v>TBC</v>
       </c>
-      <c r="G194" s="58"/>
+      <c r="G194" s="56"/>
       <c r="H194" s="32"/>
-      <c r="I194" s="59"/>
+      <c r="I194" s="57"/>
       <c r="J194" s="31"/>
     </row>
     <row r="195" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15364,9 +15376,9 @@
         <f aca="false">IF(OR(E195="",E195="TBC"),"TBC",IFERROR(E195/VLOOKUP(D195,Settings!$A$7:$B$17,2,FALSE()),E195))</f>
         <v>TBC</v>
       </c>
-      <c r="G195" s="58"/>
+      <c r="G195" s="56"/>
       <c r="H195" s="32"/>
-      <c r="I195" s="59"/>
+      <c r="I195" s="57"/>
       <c r="J195" s="31"/>
     </row>
     <row r="196" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15379,58 +15391,58 @@
         <f aca="false">IF(OR(E196="",E196="TBC"),"TBC",IFERROR(E196/VLOOKUP(D196,Settings!$A$7:$B$17,2,FALSE()),E196))</f>
         <v>TBC</v>
       </c>
-      <c r="G196" s="58"/>
+      <c r="G196" s="56"/>
       <c r="H196" s="32"/>
-      <c r="I196" s="59"/>
+      <c r="I196" s="57"/>
       <c r="J196" s="31"/>
     </row>
     <row r="197" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="43"/>
-      <c r="B197" s="43"/>
-      <c r="C197" s="43"/>
-      <c r="D197" s="44"/>
-      <c r="E197" s="45"/>
-      <c r="F197" s="45"/>
-      <c r="G197" s="60"/>
-      <c r="H197" s="43"/>
-      <c r="I197" s="61"/>
-      <c r="J197" s="50"/>
+      <c r="A197" s="41"/>
+      <c r="B197" s="41"/>
+      <c r="C197" s="41"/>
+      <c r="D197" s="42"/>
+      <c r="E197" s="43"/>
+      <c r="F197" s="43"/>
+      <c r="G197" s="58"/>
+      <c r="H197" s="41"/>
+      <c r="I197" s="59"/>
+      <c r="J197" s="48"/>
     </row>
     <row r="198" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="43"/>
-      <c r="B198" s="43"/>
-      <c r="C198" s="43"/>
-      <c r="D198" s="44"/>
-      <c r="E198" s="45"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="60"/>
-      <c r="H198" s="43"/>
-      <c r="I198" s="61"/>
-      <c r="J198" s="50"/>
+      <c r="A198" s="41"/>
+      <c r="B198" s="41"/>
+      <c r="C198" s="41"/>
+      <c r="D198" s="42"/>
+      <c r="E198" s="43"/>
+      <c r="F198" s="43"/>
+      <c r="G198" s="58"/>
+      <c r="H198" s="41"/>
+      <c r="I198" s="59"/>
+      <c r="J198" s="48"/>
     </row>
     <row r="199" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="43"/>
-      <c r="B199" s="43"/>
-      <c r="C199" s="43"/>
-      <c r="D199" s="44"/>
-      <c r="E199" s="45"/>
-      <c r="F199" s="45"/>
-      <c r="G199" s="60"/>
-      <c r="H199" s="43"/>
-      <c r="I199" s="61"/>
-      <c r="J199" s="50"/>
+      <c r="A199" s="41"/>
+      <c r="B199" s="41"/>
+      <c r="C199" s="41"/>
+      <c r="D199" s="42"/>
+      <c r="E199" s="43"/>
+      <c r="F199" s="43"/>
+      <c r="G199" s="58"/>
+      <c r="H199" s="41"/>
+      <c r="I199" s="59"/>
+      <c r="J199" s="48"/>
     </row>
     <row r="200" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="43"/>
-      <c r="B200" s="43"/>
-      <c r="C200" s="43"/>
-      <c r="D200" s="44"/>
-      <c r="E200" s="45"/>
-      <c r="F200" s="45"/>
-      <c r="G200" s="60"/>
-      <c r="H200" s="43"/>
-      <c r="I200" s="61"/>
-      <c r="J200" s="50"/>
+      <c r="A200" s="41"/>
+      <c r="B200" s="41"/>
+      <c r="C200" s="41"/>
+      <c r="D200" s="42"/>
+      <c r="E200" s="43"/>
+      <c r="F200" s="43"/>
+      <c r="G200" s="58"/>
+      <c r="H200" s="41"/>
+      <c r="I200" s="59"/>
+      <c r="J200" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15523,344 +15535,344 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" s="62"/>
+      <c r="A4" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="60"/>
     </row>
     <row r="5" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="63"/>
+      <c r="A5" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="61"/>
     </row>
     <row r="6" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="62"/>
+      <c r="A7" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="60"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>308</v>
+      <c r="A8" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>310</v>
+      <c r="A9" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>312</v>
+      <c r="A10" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>314</v>
+      <c r="A11" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="62" t="s">
-        <v>315</v>
-      </c>
-      <c r="B13" s="62"/>
+      <c r="A13" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" s="60"/>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>317</v>
+      <c r="A14" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="69" t="s">
-        <v>318</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>319</v>
+      <c r="A15" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="71" t="s">
-        <v>320</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>321</v>
+      <c r="A16" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>323</v>
+      <c r="A17" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="75" t="s">
-        <v>324</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>325</v>
+      <c r="A18" s="73" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="B20" s="62"/>
+      <c r="A20" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" s="60"/>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="B21" s="77" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="B22" s="77" t="s">
-        <v>330</v>
+        <v>332</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="B23" s="77" t="s">
-        <v>332</v>
+        <v>334</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="B24" s="77" t="s">
-        <v>334</v>
+        <v>336</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="B25" s="77" t="s">
-        <v>336</v>
+        <v>338</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="62" t="s">
-        <v>337</v>
-      </c>
-      <c r="B27" s="62"/>
+      <c r="A27" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27" s="60"/>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="B28" s="77" t="s">
-        <v>338</v>
+        <v>330</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="B29" s="77" t="s">
-        <v>339</v>
+        <v>332</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="B30" s="77" t="s">
-        <v>340</v>
+        <v>334</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="B31" s="77" t="s">
-        <v>341</v>
+        <v>336</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="B32" s="77" t="s">
-        <v>342</v>
+        <v>338</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="62" t="s">
-        <v>343</v>
-      </c>
-      <c r="B34" s="62"/>
+      <c r="A34" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="B34" s="60"/>
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="B35" s="79" t="s">
-        <v>345</v>
+      <c r="A35" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="B35" s="77" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="B36" s="79" t="s">
-        <v>346</v>
+      <c r="A36" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="B36" s="77" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="B37" s="79" t="s">
+      <c r="A37" s="76" t="s">
         <v>347</v>
       </c>
+      <c r="B37" s="77" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="62" t="s">
-        <v>348</v>
-      </c>
-      <c r="B39" s="62"/>
+      <c r="A39" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="B39" s="60"/>
     </row>
     <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="B40" s="77" t="s">
-        <v>349</v>
+        <v>330</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="B41" s="77" t="s">
-        <v>350</v>
+        <v>332</v>
+      </c>
+      <c r="B41" s="75" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="B42" s="77" t="s">
-        <v>351</v>
+        <v>334</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="B43" s="77" t="s">
-        <v>352</v>
+        <v>336</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="62" t="s">
-        <v>353</v>
-      </c>
-      <c r="B45" s="62"/>
+      <c r="A45" s="60" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" s="60"/>
     </row>
     <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="80" t="s">
-        <v>354</v>
-      </c>
-      <c r="B46" s="76" t="s">
-        <v>355</v>
+      <c r="A46" s="78" t="s">
+        <v>357</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="B47" s="70" t="s">
-        <v>357</v>
+      <c r="A47" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" s="68" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="81" t="s">
-        <v>358</v>
-      </c>
-      <c r="B48" s="70" t="s">
-        <v>359</v>
+      <c r="A48" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" s="68" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="B49" s="70" t="s">
-        <v>361</v>
+      <c r="A49" s="79" t="s">
+        <v>363</v>
+      </c>
+      <c r="B49" s="68" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -15909,7 +15921,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -15918,7 +15930,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -15927,280 +15939,280 @@
     </row>
     <row r="3" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82" t="s">
-        <v>366</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>367</v>
-      </c>
-      <c r="C4" s="84" t="n">
+      <c r="A4" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="85" t="s">
-        <v>368</v>
-      </c>
-      <c r="E4" s="86"/>
+      <c r="D4" s="83" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="84"/>
     </row>
     <row r="5" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="82" t="s">
-        <v>369</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>370</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>371</v>
-      </c>
-      <c r="D6" s="82" t="s">
+      <c r="A6" s="80" t="s">
         <v>372</v>
       </c>
-      <c r="E6" s="87"/>
+      <c r="B6" s="80" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" s="85"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="89" t="n">
+      <c r="B7" s="87" t="n">
         <v>3.6725</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="90" t="s">
-        <v>373</v>
-      </c>
-      <c r="E7" s="86"/>
+      <c r="D7" s="88" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="84"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="89" t="n">
+      <c r="B8" s="87" t="n">
         <v>7.012512</v>
       </c>
-      <c r="C8" s="90" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>374</v>
-      </c>
-      <c r="E8" s="86"/>
+      <c r="C8" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="84"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="92" t="n">
+      <c r="B9" s="90" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="90" t="s">
-        <v>375</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>375</v>
-      </c>
-      <c r="E9" s="86"/>
+      <c r="C9" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="E9" s="84"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="89" t="n">
+      <c r="B10" s="87" t="n">
         <v>0.8434</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="90" t="s">
-        <v>376</v>
-      </c>
-      <c r="E10" s="86"/>
+      <c r="D10" s="88" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" s="84"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="89" t="n">
+      <c r="B11" s="87" t="n">
         <v>1.2535</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="90" t="s">
-        <v>377</v>
-      </c>
-      <c r="E11" s="86"/>
+      <c r="D11" s="88" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" s="84"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="89" t="n">
+      <c r="B12" s="87" t="n">
         <v>78.8527</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="88" t="s">
+        <v>381</v>
+      </c>
+      <c r="E12" s="84"/>
+    </row>
+    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="87" t="n">
+        <v>90.63</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="84"/>
+    </row>
+    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="86" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" s="87" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>385</v>
+      </c>
+      <c r="E14" s="84"/>
+    </row>
+    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="86" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" s="87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="C15" s="88" t="s">
         <v>378</v>
       </c>
-      <c r="E12" s="86"/>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="89" t="n">
-        <v>90.63</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="90" t="s">
-        <v>379</v>
-      </c>
-      <c r="E13" s="86"/>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="88" t="s">
-        <v>380</v>
-      </c>
-      <c r="B14" s="89" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>381</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>382</v>
-      </c>
-      <c r="E14" s="86"/>
-    </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="88" t="s">
-        <v>383</v>
-      </c>
-      <c r="B15" s="89" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="C15" s="90" t="s">
-        <v>375</v>
-      </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="88" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="84"/>
+    </row>
+    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="86" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" s="87" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="C16" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="E15" s="86"/>
-    </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="88" t="s">
+      <c r="D16" s="88" t="s">
         <v>385</v>
       </c>
-      <c r="B16" s="89" t="n">
-        <v>0.788</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>381</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>382</v>
-      </c>
-      <c r="E16" s="86"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="93" t="s">
-        <v>300</v>
-      </c>
-      <c r="B17" s="94" t="n">
+      <c r="A17" s="91" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="92" t="n">
         <v>0.37286</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="82" t="s">
-        <v>386</v>
-      </c>
-      <c r="B18" s="82" t="s">
-        <v>387</v>
-      </c>
-      <c r="C18" s="82" t="s">
+      <c r="A18" s="80" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>390</v>
+      </c>
+      <c r="C18" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="96" t="n">
+      <c r="B19" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="97" t="s">
-        <v>388</v>
-      </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
+      <c r="C19" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="96" t="n">
+      <c r="B20" s="94" t="n">
         <v>0.005</v>
       </c>
-      <c r="C20" s="97" t="s">
-        <v>389</v>
-      </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
+      <c r="C20" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="96" t="n">
+      <c r="B21" s="94" t="n">
         <v>0.005</v>
       </c>
-      <c r="C21" s="97" t="s">
-        <v>390</v>
-      </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
+      <c r="C21" s="95" t="s">
+        <v>393</v>
+      </c>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="96" t="n">
+      <c r="B22" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="C22" s="97" t="s">
-        <v>391</v>
-      </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
+      <c r="C22" s="95" t="s">
+        <v>394</v>
+      </c>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="B23" s="96" t="n">
+      <c r="A23" s="93" t="s">
+        <v>395</v>
+      </c>
+      <c r="B23" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="97" t="s">
-        <v>393</v>
-      </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
+      <c r="C23" s="95" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
     </row>
     <row r="25" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="98" t="s">
-        <v>394</v>
-      </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
+      <c r="A25" s="96" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Agent_Model_v2.xlsx
+++ b/Agent_Model_v2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="400">
   <si>
     <t xml:space="preserve">📊 DASHBOARD</t>
   </si>
@@ -1192,6 +1192,12 @@
   </si>
   <si>
     <t xml:space="preserve">GBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:1 USD (stablecoin)</t>
   </si>
   <si>
     <t xml:space="preserve">TRANSACTION TYPE</t>
@@ -1363,6 +1369,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="9"/>
       <color rgb="FF1F7A1F"/>
@@ -1426,12 +1438,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF606060"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1600,7 +1606,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1797,11 +1803,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1817,11 +1827,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1829,7 +1843,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1837,7 +1851,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1925,15 +1939,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1953,7 +1967,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1965,12 +1979,20 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1981,12 +2003,20 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2539,7 +2569,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="11" t="n">
         <f aca="false">SUMIF(Invoices!$G$5:$G$200,"✅ Paid",Invoices!$F$5:$F$200)</f>
-        <v>1921335.89099567</v>
+        <v>1921335.88</v>
       </c>
       <c r="F11" s="11"/>
     </row>
@@ -2563,7 +2593,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="n">
         <f aca="false">SUMIF(Invoices!$G$5:$G$200,"⏳ Pending",Invoices!$F$5:$F$200)</f>
-        <v>382101.181068754</v>
+        <v>382101.18</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -2587,7 +2617,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="16" t="n">
         <f aca="false">SUMPRODUCT(IF(Invoices!$G$5:$G$200&lt;&gt;"✅ Paid",IF(Invoices!$G$5:$G$200&lt;&gt;"",IF(ISNUMBER(Invoices!$F$5:$F$200),Invoices!$F$5:$F$200,0),0),0))</f>
-        <v>382101.181068754</v>
+        <v>382101.18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11864,17 +11894,16 @@
       <c r="E5" s="26" t="n">
         <v>1507500</v>
       </c>
-      <c r="F5" s="26" t="n">
-        <f aca="false">IF(OR(E5="",E5="TBC"),"TBC",IFERROR(E5/VLOOKUP(D5,Settings!$A$7:$B$17,2,FALSE()),E5))</f>
-        <v>410483.321987747</v>
-      </c>
-      <c r="G5" s="49" t="s">
+      <c r="F5" s="49" t="n">
+        <v>410483.32</v>
+      </c>
+      <c r="G5" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="51" t="s">
         <v>179</v>
       </c>
       <c r="J5" s="31" t="s">
@@ -11897,17 +11926,16 @@
       <c r="E6" s="26" t="n">
         <v>74520</v>
       </c>
-      <c r="F6" s="26" t="n">
-        <f aca="false">IF(OR(E6="",E6="TBC"),"TBC",IFERROR(E6/VLOOKUP(D6,Settings!$A$7:$B$17,2,FALSE()),E6))</f>
-        <v>10626.7197831533</v>
-      </c>
-      <c r="G6" s="49" t="s">
+      <c r="F6" s="49" t="n">
+        <v>10626.72</v>
+      </c>
+      <c r="G6" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="51" t="s">
         <v>183</v>
       </c>
       <c r="J6" s="31" t="s">
@@ -11930,17 +11958,16 @@
       <c r="E7" s="26" t="n">
         <v>381089</v>
       </c>
-      <c r="F7" s="26" t="n">
-        <f aca="false">IF(OR(E7="",E7="TBC"),"TBC",IFERROR(E7/VLOOKUP(D7,Settings!$A$7:$B$17,2,FALSE()),E7))</f>
-        <v>54344.1494289065</v>
-      </c>
-      <c r="G7" s="49" t="s">
+      <c r="F7" s="49" t="n">
+        <v>54344.15</v>
+      </c>
+      <c r="G7" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="51" t="s">
         <v>186</v>
       </c>
       <c r="J7" s="31" t="s">
@@ -11963,17 +11990,16 @@
       <c r="E8" s="26" t="n">
         <v>4356737.02</v>
       </c>
-      <c r="F8" s="26" t="n">
-        <f aca="false">IF(OR(E8="",E8="TBC"),"TBC",IFERROR(E8/VLOOKUP(D8,Settings!$A$7:$B$17,2,FALSE()),E8))</f>
-        <v>621280.50832569</v>
-      </c>
-      <c r="G8" s="49" t="s">
+      <c r="F8" s="49" t="n">
+        <v>621280.51</v>
+      </c>
+      <c r="G8" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J8" s="31" t="s">
@@ -11996,17 +12022,16 @@
       <c r="E9" s="26" t="n">
         <v>30240</v>
       </c>
-      <c r="F9" s="26" t="n">
-        <f aca="false">IF(OR(E9="",E9="TBC"),"TBC",IFERROR(E9/VLOOKUP(D9,Settings!$A$7:$B$17,2,FALSE()),E9))</f>
-        <v>8234.17290673928</v>
-      </c>
-      <c r="G9" s="49" t="s">
+      <c r="F9" s="49" t="n">
+        <v>8234.17</v>
+      </c>
+      <c r="G9" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="51" t="s">
         <v>193</v>
       </c>
       <c r="J9" s="31" t="s">
@@ -12029,17 +12054,16 @@
       <c r="E10" s="26" t="n">
         <v>1890</v>
       </c>
-      <c r="F10" s="26" t="n">
-        <f aca="false">IF(OR(E10="",E10="TBC"),"TBC",IFERROR(E10/VLOOKUP(D10,Settings!$A$7:$B$17,2,FALSE()),E10))</f>
-        <v>514.635806671205</v>
-      </c>
-      <c r="G10" s="49" t="s">
+      <c r="F10" s="49" t="n">
+        <v>514.64</v>
+      </c>
+      <c r="G10" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="51" t="s">
         <v>196</v>
       </c>
       <c r="J10" s="31" t="s">
@@ -12062,17 +12086,16 @@
       <c r="E11" s="26" t="n">
         <v>27858.6</v>
       </c>
-      <c r="F11" s="26" t="n">
-        <f aca="false">IF(OR(E11="",E11="TBC"),"TBC",IFERROR(E11/VLOOKUP(D11,Settings!$A$7:$B$17,2,FALSE()),E11))</f>
-        <v>7585.73179033356</v>
-      </c>
-      <c r="G11" s="49" t="s">
+      <c r="F11" s="49" t="n">
+        <v>7585.73</v>
+      </c>
+      <c r="G11" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="51" t="s">
         <v>199</v>
       </c>
       <c r="J11" s="31" t="s">
@@ -12095,17 +12118,16 @@
       <c r="E12" s="26" t="n">
         <v>283413.37</v>
       </c>
-      <c r="F12" s="26" t="n">
-        <f aca="false">IF(OR(E12="",E12="TBC"),"TBC",IFERROR(E12/VLOOKUP(D12,Settings!$A$7:$B$17,2,FALSE()),E12))</f>
-        <v>77171.7821647379</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="F12" s="49" t="n">
+        <v>77171.78</v>
+      </c>
+      <c r="G12" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="51" t="s">
         <v>202</v>
       </c>
       <c r="J12" s="31" t="s">
@@ -12128,17 +12150,16 @@
       <c r="E13" s="26" t="n">
         <v>9082.5</v>
       </c>
-      <c r="F13" s="26" t="n">
-        <f aca="false">IF(OR(E13="",E13="TBC"),"TBC",IFERROR(E13/VLOOKUP(D13,Settings!$A$7:$B$17,2,FALSE()),E13))</f>
-        <v>2473.11095983662</v>
-      </c>
-      <c r="G13" s="49" t="s">
+      <c r="F13" s="49" t="n">
+        <v>2473.11</v>
+      </c>
+      <c r="G13" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="51" t="s">
         <v>206</v>
       </c>
       <c r="J13" s="31" t="s">
@@ -12161,17 +12182,16 @@
       <c r="E14" s="26" t="n">
         <v>4160</v>
       </c>
-      <c r="F14" s="26" t="n">
-        <f aca="false">IF(OR(E14="",E14="TBC"),"TBC",IFERROR(E14/VLOOKUP(D14,Settings!$A$7:$B$17,2,FALSE()),E14))</f>
-        <v>1132.74336283186</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="49" t="n">
+        <v>1132.74</v>
+      </c>
+      <c r="G14" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="51" t="s">
         <v>209</v>
       </c>
       <c r="J14" s="31" t="s">
@@ -12194,17 +12214,16 @@
       <c r="E15" s="26" t="n">
         <v>310.9</v>
       </c>
-      <c r="F15" s="26" t="n">
-        <f aca="false">IF(OR(E15="",E15="TBC"),"TBC",IFERROR(E15/VLOOKUP(D15,Settings!$A$7:$B$17,2,FALSE()),E15))</f>
-        <v>248.025528520144</v>
-      </c>
-      <c r="G15" s="49" t="s">
+      <c r="F15" s="49" t="n">
+        <v>248.03</v>
+      </c>
+      <c r="G15" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="51" t="s">
         <v>213</v>
       </c>
       <c r="J15" s="31" t="s">
@@ -12227,17 +12246,16 @@
       <c r="E16" s="26" t="n">
         <v>310.9</v>
       </c>
-      <c r="F16" s="26" t="n">
-        <f aca="false">IF(OR(E16="",E16="TBC"),"TBC",IFERROR(E16/VLOOKUP(D16,Settings!$A$7:$B$17,2,FALSE()),E16))</f>
-        <v>248.025528520144</v>
-      </c>
-      <c r="G16" s="49" t="s">
+      <c r="F16" s="49" t="n">
+        <v>248.03</v>
+      </c>
+      <c r="G16" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="51" t="s">
         <v>213</v>
       </c>
       <c r="J16" s="31" t="s">
@@ -12260,17 +12278,16 @@
       <c r="E17" s="26" t="n">
         <v>310.9</v>
       </c>
-      <c r="F17" s="26" t="n">
-        <f aca="false">IF(OR(E17="",E17="TBC"),"TBC",IFERROR(E17/VLOOKUP(D17,Settings!$A$7:$B$17,2,FALSE()),E17))</f>
-        <v>248.025528520144</v>
-      </c>
-      <c r="G17" s="49" t="s">
+      <c r="F17" s="49" t="n">
+        <v>248.03</v>
+      </c>
+      <c r="G17" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="51" t="s">
         <v>213</v>
       </c>
       <c r="J17" s="31" t="s">
@@ -12293,17 +12310,16 @@
       <c r="E18" s="26" t="n">
         <v>2350</v>
       </c>
-      <c r="F18" s="26" t="n">
-        <f aca="false">IF(OR(E18="",E18="TBC"),"TBC",IFERROR(E18/VLOOKUP(D18,Settings!$A$7:$B$17,2,FALSE()),E18))</f>
-        <v>639.891082368959</v>
-      </c>
-      <c r="G18" s="49" t="s">
+      <c r="F18" s="49" t="n">
+        <v>639.89</v>
+      </c>
+      <c r="G18" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="51" t="s">
         <v>220</v>
       </c>
       <c r="J18" s="31" t="s">
@@ -12326,17 +12342,16 @@
       <c r="E19" s="26" t="n">
         <v>5000</v>
       </c>
-      <c r="F19" s="26" t="n">
-        <f aca="false">IF(OR(E19="",E19="TBC"),"TBC",IFERROR(E19/VLOOKUP(D19,Settings!$A$7:$B$17,2,FALSE()),E19))</f>
-        <v>1361.47038801906</v>
-      </c>
-      <c r="G19" s="49" t="s">
+      <c r="F19" s="49" t="n">
+        <v>1361.47</v>
+      </c>
+      <c r="G19" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="51" t="s">
         <v>224</v>
       </c>
       <c r="J19" s="31" t="s">
@@ -12359,17 +12374,16 @@
       <c r="E20" s="26" t="n">
         <v>2121212.17</v>
       </c>
-      <c r="F20" s="26" t="n">
-        <f aca="false">IF(OR(E20="",E20="TBC"),"TBC",IFERROR(E20/VLOOKUP(D20,Settings!$A$7:$B$17,2,FALSE()),E20))</f>
-        <v>577593.511232131</v>
-      </c>
-      <c r="G20" s="49" t="s">
+      <c r="F20" s="49" t="n">
+        <v>577593.51</v>
+      </c>
+      <c r="G20" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="51" t="s">
         <v>227</v>
       </c>
       <c r="J20" s="31" t="s">
@@ -12392,17 +12406,16 @@
       <c r="E21" s="26" t="n">
         <v>55453.14</v>
       </c>
-      <c r="F21" s="26" t="n">
-        <f aca="false">IF(OR(E21="",E21="TBC"),"TBC",IFERROR(E21/VLOOKUP(D21,Settings!$A$7:$B$17,2,FALSE()),E21))</f>
-        <v>15099.5616065351</v>
-      </c>
-      <c r="G21" s="49" t="s">
+      <c r="F21" s="49" t="n">
+        <v>15099.56</v>
+      </c>
+      <c r="G21" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="51" t="s">
         <v>231</v>
       </c>
       <c r="J21" s="31" t="s">
@@ -12425,17 +12438,16 @@
       <c r="E22" s="26" t="n">
         <v>496460.13</v>
       </c>
-      <c r="F22" s="26" t="n">
-        <f aca="false">IF(OR(E22="",E22="TBC"),"TBC",IFERROR(E22/VLOOKUP(D22,Settings!$A$7:$B$17,2,FALSE()),E22))</f>
-        <v>70796.3323271319</v>
-      </c>
-      <c r="G22" s="49" t="s">
+      <c r="F22" s="49" t="n">
+        <v>70796.33</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="51" t="s">
         <v>235</v>
       </c>
       <c r="J22" s="31" t="s">
@@ -12458,17 +12470,16 @@
       <c r="E23" s="26" t="n">
         <v>2330</v>
       </c>
-      <c r="F23" s="26" t="n">
-        <f aca="false">IF(OR(E23="",E23="TBC"),"TBC",IFERROR(E23/VLOOKUP(D23,Settings!$A$7:$B$17,2,FALSE()),E23))</f>
+      <c r="F23" s="49" t="n">
         <v>2330</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="51" t="s">
         <v>239</v>
       </c>
       <c r="J23" s="31" t="s">
@@ -12476,30 +12487,29 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="53" t="n">
+      <c r="E24" s="54" t="n">
         <v>14280.54</v>
       </c>
-      <c r="F24" s="53" t="n">
-        <f aca="false">IF(OR(E24="",E24="TBC"),"TBC",IFERROR(E24/VLOOKUP(D24,Settings!$A$7:$B$17,2,FALSE()),E24))</f>
+      <c r="F24" s="55" t="n">
         <v>14280.54</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="55"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57"/>
       <c r="J24" s="31" t="s">
         <v>244</v>
       </c>
@@ -12520,17 +12530,16 @@
       <c r="E25" s="26" t="n">
         <v>1150</v>
       </c>
-      <c r="F25" s="26" t="n">
-        <f aca="false">IF(OR(E25="",E25="TBC"),"TBC",IFERROR(E25/VLOOKUP(D25,Settings!$A$7:$B$17,2,FALSE()),E25))</f>
-        <v>917.43119266055</v>
-      </c>
-      <c r="G25" s="49" t="s">
+      <c r="F25" s="49" t="n">
+        <v>917.43</v>
+      </c>
+      <c r="G25" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="51" t="s">
         <v>247</v>
       </c>
       <c r="J25" s="31" t="s">
@@ -12553,17 +12562,16 @@
       <c r="E26" s="26" t="n">
         <v>776.2</v>
       </c>
-      <c r="F26" s="26" t="n">
-        <f aca="false">IF(OR(E26="",E26="TBC"),"TBC",IFERROR(E26/VLOOKUP(D26,Settings!$A$7:$B$17,2,FALSE()),E26))</f>
-        <v>619.226166733147</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="F26" s="49" t="n">
+        <v>619.23</v>
+      </c>
+      <c r="G26" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="51" t="s">
         <v>247</v>
       </c>
       <c r="J26" s="31" t="s">
@@ -12586,17 +12594,16 @@
       <c r="E27" s="26" t="n">
         <v>703.1</v>
       </c>
-      <c r="F27" s="26" t="n">
-        <f aca="false">IF(OR(E27="",E27="TBC"),"TBC",IFERROR(E27/VLOOKUP(D27,Settings!$A$7:$B$17,2,FALSE()),E27))</f>
-        <v>560.909453530116</v>
-      </c>
-      <c r="G27" s="49" t="s">
+      <c r="F27" s="49" t="n">
+        <v>560.91</v>
+      </c>
+      <c r="G27" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="51" t="s">
         <v>247</v>
       </c>
       <c r="J27" s="31" t="s">
@@ -12619,17 +12626,16 @@
       <c r="E28" s="26" t="n">
         <v>643.1</v>
       </c>
-      <c r="F28" s="26" t="n">
-        <f aca="false">IF(OR(E28="",E28="TBC"),"TBC",IFERROR(E28/VLOOKUP(D28,Settings!$A$7:$B$17,2,FALSE()),E28))</f>
-        <v>513.04347826087</v>
-      </c>
-      <c r="G28" s="49" t="s">
+      <c r="F28" s="49" t="n">
+        <v>513.04</v>
+      </c>
+      <c r="G28" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="51" t="s">
         <v>247</v>
       </c>
       <c r="J28" s="31" t="s">
@@ -12652,17 +12658,16 @@
       <c r="E29" s="26" t="n">
         <v>2913.05</v>
       </c>
-      <c r="F29" s="26" t="n">
-        <f aca="false">IF(OR(E29="",E29="TBC"),"TBC",IFERROR(E29/VLOOKUP(D29,Settings!$A$7:$B$17,2,FALSE()),E29))</f>
-        <v>2323.93298763462</v>
-      </c>
-      <c r="G29" s="49" t="s">
+      <c r="F29" s="49" t="n">
+        <v>2323.93</v>
+      </c>
+      <c r="G29" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="51" t="s">
         <v>247</v>
       </c>
       <c r="J29" s="31" t="s">
@@ -12685,17 +12690,16 @@
       <c r="E30" s="26" t="n">
         <v>2800</v>
       </c>
-      <c r="F30" s="26" t="n">
-        <f aca="false">IF(OR(E30="",E30="TBC"),"TBC",IFERROR(E30/VLOOKUP(D30,Settings!$A$7:$B$17,2,FALSE()),E30))</f>
-        <v>3319.8956604221</v>
-      </c>
-      <c r="G30" s="49" t="s">
+      <c r="F30" s="49" t="n">
+        <v>3319.9</v>
+      </c>
+      <c r="G30" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="51" t="s">
         <v>259</v>
       </c>
       <c r="J30" s="31" t="s">
@@ -12718,17 +12722,16 @@
       <c r="E31" s="26" t="n">
         <v>86520</v>
       </c>
-      <c r="F31" s="26" t="n">
-        <f aca="false">IF(OR(E31="",E31="TBC"),"TBC",IFERROR(E31/VLOOKUP(D31,Settings!$A$7:$B$17,2,FALSE()),E31))</f>
-        <v>23558.8835942818</v>
-      </c>
-      <c r="G31" s="49" t="s">
+      <c r="F31" s="49" t="n">
+        <v>23558.88</v>
+      </c>
+      <c r="G31" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="51" t="s">
         <v>263</v>
       </c>
       <c r="J31" s="31" t="s">
@@ -12751,17 +12754,16 @@
       <c r="E32" s="26" t="n">
         <v>66412.5</v>
       </c>
-      <c r="F32" s="26" t="n">
-        <f aca="false">IF(OR(E32="",E32="TBC"),"TBC",IFERROR(E32/VLOOKUP(D32,Settings!$A$7:$B$17,2,FALSE()),E32))</f>
-        <v>18083.7304288632</v>
-      </c>
-      <c r="G32" s="49" t="s">
+      <c r="F32" s="49" t="n">
+        <v>18083.73</v>
+      </c>
+      <c r="G32" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="I32" s="50" t="s">
+      <c r="I32" s="51" t="s">
         <v>266</v>
       </c>
       <c r="J32" s="31" t="s">
@@ -12784,17 +12786,16 @@
       <c r="E33" s="26" t="n">
         <v>13650</v>
       </c>
-      <c r="F33" s="26" t="n">
-        <f aca="false">IF(OR(E33="",E33="TBC"),"TBC",IFERROR(E33/VLOOKUP(D33,Settings!$A$7:$B$17,2,FALSE()),E33))</f>
-        <v>3716.81415929204</v>
-      </c>
-      <c r="G33" s="49" t="s">
+      <c r="F33" s="49" t="n">
+        <v>3716.81</v>
+      </c>
+      <c r="G33" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="I33" s="50" t="s">
+      <c r="I33" s="51" t="s">
         <v>269</v>
       </c>
       <c r="J33" s="31" t="s">
@@ -12802,285 +12803,279 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="53" t="n">
+      <c r="E34" s="54" t="n">
         <v>197334.74</v>
       </c>
-      <c r="F34" s="53" t="n">
-        <f aca="false">IF(OR(E34="",E34="TBC"),"TBC",IFERROR(E34/VLOOKUP(D34,Settings!$A$7:$B$17,2,FALSE()),E34))</f>
-        <v>53733.0810074881</v>
-      </c>
-      <c r="G34" s="54" t="s">
+      <c r="F34" s="55" t="n">
+        <v>53733.08</v>
+      </c>
+      <c r="G34" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="55"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="57"/>
       <c r="J34" s="31" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="53" t="n">
+      <c r="E35" s="54" t="n">
         <v>17799.36</v>
       </c>
-      <c r="F35" s="53" t="n">
-        <f aca="false">IF(OR(E35="",E35="TBC"),"TBC",IFERROR(E35/VLOOKUP(D35,Settings!$A$7:$B$17,2,FALSE()),E35))</f>
-        <v>4846.66031313819</v>
-      </c>
-      <c r="G35" s="54" t="s">
+      <c r="F35" s="55" t="n">
+        <v>4846.66</v>
+      </c>
+      <c r="G35" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="55"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="31" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="53" t="n">
+      <c r="E36" s="54" t="n">
         <v>14988.6</v>
       </c>
-      <c r="F36" s="53" t="n">
-        <f aca="false">IF(OR(E36="",E36="TBC"),"TBC",IFERROR(E36/VLOOKUP(D36,Settings!$A$7:$B$17,2,FALSE()),E36))</f>
-        <v>4081.3070115725</v>
-      </c>
-      <c r="G36" s="54" t="s">
+      <c r="F36" s="55" t="n">
+        <v>4081.31</v>
+      </c>
+      <c r="G36" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="H36" s="51"/>
-      <c r="I36" s="55"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="57"/>
       <c r="J36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="53" t="n">
+      <c r="E37" s="54" t="n">
         <v>13865.24</v>
       </c>
-      <c r="F37" s="53" t="n">
-        <f aca="false">IF(OR(E37="",E37="TBC"),"TBC",IFERROR(E37/VLOOKUP(D37,Settings!$A$7:$B$17,2,FALSE()),E37))</f>
-        <v>3775.42273655548</v>
-      </c>
-      <c r="G37" s="54" t="s">
+      <c r="F37" s="55" t="n">
+        <v>3775.42</v>
+      </c>
+      <c r="G37" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="H37" s="51"/>
-      <c r="I37" s="55"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="57"/>
       <c r="J37" s="31" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="53" t="n">
+      <c r="E38" s="54" t="n">
         <v>242022.05</v>
       </c>
-      <c r="F38" s="53" t="n">
+      <c r="F38" s="55" t="n">
         <v>65901.17</v>
       </c>
-      <c r="G38" s="54" t="s">
+      <c r="G38" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="H38" s="51"/>
-      <c r="I38" s="55"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="31" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="53" t="n">
+      <c r="E39" s="54" t="n">
         <v>6037.5</v>
       </c>
-      <c r="F39" s="53" t="n">
+      <c r="F39" s="55" t="n">
         <v>6037.5</v>
       </c>
-      <c r="G39" s="54" t="s">
+      <c r="G39" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="H39" s="51"/>
-      <c r="I39" s="55"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="57"/>
       <c r="J39" s="31" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="53" t="n">
+      <c r="E40" s="54" t="n">
         <v>8032.5</v>
       </c>
-      <c r="F40" s="53" t="n">
+      <c r="F40" s="55" t="n">
         <v>2187.2</v>
       </c>
-      <c r="G40" s="54" t="s">
+      <c r="G40" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="H40" s="51"/>
-      <c r="I40" s="55"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="57"/>
       <c r="J40" s="31" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="53" t="n">
+      <c r="E41" s="54" t="n">
         <v>30240</v>
       </c>
-      <c r="F41" s="53" t="n">
+      <c r="F41" s="55" t="n">
         <v>8234.17</v>
       </c>
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="H41" s="51"/>
-      <c r="I41" s="55"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="57"/>
       <c r="J41" s="31" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="53" t="n">
+      <c r="E42" s="54" t="n">
         <v>19024.13</v>
       </c>
-      <c r="F42" s="53" t="n">
-        <f aca="false">IF(OR(E42="",E42="TBC"),"TBC",IFERROR(E42/VLOOKUP(D42,Settings!$A$7:$B$17,2,FALSE()),E42))</f>
+      <c r="F42" s="55" t="n">
         <v>19024.13</v>
       </c>
-      <c r="G42" s="54" t="s">
+      <c r="G42" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="H42" s="51"/>
-      <c r="I42" s="55"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="57"/>
       <c r="J42" s="31" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="53" t="n">
+      <c r="E43" s="54" t="n">
         <v>200000</v>
       </c>
-      <c r="F43" s="53" t="n">
-        <f aca="false">IF(OR(E43="",E43="TBC"),"TBC",IFERROR(E43/VLOOKUP(D43,Settings!$A$7:$B$17,2,FALSE()),E43))</f>
+      <c r="F43" s="55" t="n">
         <v>200000</v>
       </c>
-      <c r="G43" s="54" t="s">
+      <c r="G43" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="H43" s="51"/>
-      <c r="I43" s="55"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="57"/>
       <c r="J43" s="31" t="s">
         <v>300</v>
       </c>
@@ -13101,17 +13096,16 @@
       <c r="E44" s="26" t="n">
         <v>1980</v>
       </c>
-      <c r="F44" s="26" t="n">
-        <f aca="false">IF(OR(E44="",E44="TBC"),"TBC",IFERROR(E44/VLOOKUP(D44,Settings!$A$7:$B$17,2,FALSE()),E44))</f>
-        <v>5310.30413560049</v>
-      </c>
-      <c r="G44" s="49" t="s">
+      <c r="F44" s="49" t="n">
+        <v>5310.3</v>
+      </c>
+      <c r="G44" s="50" t="s">
         <v>177</v>
       </c>
       <c r="H44" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I44" s="50"/>
+      <c r="I44" s="51"/>
       <c r="J44" s="31" t="s">
         <v>304</v>
       </c>
@@ -13126,9 +13120,9 @@
         <f aca="false">IF(OR(E45="",E45="TBC"),"TBC",IFERROR(E45/VLOOKUP(D45,Settings!$A$7:$B$17,2,FALSE()),E45))</f>
         <v>TBC</v>
       </c>
-      <c r="G45" s="56"/>
+      <c r="G45" s="58"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="57"/>
+      <c r="I45" s="59"/>
       <c r="J45" s="31"/>
     </row>
     <row r="46" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13141,9 +13135,9 @@
         <f aca="false">IF(OR(E46="",E46="TBC"),"TBC",IFERROR(E46/VLOOKUP(D46,Settings!$A$7:$B$17,2,FALSE()),E46))</f>
         <v>TBC</v>
       </c>
-      <c r="G46" s="56"/>
+      <c r="G46" s="58"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="57"/>
+      <c r="I46" s="59"/>
       <c r="J46" s="31"/>
     </row>
     <row r="47" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13156,9 +13150,9 @@
         <f aca="false">IF(OR(E47="",E47="TBC"),"TBC",IFERROR(E47/VLOOKUP(D47,Settings!$A$7:$B$17,2,FALSE()),E47))</f>
         <v>TBC</v>
       </c>
-      <c r="G47" s="56"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="32"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="59"/>
       <c r="J47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13171,9 +13165,9 @@
         <f aca="false">IF(OR(E48="",E48="TBC"),"TBC",IFERROR(E48/VLOOKUP(D48,Settings!$A$7:$B$17,2,FALSE()),E48))</f>
         <v>TBC</v>
       </c>
-      <c r="G48" s="56"/>
+      <c r="G48" s="58"/>
       <c r="H48" s="32"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="59"/>
       <c r="J48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13186,9 +13180,9 @@
         <f aca="false">IF(OR(E49="",E49="TBC"),"TBC",IFERROR(E49/VLOOKUP(D49,Settings!$A$7:$B$17,2,FALSE()),E49))</f>
         <v>TBC</v>
       </c>
-      <c r="G49" s="56"/>
+      <c r="G49" s="58"/>
       <c r="H49" s="32"/>
-      <c r="I49" s="57"/>
+      <c r="I49" s="59"/>
       <c r="J49" s="31"/>
     </row>
     <row r="50" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13201,9 +13195,9 @@
         <f aca="false">IF(OR(E50="",E50="TBC"),"TBC",IFERROR(E50/VLOOKUP(D50,Settings!$A$7:$B$17,2,FALSE()),E50))</f>
         <v>TBC</v>
       </c>
-      <c r="G50" s="56"/>
+      <c r="G50" s="58"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="57"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="31"/>
     </row>
     <row r="51" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13216,9 +13210,9 @@
         <f aca="false">IF(OR(E51="",E51="TBC"),"TBC",IFERROR(E51/VLOOKUP(D51,Settings!$A$7:$B$17,2,FALSE()),E51))</f>
         <v>TBC</v>
       </c>
-      <c r="G51" s="56"/>
+      <c r="G51" s="58"/>
       <c r="H51" s="32"/>
-      <c r="I51" s="57"/>
+      <c r="I51" s="59"/>
       <c r="J51" s="31"/>
     </row>
     <row r="52" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13231,9 +13225,9 @@
         <f aca="false">IF(OR(E52="",E52="TBC"),"TBC",IFERROR(E52/VLOOKUP(D52,Settings!$A$7:$B$17,2,FALSE()),E52))</f>
         <v>TBC</v>
       </c>
-      <c r="G52" s="56"/>
+      <c r="G52" s="58"/>
       <c r="H52" s="32"/>
-      <c r="I52" s="57"/>
+      <c r="I52" s="59"/>
       <c r="J52" s="31"/>
     </row>
     <row r="53" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13246,9 +13240,9 @@
         <f aca="false">IF(OR(E53="",E53="TBC"),"TBC",IFERROR(E53/VLOOKUP(D53,Settings!$A$7:$B$17,2,FALSE()),E53))</f>
         <v>TBC</v>
       </c>
-      <c r="G53" s="56"/>
+      <c r="G53" s="58"/>
       <c r="H53" s="32"/>
-      <c r="I53" s="57"/>
+      <c r="I53" s="59"/>
       <c r="J53" s="31"/>
     </row>
     <row r="54" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13261,9 +13255,9 @@
         <f aca="false">IF(OR(E54="",E54="TBC"),"TBC",IFERROR(E54/VLOOKUP(D54,Settings!$A$7:$B$17,2,FALSE()),E54))</f>
         <v>TBC</v>
       </c>
-      <c r="G54" s="56"/>
+      <c r="G54" s="58"/>
       <c r="H54" s="32"/>
-      <c r="I54" s="57"/>
+      <c r="I54" s="59"/>
       <c r="J54" s="31"/>
     </row>
     <row r="55" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13276,9 +13270,9 @@
         <f aca="false">IF(OR(E55="",E55="TBC"),"TBC",IFERROR(E55/VLOOKUP(D55,Settings!$A$7:$B$17,2,FALSE()),E55))</f>
         <v>TBC</v>
       </c>
-      <c r="G55" s="56"/>
+      <c r="G55" s="58"/>
       <c r="H55" s="32"/>
-      <c r="I55" s="57"/>
+      <c r="I55" s="59"/>
       <c r="J55" s="31"/>
     </row>
     <row r="56" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13291,9 +13285,9 @@
         <f aca="false">IF(OR(E56="",E56="TBC"),"TBC",IFERROR(E56/VLOOKUP(D56,Settings!$A$7:$B$17,2,FALSE()),E56))</f>
         <v>TBC</v>
       </c>
-      <c r="G56" s="56"/>
+      <c r="G56" s="58"/>
       <c r="H56" s="32"/>
-      <c r="I56" s="57"/>
+      <c r="I56" s="59"/>
       <c r="J56" s="31"/>
     </row>
     <row r="57" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13306,9 +13300,9 @@
         <f aca="false">IF(OR(E57="",E57="TBC"),"TBC",IFERROR(E57/VLOOKUP(D57,Settings!$A$7:$B$17,2,FALSE()),E57))</f>
         <v>TBC</v>
       </c>
-      <c r="G57" s="56"/>
+      <c r="G57" s="58"/>
       <c r="H57" s="32"/>
-      <c r="I57" s="57"/>
+      <c r="I57" s="59"/>
       <c r="J57" s="31"/>
     </row>
     <row r="58" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13321,9 +13315,9 @@
         <f aca="false">IF(OR(E58="",E58="TBC"),"TBC",IFERROR(E58/VLOOKUP(D58,Settings!$A$7:$B$17,2,FALSE()),E58))</f>
         <v>TBC</v>
       </c>
-      <c r="G58" s="56"/>
+      <c r="G58" s="58"/>
       <c r="H58" s="32"/>
-      <c r="I58" s="57"/>
+      <c r="I58" s="59"/>
       <c r="J58" s="31"/>
     </row>
     <row r="59" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13336,9 +13330,9 @@
         <f aca="false">IF(OR(E59="",E59="TBC"),"TBC",IFERROR(E59/VLOOKUP(D59,Settings!$A$7:$B$17,2,FALSE()),E59))</f>
         <v>TBC</v>
       </c>
-      <c r="G59" s="56"/>
+      <c r="G59" s="58"/>
       <c r="H59" s="32"/>
-      <c r="I59" s="57"/>
+      <c r="I59" s="59"/>
       <c r="J59" s="31"/>
     </row>
     <row r="60" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13351,9 +13345,9 @@
         <f aca="false">IF(OR(E60="",E60="TBC"),"TBC",IFERROR(E60/VLOOKUP(D60,Settings!$A$7:$B$17,2,FALSE()),E60))</f>
         <v>TBC</v>
       </c>
-      <c r="G60" s="56"/>
+      <c r="G60" s="58"/>
       <c r="H60" s="32"/>
-      <c r="I60" s="57"/>
+      <c r="I60" s="59"/>
       <c r="J60" s="31"/>
     </row>
     <row r="61" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13366,9 +13360,9 @@
         <f aca="false">IF(OR(E61="",E61="TBC"),"TBC",IFERROR(E61/VLOOKUP(D61,Settings!$A$7:$B$17,2,FALSE()),E61))</f>
         <v>TBC</v>
       </c>
-      <c r="G61" s="56"/>
+      <c r="G61" s="58"/>
       <c r="H61" s="32"/>
-      <c r="I61" s="57"/>
+      <c r="I61" s="59"/>
       <c r="J61" s="31"/>
     </row>
     <row r="62" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13381,9 +13375,9 @@
         <f aca="false">IF(OR(E62="",E62="TBC"),"TBC",IFERROR(E62/VLOOKUP(D62,Settings!$A$7:$B$17,2,FALSE()),E62))</f>
         <v>TBC</v>
       </c>
-      <c r="G62" s="56"/>
+      <c r="G62" s="58"/>
       <c r="H62" s="32"/>
-      <c r="I62" s="57"/>
+      <c r="I62" s="59"/>
       <c r="J62" s="31"/>
     </row>
     <row r="63" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13396,9 +13390,9 @@
         <f aca="false">IF(OR(E63="",E63="TBC"),"TBC",IFERROR(E63/VLOOKUP(D63,Settings!$A$7:$B$17,2,FALSE()),E63))</f>
         <v>TBC</v>
       </c>
-      <c r="G63" s="56"/>
+      <c r="G63" s="58"/>
       <c r="H63" s="32"/>
-      <c r="I63" s="57"/>
+      <c r="I63" s="59"/>
       <c r="J63" s="31"/>
     </row>
     <row r="64" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13411,9 +13405,9 @@
         <f aca="false">IF(OR(E64="",E64="TBC"),"TBC",IFERROR(E64/VLOOKUP(D64,Settings!$A$7:$B$17,2,FALSE()),E64))</f>
         <v>TBC</v>
       </c>
-      <c r="G64" s="56"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="32"/>
-      <c r="I64" s="57"/>
+      <c r="I64" s="59"/>
       <c r="J64" s="31"/>
     </row>
     <row r="65" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13426,9 +13420,9 @@
         <f aca="false">IF(OR(E65="",E65="TBC"),"TBC",IFERROR(E65/VLOOKUP(D65,Settings!$A$7:$B$17,2,FALSE()),E65))</f>
         <v>TBC</v>
       </c>
-      <c r="G65" s="56"/>
+      <c r="G65" s="58"/>
       <c r="H65" s="32"/>
-      <c r="I65" s="57"/>
+      <c r="I65" s="59"/>
       <c r="J65" s="31"/>
     </row>
     <row r="66" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13441,9 +13435,9 @@
         <f aca="false">IF(OR(E66="",E66="TBC"),"TBC",IFERROR(E66/VLOOKUP(D66,Settings!$A$7:$B$17,2,FALSE()),E66))</f>
         <v>TBC</v>
       </c>
-      <c r="G66" s="56"/>
+      <c r="G66" s="58"/>
       <c r="H66" s="32"/>
-      <c r="I66" s="57"/>
+      <c r="I66" s="59"/>
       <c r="J66" s="31"/>
     </row>
     <row r="67" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13456,9 +13450,9 @@
         <f aca="false">IF(OR(E67="",E67="TBC"),"TBC",IFERROR(E67/VLOOKUP(D67,Settings!$A$7:$B$17,2,FALSE()),E67))</f>
         <v>TBC</v>
       </c>
-      <c r="G67" s="56"/>
+      <c r="G67" s="58"/>
       <c r="H67" s="32"/>
-      <c r="I67" s="57"/>
+      <c r="I67" s="59"/>
       <c r="J67" s="31"/>
     </row>
     <row r="68" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13471,9 +13465,9 @@
         <f aca="false">IF(OR(E68="",E68="TBC"),"TBC",IFERROR(E68/VLOOKUP(D68,Settings!$A$7:$B$17,2,FALSE()),E68))</f>
         <v>TBC</v>
       </c>
-      <c r="G68" s="56"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="32"/>
-      <c r="I68" s="57"/>
+      <c r="I68" s="59"/>
       <c r="J68" s="31"/>
     </row>
     <row r="69" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13486,9 +13480,9 @@
         <f aca="false">IF(OR(E69="",E69="TBC"),"TBC",IFERROR(E69/VLOOKUP(D69,Settings!$A$7:$B$17,2,FALSE()),E69))</f>
         <v>TBC</v>
       </c>
-      <c r="G69" s="56"/>
+      <c r="G69" s="58"/>
       <c r="H69" s="32"/>
-      <c r="I69" s="57"/>
+      <c r="I69" s="59"/>
       <c r="J69" s="31"/>
     </row>
     <row r="70" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13501,9 +13495,9 @@
         <f aca="false">IF(OR(E70="",E70="TBC"),"TBC",IFERROR(E70/VLOOKUP(D70,Settings!$A$7:$B$17,2,FALSE()),E70))</f>
         <v>TBC</v>
       </c>
-      <c r="G70" s="56"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="32"/>
-      <c r="I70" s="57"/>
+      <c r="I70" s="59"/>
       <c r="J70" s="31"/>
     </row>
     <row r="71" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13516,9 +13510,9 @@
         <f aca="false">IF(OR(E71="",E71="TBC"),"TBC",IFERROR(E71/VLOOKUP(D71,Settings!$A$7:$B$17,2,FALSE()),E71))</f>
         <v>TBC</v>
       </c>
-      <c r="G71" s="56"/>
+      <c r="G71" s="58"/>
       <c r="H71" s="32"/>
-      <c r="I71" s="57"/>
+      <c r="I71" s="59"/>
       <c r="J71" s="31"/>
     </row>
     <row r="72" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13531,9 +13525,9 @@
         <f aca="false">IF(OR(E72="",E72="TBC"),"TBC",IFERROR(E72/VLOOKUP(D72,Settings!$A$7:$B$17,2,FALSE()),E72))</f>
         <v>TBC</v>
       </c>
-      <c r="G72" s="56"/>
+      <c r="G72" s="58"/>
       <c r="H72" s="32"/>
-      <c r="I72" s="57"/>
+      <c r="I72" s="59"/>
       <c r="J72" s="31"/>
     </row>
     <row r="73" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13546,9 +13540,9 @@
         <f aca="false">IF(OR(E73="",E73="TBC"),"TBC",IFERROR(E73/VLOOKUP(D73,Settings!$A$7:$B$17,2,FALSE()),E73))</f>
         <v>TBC</v>
       </c>
-      <c r="G73" s="56"/>
+      <c r="G73" s="58"/>
       <c r="H73" s="32"/>
-      <c r="I73" s="57"/>
+      <c r="I73" s="59"/>
       <c r="J73" s="31"/>
     </row>
     <row r="74" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13561,9 +13555,9 @@
         <f aca="false">IF(OR(E74="",E74="TBC"),"TBC",IFERROR(E74/VLOOKUP(D74,Settings!$A$7:$B$17,2,FALSE()),E74))</f>
         <v>TBC</v>
       </c>
-      <c r="G74" s="56"/>
+      <c r="G74" s="58"/>
       <c r="H74" s="32"/>
-      <c r="I74" s="57"/>
+      <c r="I74" s="59"/>
       <c r="J74" s="31"/>
     </row>
     <row r="75" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13576,9 +13570,9 @@
         <f aca="false">IF(OR(E75="",E75="TBC"),"TBC",IFERROR(E75/VLOOKUP(D75,Settings!$A$7:$B$17,2,FALSE()),E75))</f>
         <v>TBC</v>
       </c>
-      <c r="G75" s="56"/>
+      <c r="G75" s="58"/>
       <c r="H75" s="32"/>
-      <c r="I75" s="57"/>
+      <c r="I75" s="59"/>
       <c r="J75" s="31"/>
     </row>
     <row r="76" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13591,9 +13585,9 @@
         <f aca="false">IF(OR(E76="",E76="TBC"),"TBC",IFERROR(E76/VLOOKUP(D76,Settings!$A$7:$B$17,2,FALSE()),E76))</f>
         <v>TBC</v>
       </c>
-      <c r="G76" s="56"/>
+      <c r="G76" s="58"/>
       <c r="H76" s="32"/>
-      <c r="I76" s="57"/>
+      <c r="I76" s="59"/>
       <c r="J76" s="31"/>
     </row>
     <row r="77" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13606,9 +13600,9 @@
         <f aca="false">IF(OR(E77="",E77="TBC"),"TBC",IFERROR(E77/VLOOKUP(D77,Settings!$A$7:$B$17,2,FALSE()),E77))</f>
         <v>TBC</v>
       </c>
-      <c r="G77" s="56"/>
+      <c r="G77" s="58"/>
       <c r="H77" s="32"/>
-      <c r="I77" s="57"/>
+      <c r="I77" s="59"/>
       <c r="J77" s="31"/>
     </row>
     <row r="78" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13621,9 +13615,9 @@
         <f aca="false">IF(OR(E78="",E78="TBC"),"TBC",IFERROR(E78/VLOOKUP(D78,Settings!$A$7:$B$17,2,FALSE()),E78))</f>
         <v>TBC</v>
       </c>
-      <c r="G78" s="56"/>
+      <c r="G78" s="58"/>
       <c r="H78" s="32"/>
-      <c r="I78" s="57"/>
+      <c r="I78" s="59"/>
       <c r="J78" s="31"/>
     </row>
     <row r="79" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13636,9 +13630,9 @@
         <f aca="false">IF(OR(E79="",E79="TBC"),"TBC",IFERROR(E79/VLOOKUP(D79,Settings!$A$7:$B$17,2,FALSE()),E79))</f>
         <v>TBC</v>
       </c>
-      <c r="G79" s="56"/>
+      <c r="G79" s="58"/>
       <c r="H79" s="32"/>
-      <c r="I79" s="57"/>
+      <c r="I79" s="59"/>
       <c r="J79" s="31"/>
     </row>
     <row r="80" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13651,9 +13645,9 @@
         <f aca="false">IF(OR(E80="",E80="TBC"),"TBC",IFERROR(E80/VLOOKUP(D80,Settings!$A$7:$B$17,2,FALSE()),E80))</f>
         <v>TBC</v>
       </c>
-      <c r="G80" s="56"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="32"/>
-      <c r="I80" s="57"/>
+      <c r="I80" s="59"/>
       <c r="J80" s="31"/>
     </row>
     <row r="81" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13666,9 +13660,9 @@
         <f aca="false">IF(OR(E81="",E81="TBC"),"TBC",IFERROR(E81/VLOOKUP(D81,Settings!$A$7:$B$17,2,FALSE()),E81))</f>
         <v>TBC</v>
       </c>
-      <c r="G81" s="56"/>
+      <c r="G81" s="58"/>
       <c r="H81" s="32"/>
-      <c r="I81" s="57"/>
+      <c r="I81" s="59"/>
       <c r="J81" s="31"/>
     </row>
     <row r="82" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13681,9 +13675,9 @@
         <f aca="false">IF(OR(E82="",E82="TBC"),"TBC",IFERROR(E82/VLOOKUP(D82,Settings!$A$7:$B$17,2,FALSE()),E82))</f>
         <v>TBC</v>
       </c>
-      <c r="G82" s="56"/>
+      <c r="G82" s="58"/>
       <c r="H82" s="32"/>
-      <c r="I82" s="57"/>
+      <c r="I82" s="59"/>
       <c r="J82" s="31"/>
     </row>
     <row r="83" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13696,9 +13690,9 @@
         <f aca="false">IF(OR(E83="",E83="TBC"),"TBC",IFERROR(E83/VLOOKUP(D83,Settings!$A$7:$B$17,2,FALSE()),E83))</f>
         <v>TBC</v>
       </c>
-      <c r="G83" s="56"/>
+      <c r="G83" s="58"/>
       <c r="H83" s="32"/>
-      <c r="I83" s="57"/>
+      <c r="I83" s="59"/>
       <c r="J83" s="31"/>
     </row>
     <row r="84" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13711,9 +13705,9 @@
         <f aca="false">IF(OR(E84="",E84="TBC"),"TBC",IFERROR(E84/VLOOKUP(D84,Settings!$A$7:$B$17,2,FALSE()),E84))</f>
         <v>TBC</v>
       </c>
-      <c r="G84" s="56"/>
+      <c r="G84" s="58"/>
       <c r="H84" s="32"/>
-      <c r="I84" s="57"/>
+      <c r="I84" s="59"/>
       <c r="J84" s="31"/>
     </row>
     <row r="85" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13726,9 +13720,9 @@
         <f aca="false">IF(OR(E85="",E85="TBC"),"TBC",IFERROR(E85/VLOOKUP(D85,Settings!$A$7:$B$17,2,FALSE()),E85))</f>
         <v>TBC</v>
       </c>
-      <c r="G85" s="56"/>
+      <c r="G85" s="58"/>
       <c r="H85" s="32"/>
-      <c r="I85" s="57"/>
+      <c r="I85" s="59"/>
       <c r="J85" s="31"/>
     </row>
     <row r="86" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13741,9 +13735,9 @@
         <f aca="false">IF(OR(E86="",E86="TBC"),"TBC",IFERROR(E86/VLOOKUP(D86,Settings!$A$7:$B$17,2,FALSE()),E86))</f>
         <v>TBC</v>
       </c>
-      <c r="G86" s="56"/>
+      <c r="G86" s="58"/>
       <c r="H86" s="32"/>
-      <c r="I86" s="57"/>
+      <c r="I86" s="59"/>
       <c r="J86" s="31"/>
     </row>
     <row r="87" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13756,9 +13750,9 @@
         <f aca="false">IF(OR(E87="",E87="TBC"),"TBC",IFERROR(E87/VLOOKUP(D87,Settings!$A$7:$B$17,2,FALSE()),E87))</f>
         <v>TBC</v>
       </c>
-      <c r="G87" s="56"/>
+      <c r="G87" s="58"/>
       <c r="H87" s="32"/>
-      <c r="I87" s="57"/>
+      <c r="I87" s="59"/>
       <c r="J87" s="31"/>
     </row>
     <row r="88" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13771,9 +13765,9 @@
         <f aca="false">IF(OR(E88="",E88="TBC"),"TBC",IFERROR(E88/VLOOKUP(D88,Settings!$A$7:$B$17,2,FALSE()),E88))</f>
         <v>TBC</v>
       </c>
-      <c r="G88" s="56"/>
+      <c r="G88" s="58"/>
       <c r="H88" s="32"/>
-      <c r="I88" s="57"/>
+      <c r="I88" s="59"/>
       <c r="J88" s="31"/>
     </row>
     <row r="89" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13786,9 +13780,9 @@
         <f aca="false">IF(OR(E89="",E89="TBC"),"TBC",IFERROR(E89/VLOOKUP(D89,Settings!$A$7:$B$17,2,FALSE()),E89))</f>
         <v>TBC</v>
       </c>
-      <c r="G89" s="56"/>
+      <c r="G89" s="58"/>
       <c r="H89" s="32"/>
-      <c r="I89" s="57"/>
+      <c r="I89" s="59"/>
       <c r="J89" s="31"/>
     </row>
     <row r="90" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13801,9 +13795,9 @@
         <f aca="false">IF(OR(E90="",E90="TBC"),"TBC",IFERROR(E90/VLOOKUP(D90,Settings!$A$7:$B$17,2,FALSE()),E90))</f>
         <v>TBC</v>
       </c>
-      <c r="G90" s="56"/>
+      <c r="G90" s="58"/>
       <c r="H90" s="32"/>
-      <c r="I90" s="57"/>
+      <c r="I90" s="59"/>
       <c r="J90" s="31"/>
     </row>
     <row r="91" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13816,9 +13810,9 @@
         <f aca="false">IF(OR(E91="",E91="TBC"),"TBC",IFERROR(E91/VLOOKUP(D91,Settings!$A$7:$B$17,2,FALSE()),E91))</f>
         <v>TBC</v>
       </c>
-      <c r="G91" s="56"/>
+      <c r="G91" s="58"/>
       <c r="H91" s="32"/>
-      <c r="I91" s="57"/>
+      <c r="I91" s="59"/>
       <c r="J91" s="31"/>
     </row>
     <row r="92" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13831,9 +13825,9 @@
         <f aca="false">IF(OR(E92="",E92="TBC"),"TBC",IFERROR(E92/VLOOKUP(D92,Settings!$A$7:$B$17,2,FALSE()),E92))</f>
         <v>TBC</v>
       </c>
-      <c r="G92" s="56"/>
+      <c r="G92" s="58"/>
       <c r="H92" s="32"/>
-      <c r="I92" s="57"/>
+      <c r="I92" s="59"/>
       <c r="J92" s="31"/>
     </row>
     <row r="93" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13846,9 +13840,9 @@
         <f aca="false">IF(OR(E93="",E93="TBC"),"TBC",IFERROR(E93/VLOOKUP(D93,Settings!$A$7:$B$17,2,FALSE()),E93))</f>
         <v>TBC</v>
       </c>
-      <c r="G93" s="56"/>
+      <c r="G93" s="58"/>
       <c r="H93" s="32"/>
-      <c r="I93" s="57"/>
+      <c r="I93" s="59"/>
       <c r="J93" s="31"/>
     </row>
     <row r="94" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13861,9 +13855,9 @@
         <f aca="false">IF(OR(E94="",E94="TBC"),"TBC",IFERROR(E94/VLOOKUP(D94,Settings!$A$7:$B$17,2,FALSE()),E94))</f>
         <v>TBC</v>
       </c>
-      <c r="G94" s="56"/>
+      <c r="G94" s="58"/>
       <c r="H94" s="32"/>
-      <c r="I94" s="57"/>
+      <c r="I94" s="59"/>
       <c r="J94" s="31"/>
     </row>
     <row r="95" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13876,9 +13870,9 @@
         <f aca="false">IF(OR(E95="",E95="TBC"),"TBC",IFERROR(E95/VLOOKUP(D95,Settings!$A$7:$B$17,2,FALSE()),E95))</f>
         <v>TBC</v>
       </c>
-      <c r="G95" s="56"/>
+      <c r="G95" s="58"/>
       <c r="H95" s="32"/>
-      <c r="I95" s="57"/>
+      <c r="I95" s="59"/>
       <c r="J95" s="31"/>
     </row>
     <row r="96" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13891,9 +13885,9 @@
         <f aca="false">IF(OR(E96="",E96="TBC"),"TBC",IFERROR(E96/VLOOKUP(D96,Settings!$A$7:$B$17,2,FALSE()),E96))</f>
         <v>TBC</v>
       </c>
-      <c r="G96" s="56"/>
+      <c r="G96" s="58"/>
       <c r="H96" s="32"/>
-      <c r="I96" s="57"/>
+      <c r="I96" s="59"/>
       <c r="J96" s="31"/>
     </row>
     <row r="97" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13906,9 +13900,9 @@
         <f aca="false">IF(OR(E97="",E97="TBC"),"TBC",IFERROR(E97/VLOOKUP(D97,Settings!$A$7:$B$17,2,FALSE()),E97))</f>
         <v>TBC</v>
       </c>
-      <c r="G97" s="56"/>
+      <c r="G97" s="58"/>
       <c r="H97" s="32"/>
-      <c r="I97" s="57"/>
+      <c r="I97" s="59"/>
       <c r="J97" s="31"/>
     </row>
     <row r="98" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13921,9 +13915,9 @@
         <f aca="false">IF(OR(E98="",E98="TBC"),"TBC",IFERROR(E98/VLOOKUP(D98,Settings!$A$7:$B$17,2,FALSE()),E98))</f>
         <v>TBC</v>
       </c>
-      <c r="G98" s="56"/>
+      <c r="G98" s="58"/>
       <c r="H98" s="32"/>
-      <c r="I98" s="57"/>
+      <c r="I98" s="59"/>
       <c r="J98" s="31"/>
     </row>
     <row r="99" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13936,9 +13930,9 @@
         <f aca="false">IF(OR(E99="",E99="TBC"),"TBC",IFERROR(E99/VLOOKUP(D99,Settings!$A$7:$B$17,2,FALSE()),E99))</f>
         <v>TBC</v>
       </c>
-      <c r="G99" s="56"/>
+      <c r="G99" s="58"/>
       <c r="H99" s="32"/>
-      <c r="I99" s="57"/>
+      <c r="I99" s="59"/>
       <c r="J99" s="31"/>
     </row>
     <row r="100" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13951,9 +13945,9 @@
         <f aca="false">IF(OR(E100="",E100="TBC"),"TBC",IFERROR(E100/VLOOKUP(D100,Settings!$A$7:$B$17,2,FALSE()),E100))</f>
         <v>TBC</v>
       </c>
-      <c r="G100" s="56"/>
+      <c r="G100" s="58"/>
       <c r="H100" s="32"/>
-      <c r="I100" s="57"/>
+      <c r="I100" s="59"/>
       <c r="J100" s="31"/>
     </row>
     <row r="101" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13966,9 +13960,9 @@
         <f aca="false">IF(OR(E101="",E101="TBC"),"TBC",IFERROR(E101/VLOOKUP(D101,Settings!$A$7:$B$17,2,FALSE()),E101))</f>
         <v>TBC</v>
       </c>
-      <c r="G101" s="56"/>
+      <c r="G101" s="58"/>
       <c r="H101" s="32"/>
-      <c r="I101" s="57"/>
+      <c r="I101" s="59"/>
       <c r="J101" s="31"/>
     </row>
     <row r="102" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13981,9 +13975,9 @@
         <f aca="false">IF(OR(E102="",E102="TBC"),"TBC",IFERROR(E102/VLOOKUP(D102,Settings!$A$7:$B$17,2,FALSE()),E102))</f>
         <v>TBC</v>
       </c>
-      <c r="G102" s="56"/>
+      <c r="G102" s="58"/>
       <c r="H102" s="32"/>
-      <c r="I102" s="57"/>
+      <c r="I102" s="59"/>
       <c r="J102" s="31"/>
     </row>
     <row r="103" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13996,9 +13990,9 @@
         <f aca="false">IF(OR(E103="",E103="TBC"),"TBC",IFERROR(E103/VLOOKUP(D103,Settings!$A$7:$B$17,2,FALSE()),E103))</f>
         <v>TBC</v>
       </c>
-      <c r="G103" s="56"/>
+      <c r="G103" s="58"/>
       <c r="H103" s="32"/>
-      <c r="I103" s="57"/>
+      <c r="I103" s="59"/>
       <c r="J103" s="31"/>
     </row>
     <row r="104" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14011,9 +14005,9 @@
         <f aca="false">IF(OR(E104="",E104="TBC"),"TBC",IFERROR(E104/VLOOKUP(D104,Settings!$A$7:$B$17,2,FALSE()),E104))</f>
         <v>TBC</v>
       </c>
-      <c r="G104" s="56"/>
+      <c r="G104" s="58"/>
       <c r="H104" s="32"/>
-      <c r="I104" s="57"/>
+      <c r="I104" s="59"/>
       <c r="J104" s="31"/>
     </row>
     <row r="105" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14026,9 +14020,9 @@
         <f aca="false">IF(OR(E105="",E105="TBC"),"TBC",IFERROR(E105/VLOOKUP(D105,Settings!$A$7:$B$17,2,FALSE()),E105))</f>
         <v>TBC</v>
       </c>
-      <c r="G105" s="56"/>
+      <c r="G105" s="58"/>
       <c r="H105" s="32"/>
-      <c r="I105" s="57"/>
+      <c r="I105" s="59"/>
       <c r="J105" s="31"/>
     </row>
     <row r="106" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14041,9 +14035,9 @@
         <f aca="false">IF(OR(E106="",E106="TBC"),"TBC",IFERROR(E106/VLOOKUP(D106,Settings!$A$7:$B$17,2,FALSE()),E106))</f>
         <v>TBC</v>
       </c>
-      <c r="G106" s="56"/>
+      <c r="G106" s="58"/>
       <c r="H106" s="32"/>
-      <c r="I106" s="57"/>
+      <c r="I106" s="59"/>
       <c r="J106" s="31"/>
     </row>
     <row r="107" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14056,9 +14050,9 @@
         <f aca="false">IF(OR(E107="",E107="TBC"),"TBC",IFERROR(E107/VLOOKUP(D107,Settings!$A$7:$B$17,2,FALSE()),E107))</f>
         <v>TBC</v>
       </c>
-      <c r="G107" s="56"/>
+      <c r="G107" s="58"/>
       <c r="H107" s="32"/>
-      <c r="I107" s="57"/>
+      <c r="I107" s="59"/>
       <c r="J107" s="31"/>
     </row>
     <row r="108" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14071,9 +14065,9 @@
         <f aca="false">IF(OR(E108="",E108="TBC"),"TBC",IFERROR(E108/VLOOKUP(D108,Settings!$A$7:$B$17,2,FALSE()),E108))</f>
         <v>TBC</v>
       </c>
-      <c r="G108" s="56"/>
+      <c r="G108" s="58"/>
       <c r="H108" s="32"/>
-      <c r="I108" s="57"/>
+      <c r="I108" s="59"/>
       <c r="J108" s="31"/>
     </row>
     <row r="109" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14086,9 +14080,9 @@
         <f aca="false">IF(OR(E109="",E109="TBC"),"TBC",IFERROR(E109/VLOOKUP(D109,Settings!$A$7:$B$17,2,FALSE()),E109))</f>
         <v>TBC</v>
       </c>
-      <c r="G109" s="56"/>
+      <c r="G109" s="58"/>
       <c r="H109" s="32"/>
-      <c r="I109" s="57"/>
+      <c r="I109" s="59"/>
       <c r="J109" s="31"/>
     </row>
     <row r="110" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14101,9 +14095,9 @@
         <f aca="false">IF(OR(E110="",E110="TBC"),"TBC",IFERROR(E110/VLOOKUP(D110,Settings!$A$7:$B$17,2,FALSE()),E110))</f>
         <v>TBC</v>
       </c>
-      <c r="G110" s="56"/>
+      <c r="G110" s="58"/>
       <c r="H110" s="32"/>
-      <c r="I110" s="57"/>
+      <c r="I110" s="59"/>
       <c r="J110" s="31"/>
     </row>
     <row r="111" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14116,9 +14110,9 @@
         <f aca="false">IF(OR(E111="",E111="TBC"),"TBC",IFERROR(E111/VLOOKUP(D111,Settings!$A$7:$B$17,2,FALSE()),E111))</f>
         <v>TBC</v>
       </c>
-      <c r="G111" s="56"/>
+      <c r="G111" s="58"/>
       <c r="H111" s="32"/>
-      <c r="I111" s="57"/>
+      <c r="I111" s="59"/>
       <c r="J111" s="31"/>
     </row>
     <row r="112" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14131,9 +14125,9 @@
         <f aca="false">IF(OR(E112="",E112="TBC"),"TBC",IFERROR(E112/VLOOKUP(D112,Settings!$A$7:$B$17,2,FALSE()),E112))</f>
         <v>TBC</v>
       </c>
-      <c r="G112" s="56"/>
+      <c r="G112" s="58"/>
       <c r="H112" s="32"/>
-      <c r="I112" s="57"/>
+      <c r="I112" s="59"/>
       <c r="J112" s="31"/>
     </row>
     <row r="113" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14146,9 +14140,9 @@
         <f aca="false">IF(OR(E113="",E113="TBC"),"TBC",IFERROR(E113/VLOOKUP(D113,Settings!$A$7:$B$17,2,FALSE()),E113))</f>
         <v>TBC</v>
       </c>
-      <c r="G113" s="56"/>
+      <c r="G113" s="58"/>
       <c r="H113" s="32"/>
-      <c r="I113" s="57"/>
+      <c r="I113" s="59"/>
       <c r="J113" s="31"/>
     </row>
     <row r="114" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14161,9 +14155,9 @@
         <f aca="false">IF(OR(E114="",E114="TBC"),"TBC",IFERROR(E114/VLOOKUP(D114,Settings!$A$7:$B$17,2,FALSE()),E114))</f>
         <v>TBC</v>
       </c>
-      <c r="G114" s="56"/>
+      <c r="G114" s="58"/>
       <c r="H114" s="32"/>
-      <c r="I114" s="57"/>
+      <c r="I114" s="59"/>
       <c r="J114" s="31"/>
     </row>
     <row r="115" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14176,9 +14170,9 @@
         <f aca="false">IF(OR(E115="",E115="TBC"),"TBC",IFERROR(E115/VLOOKUP(D115,Settings!$A$7:$B$17,2,FALSE()),E115))</f>
         <v>TBC</v>
       </c>
-      <c r="G115" s="56"/>
+      <c r="G115" s="58"/>
       <c r="H115" s="32"/>
-      <c r="I115" s="57"/>
+      <c r="I115" s="59"/>
       <c r="J115" s="31"/>
     </row>
     <row r="116" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14191,9 +14185,9 @@
         <f aca="false">IF(OR(E116="",E116="TBC"),"TBC",IFERROR(E116/VLOOKUP(D116,Settings!$A$7:$B$17,2,FALSE()),E116))</f>
         <v>TBC</v>
       </c>
-      <c r="G116" s="56"/>
+      <c r="G116" s="58"/>
       <c r="H116" s="32"/>
-      <c r="I116" s="57"/>
+      <c r="I116" s="59"/>
       <c r="J116" s="31"/>
     </row>
     <row r="117" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14206,9 +14200,9 @@
         <f aca="false">IF(OR(E117="",E117="TBC"),"TBC",IFERROR(E117/VLOOKUP(D117,Settings!$A$7:$B$17,2,FALSE()),E117))</f>
         <v>TBC</v>
       </c>
-      <c r="G117" s="56"/>
+      <c r="G117" s="58"/>
       <c r="H117" s="32"/>
-      <c r="I117" s="57"/>
+      <c r="I117" s="59"/>
       <c r="J117" s="31"/>
     </row>
     <row r="118" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14221,9 +14215,9 @@
         <f aca="false">IF(OR(E118="",E118="TBC"),"TBC",IFERROR(E118/VLOOKUP(D118,Settings!$A$7:$B$17,2,FALSE()),E118))</f>
         <v>TBC</v>
       </c>
-      <c r="G118" s="56"/>
+      <c r="G118" s="58"/>
       <c r="H118" s="32"/>
-      <c r="I118" s="57"/>
+      <c r="I118" s="59"/>
       <c r="J118" s="31"/>
     </row>
     <row r="119" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14236,9 +14230,9 @@
         <f aca="false">IF(OR(E119="",E119="TBC"),"TBC",IFERROR(E119/VLOOKUP(D119,Settings!$A$7:$B$17,2,FALSE()),E119))</f>
         <v>TBC</v>
       </c>
-      <c r="G119" s="56"/>
+      <c r="G119" s="58"/>
       <c r="H119" s="32"/>
-      <c r="I119" s="57"/>
+      <c r="I119" s="59"/>
       <c r="J119" s="31"/>
     </row>
     <row r="120" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14251,9 +14245,9 @@
         <f aca="false">IF(OR(E120="",E120="TBC"),"TBC",IFERROR(E120/VLOOKUP(D120,Settings!$A$7:$B$17,2,FALSE()),E120))</f>
         <v>TBC</v>
       </c>
-      <c r="G120" s="56"/>
+      <c r="G120" s="58"/>
       <c r="H120" s="32"/>
-      <c r="I120" s="57"/>
+      <c r="I120" s="59"/>
       <c r="J120" s="31"/>
     </row>
     <row r="121" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14266,9 +14260,9 @@
         <f aca="false">IF(OR(E121="",E121="TBC"),"TBC",IFERROR(E121/VLOOKUP(D121,Settings!$A$7:$B$17,2,FALSE()),E121))</f>
         <v>TBC</v>
       </c>
-      <c r="G121" s="56"/>
+      <c r="G121" s="58"/>
       <c r="H121" s="32"/>
-      <c r="I121" s="57"/>
+      <c r="I121" s="59"/>
       <c r="J121" s="31"/>
     </row>
     <row r="122" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14281,9 +14275,9 @@
         <f aca="false">IF(OR(E122="",E122="TBC"),"TBC",IFERROR(E122/VLOOKUP(D122,Settings!$A$7:$B$17,2,FALSE()),E122))</f>
         <v>TBC</v>
       </c>
-      <c r="G122" s="56"/>
+      <c r="G122" s="58"/>
       <c r="H122" s="32"/>
-      <c r="I122" s="57"/>
+      <c r="I122" s="59"/>
       <c r="J122" s="31"/>
     </row>
     <row r="123" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14296,9 +14290,9 @@
         <f aca="false">IF(OR(E123="",E123="TBC"),"TBC",IFERROR(E123/VLOOKUP(D123,Settings!$A$7:$B$17,2,FALSE()),E123))</f>
         <v>TBC</v>
       </c>
-      <c r="G123" s="56"/>
+      <c r="G123" s="58"/>
       <c r="H123" s="32"/>
-      <c r="I123" s="57"/>
+      <c r="I123" s="59"/>
       <c r="J123" s="31"/>
     </row>
     <row r="124" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14311,9 +14305,9 @@
         <f aca="false">IF(OR(E124="",E124="TBC"),"TBC",IFERROR(E124/VLOOKUP(D124,Settings!$A$7:$B$17,2,FALSE()),E124))</f>
         <v>TBC</v>
       </c>
-      <c r="G124" s="56"/>
+      <c r="G124" s="58"/>
       <c r="H124" s="32"/>
-      <c r="I124" s="57"/>
+      <c r="I124" s="59"/>
       <c r="J124" s="31"/>
     </row>
     <row r="125" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14326,9 +14320,9 @@
         <f aca="false">IF(OR(E125="",E125="TBC"),"TBC",IFERROR(E125/VLOOKUP(D125,Settings!$A$7:$B$17,2,FALSE()),E125))</f>
         <v>TBC</v>
       </c>
-      <c r="G125" s="56"/>
+      <c r="G125" s="58"/>
       <c r="H125" s="32"/>
-      <c r="I125" s="57"/>
+      <c r="I125" s="59"/>
       <c r="J125" s="31"/>
     </row>
     <row r="126" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14341,9 +14335,9 @@
         <f aca="false">IF(OR(E126="",E126="TBC"),"TBC",IFERROR(E126/VLOOKUP(D126,Settings!$A$7:$B$17,2,FALSE()),E126))</f>
         <v>TBC</v>
       </c>
-      <c r="G126" s="56"/>
+      <c r="G126" s="58"/>
       <c r="H126" s="32"/>
-      <c r="I126" s="57"/>
+      <c r="I126" s="59"/>
       <c r="J126" s="31"/>
     </row>
     <row r="127" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14356,9 +14350,9 @@
         <f aca="false">IF(OR(E127="",E127="TBC"),"TBC",IFERROR(E127/VLOOKUP(D127,Settings!$A$7:$B$17,2,FALSE()),E127))</f>
         <v>TBC</v>
       </c>
-      <c r="G127" s="56"/>
+      <c r="G127" s="58"/>
       <c r="H127" s="32"/>
-      <c r="I127" s="57"/>
+      <c r="I127" s="59"/>
       <c r="J127" s="31"/>
     </row>
     <row r="128" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14371,9 +14365,9 @@
         <f aca="false">IF(OR(E128="",E128="TBC"),"TBC",IFERROR(E128/VLOOKUP(D128,Settings!$A$7:$B$17,2,FALSE()),E128))</f>
         <v>TBC</v>
       </c>
-      <c r="G128" s="56"/>
+      <c r="G128" s="58"/>
       <c r="H128" s="32"/>
-      <c r="I128" s="57"/>
+      <c r="I128" s="59"/>
       <c r="J128" s="31"/>
     </row>
     <row r="129" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14386,9 +14380,9 @@
         <f aca="false">IF(OR(E129="",E129="TBC"),"TBC",IFERROR(E129/VLOOKUP(D129,Settings!$A$7:$B$17,2,FALSE()),E129))</f>
         <v>TBC</v>
       </c>
-      <c r="G129" s="56"/>
+      <c r="G129" s="58"/>
       <c r="H129" s="32"/>
-      <c r="I129" s="57"/>
+      <c r="I129" s="59"/>
       <c r="J129" s="31"/>
     </row>
     <row r="130" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14401,9 +14395,9 @@
         <f aca="false">IF(OR(E130="",E130="TBC"),"TBC",IFERROR(E130/VLOOKUP(D130,Settings!$A$7:$B$17,2,FALSE()),E130))</f>
         <v>TBC</v>
       </c>
-      <c r="G130" s="56"/>
+      <c r="G130" s="58"/>
       <c r="H130" s="32"/>
-      <c r="I130" s="57"/>
+      <c r="I130" s="59"/>
       <c r="J130" s="31"/>
     </row>
     <row r="131" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14416,9 +14410,9 @@
         <f aca="false">IF(OR(E131="",E131="TBC"),"TBC",IFERROR(E131/VLOOKUP(D131,Settings!$A$7:$B$17,2,FALSE()),E131))</f>
         <v>TBC</v>
       </c>
-      <c r="G131" s="56"/>
+      <c r="G131" s="58"/>
       <c r="H131" s="32"/>
-      <c r="I131" s="57"/>
+      <c r="I131" s="59"/>
       <c r="J131" s="31"/>
     </row>
     <row r="132" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14431,9 +14425,9 @@
         <f aca="false">IF(OR(E132="",E132="TBC"),"TBC",IFERROR(E132/VLOOKUP(D132,Settings!$A$7:$B$17,2,FALSE()),E132))</f>
         <v>TBC</v>
       </c>
-      <c r="G132" s="56"/>
+      <c r="G132" s="58"/>
       <c r="H132" s="32"/>
-      <c r="I132" s="57"/>
+      <c r="I132" s="59"/>
       <c r="J132" s="31"/>
     </row>
     <row r="133" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14446,9 +14440,9 @@
         <f aca="false">IF(OR(E133="",E133="TBC"),"TBC",IFERROR(E133/VLOOKUP(D133,Settings!$A$7:$B$17,2,FALSE()),E133))</f>
         <v>TBC</v>
       </c>
-      <c r="G133" s="56"/>
+      <c r="G133" s="58"/>
       <c r="H133" s="32"/>
-      <c r="I133" s="57"/>
+      <c r="I133" s="59"/>
       <c r="J133" s="31"/>
     </row>
     <row r="134" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14461,9 +14455,9 @@
         <f aca="false">IF(OR(E134="",E134="TBC"),"TBC",IFERROR(E134/VLOOKUP(D134,Settings!$A$7:$B$17,2,FALSE()),E134))</f>
         <v>TBC</v>
       </c>
-      <c r="G134" s="56"/>
+      <c r="G134" s="58"/>
       <c r="H134" s="32"/>
-      <c r="I134" s="57"/>
+      <c r="I134" s="59"/>
       <c r="J134" s="31"/>
     </row>
     <row r="135" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14476,9 +14470,9 @@
         <f aca="false">IF(OR(E135="",E135="TBC"),"TBC",IFERROR(E135/VLOOKUP(D135,Settings!$A$7:$B$17,2,FALSE()),E135))</f>
         <v>TBC</v>
       </c>
-      <c r="G135" s="56"/>
+      <c r="G135" s="58"/>
       <c r="H135" s="32"/>
-      <c r="I135" s="57"/>
+      <c r="I135" s="59"/>
       <c r="J135" s="31"/>
     </row>
     <row r="136" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14491,9 +14485,9 @@
         <f aca="false">IF(OR(E136="",E136="TBC"),"TBC",IFERROR(E136/VLOOKUP(D136,Settings!$A$7:$B$17,2,FALSE()),E136))</f>
         <v>TBC</v>
       </c>
-      <c r="G136" s="56"/>
+      <c r="G136" s="58"/>
       <c r="H136" s="32"/>
-      <c r="I136" s="57"/>
+      <c r="I136" s="59"/>
       <c r="J136" s="31"/>
     </row>
     <row r="137" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14506,9 +14500,9 @@
         <f aca="false">IF(OR(E137="",E137="TBC"),"TBC",IFERROR(E137/VLOOKUP(D137,Settings!$A$7:$B$17,2,FALSE()),E137))</f>
         <v>TBC</v>
       </c>
-      <c r="G137" s="56"/>
+      <c r="G137" s="58"/>
       <c r="H137" s="32"/>
-      <c r="I137" s="57"/>
+      <c r="I137" s="59"/>
       <c r="J137" s="31"/>
     </row>
     <row r="138" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14521,9 +14515,9 @@
         <f aca="false">IF(OR(E138="",E138="TBC"),"TBC",IFERROR(E138/VLOOKUP(D138,Settings!$A$7:$B$17,2,FALSE()),E138))</f>
         <v>TBC</v>
       </c>
-      <c r="G138" s="56"/>
+      <c r="G138" s="58"/>
       <c r="H138" s="32"/>
-      <c r="I138" s="57"/>
+      <c r="I138" s="59"/>
       <c r="J138" s="31"/>
     </row>
     <row r="139" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14536,9 +14530,9 @@
         <f aca="false">IF(OR(E139="",E139="TBC"),"TBC",IFERROR(E139/VLOOKUP(D139,Settings!$A$7:$B$17,2,FALSE()),E139))</f>
         <v>TBC</v>
       </c>
-      <c r="G139" s="56"/>
+      <c r="G139" s="58"/>
       <c r="H139" s="32"/>
-      <c r="I139" s="57"/>
+      <c r="I139" s="59"/>
       <c r="J139" s="31"/>
     </row>
     <row r="140" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14551,9 +14545,9 @@
         <f aca="false">IF(OR(E140="",E140="TBC"),"TBC",IFERROR(E140/VLOOKUP(D140,Settings!$A$7:$B$17,2,FALSE()),E140))</f>
         <v>TBC</v>
       </c>
-      <c r="G140" s="56"/>
+      <c r="G140" s="58"/>
       <c r="H140" s="32"/>
-      <c r="I140" s="57"/>
+      <c r="I140" s="59"/>
       <c r="J140" s="31"/>
     </row>
     <row r="141" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14566,9 +14560,9 @@
         <f aca="false">IF(OR(E141="",E141="TBC"),"TBC",IFERROR(E141/VLOOKUP(D141,Settings!$A$7:$B$17,2,FALSE()),E141))</f>
         <v>TBC</v>
       </c>
-      <c r="G141" s="56"/>
+      <c r="G141" s="58"/>
       <c r="H141" s="32"/>
-      <c r="I141" s="57"/>
+      <c r="I141" s="59"/>
       <c r="J141" s="31"/>
     </row>
     <row r="142" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14581,9 +14575,9 @@
         <f aca="false">IF(OR(E142="",E142="TBC"),"TBC",IFERROR(E142/VLOOKUP(D142,Settings!$A$7:$B$17,2,FALSE()),E142))</f>
         <v>TBC</v>
       </c>
-      <c r="G142" s="56"/>
+      <c r="G142" s="58"/>
       <c r="H142" s="32"/>
-      <c r="I142" s="57"/>
+      <c r="I142" s="59"/>
       <c r="J142" s="31"/>
     </row>
     <row r="143" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14596,9 +14590,9 @@
         <f aca="false">IF(OR(E143="",E143="TBC"),"TBC",IFERROR(E143/VLOOKUP(D143,Settings!$A$7:$B$17,2,FALSE()),E143))</f>
         <v>TBC</v>
       </c>
-      <c r="G143" s="56"/>
+      <c r="G143" s="58"/>
       <c r="H143" s="32"/>
-      <c r="I143" s="57"/>
+      <c r="I143" s="59"/>
       <c r="J143" s="31"/>
     </row>
     <row r="144" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14611,9 +14605,9 @@
         <f aca="false">IF(OR(E144="",E144="TBC"),"TBC",IFERROR(E144/VLOOKUP(D144,Settings!$A$7:$B$17,2,FALSE()),E144))</f>
         <v>TBC</v>
       </c>
-      <c r="G144" s="56"/>
+      <c r="G144" s="58"/>
       <c r="H144" s="32"/>
-      <c r="I144" s="57"/>
+      <c r="I144" s="59"/>
       <c r="J144" s="31"/>
     </row>
     <row r="145" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14626,9 +14620,9 @@
         <f aca="false">IF(OR(E145="",E145="TBC"),"TBC",IFERROR(E145/VLOOKUP(D145,Settings!$A$7:$B$17,2,FALSE()),E145))</f>
         <v>TBC</v>
       </c>
-      <c r="G145" s="56"/>
+      <c r="G145" s="58"/>
       <c r="H145" s="32"/>
-      <c r="I145" s="57"/>
+      <c r="I145" s="59"/>
       <c r="J145" s="31"/>
     </row>
     <row r="146" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14641,9 +14635,9 @@
         <f aca="false">IF(OR(E146="",E146="TBC"),"TBC",IFERROR(E146/VLOOKUP(D146,Settings!$A$7:$B$17,2,FALSE()),E146))</f>
         <v>TBC</v>
       </c>
-      <c r="G146" s="56"/>
+      <c r="G146" s="58"/>
       <c r="H146" s="32"/>
-      <c r="I146" s="57"/>
+      <c r="I146" s="59"/>
       <c r="J146" s="31"/>
     </row>
     <row r="147" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14656,9 +14650,9 @@
         <f aca="false">IF(OR(E147="",E147="TBC"),"TBC",IFERROR(E147/VLOOKUP(D147,Settings!$A$7:$B$17,2,FALSE()),E147))</f>
         <v>TBC</v>
       </c>
-      <c r="G147" s="56"/>
+      <c r="G147" s="58"/>
       <c r="H147" s="32"/>
-      <c r="I147" s="57"/>
+      <c r="I147" s="59"/>
       <c r="J147" s="31"/>
     </row>
     <row r="148" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14671,9 +14665,9 @@
         <f aca="false">IF(OR(E148="",E148="TBC"),"TBC",IFERROR(E148/VLOOKUP(D148,Settings!$A$7:$B$17,2,FALSE()),E148))</f>
         <v>TBC</v>
       </c>
-      <c r="G148" s="56"/>
+      <c r="G148" s="58"/>
       <c r="H148" s="32"/>
-      <c r="I148" s="57"/>
+      <c r="I148" s="59"/>
       <c r="J148" s="31"/>
     </row>
     <row r="149" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14686,9 +14680,9 @@
         <f aca="false">IF(OR(E149="",E149="TBC"),"TBC",IFERROR(E149/VLOOKUP(D149,Settings!$A$7:$B$17,2,FALSE()),E149))</f>
         <v>TBC</v>
       </c>
-      <c r="G149" s="56"/>
+      <c r="G149" s="58"/>
       <c r="H149" s="32"/>
-      <c r="I149" s="57"/>
+      <c r="I149" s="59"/>
       <c r="J149" s="31"/>
     </row>
     <row r="150" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14701,9 +14695,9 @@
         <f aca="false">IF(OR(E150="",E150="TBC"),"TBC",IFERROR(E150/VLOOKUP(D150,Settings!$A$7:$B$17,2,FALSE()),E150))</f>
         <v>TBC</v>
       </c>
-      <c r="G150" s="56"/>
+      <c r="G150" s="58"/>
       <c r="H150" s="32"/>
-      <c r="I150" s="57"/>
+      <c r="I150" s="59"/>
       <c r="J150" s="31"/>
     </row>
     <row r="151" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14716,9 +14710,9 @@
         <f aca="false">IF(OR(E151="",E151="TBC"),"TBC",IFERROR(E151/VLOOKUP(D151,Settings!$A$7:$B$17,2,FALSE()),E151))</f>
         <v>TBC</v>
       </c>
-      <c r="G151" s="56"/>
+      <c r="G151" s="58"/>
       <c r="H151" s="32"/>
-      <c r="I151" s="57"/>
+      <c r="I151" s="59"/>
       <c r="J151" s="31"/>
     </row>
     <row r="152" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14731,9 +14725,9 @@
         <f aca="false">IF(OR(E152="",E152="TBC"),"TBC",IFERROR(E152/VLOOKUP(D152,Settings!$A$7:$B$17,2,FALSE()),E152))</f>
         <v>TBC</v>
       </c>
-      <c r="G152" s="56"/>
+      <c r="G152" s="58"/>
       <c r="H152" s="32"/>
-      <c r="I152" s="57"/>
+      <c r="I152" s="59"/>
       <c r="J152" s="31"/>
     </row>
     <row r="153" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14746,9 +14740,9 @@
         <f aca="false">IF(OR(E153="",E153="TBC"),"TBC",IFERROR(E153/VLOOKUP(D153,Settings!$A$7:$B$17,2,FALSE()),E153))</f>
         <v>TBC</v>
       </c>
-      <c r="G153" s="56"/>
+      <c r="G153" s="58"/>
       <c r="H153" s="32"/>
-      <c r="I153" s="57"/>
+      <c r="I153" s="59"/>
       <c r="J153" s="31"/>
     </row>
     <row r="154" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14761,9 +14755,9 @@
         <f aca="false">IF(OR(E154="",E154="TBC"),"TBC",IFERROR(E154/VLOOKUP(D154,Settings!$A$7:$B$17,2,FALSE()),E154))</f>
         <v>TBC</v>
       </c>
-      <c r="G154" s="56"/>
+      <c r="G154" s="58"/>
       <c r="H154" s="32"/>
-      <c r="I154" s="57"/>
+      <c r="I154" s="59"/>
       <c r="J154" s="31"/>
     </row>
     <row r="155" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14776,9 +14770,9 @@
         <f aca="false">IF(OR(E155="",E155="TBC"),"TBC",IFERROR(E155/VLOOKUP(D155,Settings!$A$7:$B$17,2,FALSE()),E155))</f>
         <v>TBC</v>
       </c>
-      <c r="G155" s="56"/>
+      <c r="G155" s="58"/>
       <c r="H155" s="32"/>
-      <c r="I155" s="57"/>
+      <c r="I155" s="59"/>
       <c r="J155" s="31"/>
     </row>
     <row r="156" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14791,9 +14785,9 @@
         <f aca="false">IF(OR(E156="",E156="TBC"),"TBC",IFERROR(E156/VLOOKUP(D156,Settings!$A$7:$B$17,2,FALSE()),E156))</f>
         <v>TBC</v>
       </c>
-      <c r="G156" s="56"/>
+      <c r="G156" s="58"/>
       <c r="H156" s="32"/>
-      <c r="I156" s="57"/>
+      <c r="I156" s="59"/>
       <c r="J156" s="31"/>
     </row>
     <row r="157" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14806,9 +14800,9 @@
         <f aca="false">IF(OR(E157="",E157="TBC"),"TBC",IFERROR(E157/VLOOKUP(D157,Settings!$A$7:$B$17,2,FALSE()),E157))</f>
         <v>TBC</v>
       </c>
-      <c r="G157" s="56"/>
+      <c r="G157" s="58"/>
       <c r="H157" s="32"/>
-      <c r="I157" s="57"/>
+      <c r="I157" s="59"/>
       <c r="J157" s="31"/>
     </row>
     <row r="158" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14821,9 +14815,9 @@
         <f aca="false">IF(OR(E158="",E158="TBC"),"TBC",IFERROR(E158/VLOOKUP(D158,Settings!$A$7:$B$17,2,FALSE()),E158))</f>
         <v>TBC</v>
       </c>
-      <c r="G158" s="56"/>
+      <c r="G158" s="58"/>
       <c r="H158" s="32"/>
-      <c r="I158" s="57"/>
+      <c r="I158" s="59"/>
       <c r="J158" s="31"/>
     </row>
     <row r="159" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14836,9 +14830,9 @@
         <f aca="false">IF(OR(E159="",E159="TBC"),"TBC",IFERROR(E159/VLOOKUP(D159,Settings!$A$7:$B$17,2,FALSE()),E159))</f>
         <v>TBC</v>
       </c>
-      <c r="G159" s="56"/>
+      <c r="G159" s="58"/>
       <c r="H159" s="32"/>
-      <c r="I159" s="57"/>
+      <c r="I159" s="59"/>
       <c r="J159" s="31"/>
     </row>
     <row r="160" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14851,9 +14845,9 @@
         <f aca="false">IF(OR(E160="",E160="TBC"),"TBC",IFERROR(E160/VLOOKUP(D160,Settings!$A$7:$B$17,2,FALSE()),E160))</f>
         <v>TBC</v>
       </c>
-      <c r="G160" s="56"/>
+      <c r="G160" s="58"/>
       <c r="H160" s="32"/>
-      <c r="I160" s="57"/>
+      <c r="I160" s="59"/>
       <c r="J160" s="31"/>
     </row>
     <row r="161" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14866,9 +14860,9 @@
         <f aca="false">IF(OR(E161="",E161="TBC"),"TBC",IFERROR(E161/VLOOKUP(D161,Settings!$A$7:$B$17,2,FALSE()),E161))</f>
         <v>TBC</v>
       </c>
-      <c r="G161" s="56"/>
+      <c r="G161" s="58"/>
       <c r="H161" s="32"/>
-      <c r="I161" s="57"/>
+      <c r="I161" s="59"/>
       <c r="J161" s="31"/>
     </row>
     <row r="162" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14881,9 +14875,9 @@
         <f aca="false">IF(OR(E162="",E162="TBC"),"TBC",IFERROR(E162/VLOOKUP(D162,Settings!$A$7:$B$17,2,FALSE()),E162))</f>
         <v>TBC</v>
       </c>
-      <c r="G162" s="56"/>
+      <c r="G162" s="58"/>
       <c r="H162" s="32"/>
-      <c r="I162" s="57"/>
+      <c r="I162" s="59"/>
       <c r="J162" s="31"/>
     </row>
     <row r="163" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14896,9 +14890,9 @@
         <f aca="false">IF(OR(E163="",E163="TBC"),"TBC",IFERROR(E163/VLOOKUP(D163,Settings!$A$7:$B$17,2,FALSE()),E163))</f>
         <v>TBC</v>
       </c>
-      <c r="G163" s="56"/>
+      <c r="G163" s="58"/>
       <c r="H163" s="32"/>
-      <c r="I163" s="57"/>
+      <c r="I163" s="59"/>
       <c r="J163" s="31"/>
     </row>
     <row r="164" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14911,9 +14905,9 @@
         <f aca="false">IF(OR(E164="",E164="TBC"),"TBC",IFERROR(E164/VLOOKUP(D164,Settings!$A$7:$B$17,2,FALSE()),E164))</f>
         <v>TBC</v>
       </c>
-      <c r="G164" s="56"/>
+      <c r="G164" s="58"/>
       <c r="H164" s="32"/>
-      <c r="I164" s="57"/>
+      <c r="I164" s="59"/>
       <c r="J164" s="31"/>
     </row>
     <row r="165" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14926,9 +14920,9 @@
         <f aca="false">IF(OR(E165="",E165="TBC"),"TBC",IFERROR(E165/VLOOKUP(D165,Settings!$A$7:$B$17,2,FALSE()),E165))</f>
         <v>TBC</v>
       </c>
-      <c r="G165" s="56"/>
+      <c r="G165" s="58"/>
       <c r="H165" s="32"/>
-      <c r="I165" s="57"/>
+      <c r="I165" s="59"/>
       <c r="J165" s="31"/>
     </row>
     <row r="166" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14941,9 +14935,9 @@
         <f aca="false">IF(OR(E166="",E166="TBC"),"TBC",IFERROR(E166/VLOOKUP(D166,Settings!$A$7:$B$17,2,FALSE()),E166))</f>
         <v>TBC</v>
       </c>
-      <c r="G166" s="56"/>
+      <c r="G166" s="58"/>
       <c r="H166" s="32"/>
-      <c r="I166" s="57"/>
+      <c r="I166" s="59"/>
       <c r="J166" s="31"/>
     </row>
     <row r="167" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14956,9 +14950,9 @@
         <f aca="false">IF(OR(E167="",E167="TBC"),"TBC",IFERROR(E167/VLOOKUP(D167,Settings!$A$7:$B$17,2,FALSE()),E167))</f>
         <v>TBC</v>
       </c>
-      <c r="G167" s="56"/>
+      <c r="G167" s="58"/>
       <c r="H167" s="32"/>
-      <c r="I167" s="57"/>
+      <c r="I167" s="59"/>
       <c r="J167" s="31"/>
     </row>
     <row r="168" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14971,9 +14965,9 @@
         <f aca="false">IF(OR(E168="",E168="TBC"),"TBC",IFERROR(E168/VLOOKUP(D168,Settings!$A$7:$B$17,2,FALSE()),E168))</f>
         <v>TBC</v>
       </c>
-      <c r="G168" s="56"/>
+      <c r="G168" s="58"/>
       <c r="H168" s="32"/>
-      <c r="I168" s="57"/>
+      <c r="I168" s="59"/>
       <c r="J168" s="31"/>
     </row>
     <row r="169" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14986,9 +14980,9 @@
         <f aca="false">IF(OR(E169="",E169="TBC"),"TBC",IFERROR(E169/VLOOKUP(D169,Settings!$A$7:$B$17,2,FALSE()),E169))</f>
         <v>TBC</v>
       </c>
-      <c r="G169" s="56"/>
+      <c r="G169" s="58"/>
       <c r="H169" s="32"/>
-      <c r="I169" s="57"/>
+      <c r="I169" s="59"/>
       <c r="J169" s="31"/>
     </row>
     <row r="170" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15001,9 +14995,9 @@
         <f aca="false">IF(OR(E170="",E170="TBC"),"TBC",IFERROR(E170/VLOOKUP(D170,Settings!$A$7:$B$17,2,FALSE()),E170))</f>
         <v>TBC</v>
       </c>
-      <c r="G170" s="56"/>
+      <c r="G170" s="58"/>
       <c r="H170" s="32"/>
-      <c r="I170" s="57"/>
+      <c r="I170" s="59"/>
       <c r="J170" s="31"/>
     </row>
     <row r="171" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15016,9 +15010,9 @@
         <f aca="false">IF(OR(E171="",E171="TBC"),"TBC",IFERROR(E171/VLOOKUP(D171,Settings!$A$7:$B$17,2,FALSE()),E171))</f>
         <v>TBC</v>
       </c>
-      <c r="G171" s="56"/>
+      <c r="G171" s="58"/>
       <c r="H171" s="32"/>
-      <c r="I171" s="57"/>
+      <c r="I171" s="59"/>
       <c r="J171" s="31"/>
     </row>
     <row r="172" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15031,9 +15025,9 @@
         <f aca="false">IF(OR(E172="",E172="TBC"),"TBC",IFERROR(E172/VLOOKUP(D172,Settings!$A$7:$B$17,2,FALSE()),E172))</f>
         <v>TBC</v>
       </c>
-      <c r="G172" s="56"/>
+      <c r="G172" s="58"/>
       <c r="H172" s="32"/>
-      <c r="I172" s="57"/>
+      <c r="I172" s="59"/>
       <c r="J172" s="31"/>
     </row>
     <row r="173" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15046,9 +15040,9 @@
         <f aca="false">IF(OR(E173="",E173="TBC"),"TBC",IFERROR(E173/VLOOKUP(D173,Settings!$A$7:$B$17,2,FALSE()),E173))</f>
         <v>TBC</v>
       </c>
-      <c r="G173" s="56"/>
+      <c r="G173" s="58"/>
       <c r="H173" s="32"/>
-      <c r="I173" s="57"/>
+      <c r="I173" s="59"/>
       <c r="J173" s="31"/>
     </row>
     <row r="174" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15061,9 +15055,9 @@
         <f aca="false">IF(OR(E174="",E174="TBC"),"TBC",IFERROR(E174/VLOOKUP(D174,Settings!$A$7:$B$17,2,FALSE()),E174))</f>
         <v>TBC</v>
       </c>
-      <c r="G174" s="56"/>
+      <c r="G174" s="58"/>
       <c r="H174" s="32"/>
-      <c r="I174" s="57"/>
+      <c r="I174" s="59"/>
       <c r="J174" s="31"/>
     </row>
     <row r="175" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15076,9 +15070,9 @@
         <f aca="false">IF(OR(E175="",E175="TBC"),"TBC",IFERROR(E175/VLOOKUP(D175,Settings!$A$7:$B$17,2,FALSE()),E175))</f>
         <v>TBC</v>
       </c>
-      <c r="G175" s="56"/>
+      <c r="G175" s="58"/>
       <c r="H175" s="32"/>
-      <c r="I175" s="57"/>
+      <c r="I175" s="59"/>
       <c r="J175" s="31"/>
     </row>
     <row r="176" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15091,9 +15085,9 @@
         <f aca="false">IF(OR(E176="",E176="TBC"),"TBC",IFERROR(E176/VLOOKUP(D176,Settings!$A$7:$B$17,2,FALSE()),E176))</f>
         <v>TBC</v>
       </c>
-      <c r="G176" s="56"/>
+      <c r="G176" s="58"/>
       <c r="H176" s="32"/>
-      <c r="I176" s="57"/>
+      <c r="I176" s="59"/>
       <c r="J176" s="31"/>
     </row>
     <row r="177" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15106,9 +15100,9 @@
         <f aca="false">IF(OR(E177="",E177="TBC"),"TBC",IFERROR(E177/VLOOKUP(D177,Settings!$A$7:$B$17,2,FALSE()),E177))</f>
         <v>TBC</v>
       </c>
-      <c r="G177" s="56"/>
+      <c r="G177" s="58"/>
       <c r="H177" s="32"/>
-      <c r="I177" s="57"/>
+      <c r="I177" s="59"/>
       <c r="J177" s="31"/>
     </row>
     <row r="178" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15121,9 +15115,9 @@
         <f aca="false">IF(OR(E178="",E178="TBC"),"TBC",IFERROR(E178/VLOOKUP(D178,Settings!$A$7:$B$17,2,FALSE()),E178))</f>
         <v>TBC</v>
       </c>
-      <c r="G178" s="56"/>
+      <c r="G178" s="58"/>
       <c r="H178" s="32"/>
-      <c r="I178" s="57"/>
+      <c r="I178" s="59"/>
       <c r="J178" s="31"/>
     </row>
     <row r="179" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15136,9 +15130,9 @@
         <f aca="false">IF(OR(E179="",E179="TBC"),"TBC",IFERROR(E179/VLOOKUP(D179,Settings!$A$7:$B$17,2,FALSE()),E179))</f>
         <v>TBC</v>
       </c>
-      <c r="G179" s="56"/>
+      <c r="G179" s="58"/>
       <c r="H179" s="32"/>
-      <c r="I179" s="57"/>
+      <c r="I179" s="59"/>
       <c r="J179" s="31"/>
     </row>
     <row r="180" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15151,9 +15145,9 @@
         <f aca="false">IF(OR(E180="",E180="TBC"),"TBC",IFERROR(E180/VLOOKUP(D180,Settings!$A$7:$B$17,2,FALSE()),E180))</f>
         <v>TBC</v>
       </c>
-      <c r="G180" s="56"/>
+      <c r="G180" s="58"/>
       <c r="H180" s="32"/>
-      <c r="I180" s="57"/>
+      <c r="I180" s="59"/>
       <c r="J180" s="31"/>
     </row>
     <row r="181" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15166,9 +15160,9 @@
         <f aca="false">IF(OR(E181="",E181="TBC"),"TBC",IFERROR(E181/VLOOKUP(D181,Settings!$A$7:$B$17,2,FALSE()),E181))</f>
         <v>TBC</v>
       </c>
-      <c r="G181" s="56"/>
+      <c r="G181" s="58"/>
       <c r="H181" s="32"/>
-      <c r="I181" s="57"/>
+      <c r="I181" s="59"/>
       <c r="J181" s="31"/>
     </row>
     <row r="182" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15181,9 +15175,9 @@
         <f aca="false">IF(OR(E182="",E182="TBC"),"TBC",IFERROR(E182/VLOOKUP(D182,Settings!$A$7:$B$17,2,FALSE()),E182))</f>
         <v>TBC</v>
       </c>
-      <c r="G182" s="56"/>
+      <c r="G182" s="58"/>
       <c r="H182" s="32"/>
-      <c r="I182" s="57"/>
+      <c r="I182" s="59"/>
       <c r="J182" s="31"/>
     </row>
     <row r="183" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15196,9 +15190,9 @@
         <f aca="false">IF(OR(E183="",E183="TBC"),"TBC",IFERROR(E183/VLOOKUP(D183,Settings!$A$7:$B$17,2,FALSE()),E183))</f>
         <v>TBC</v>
       </c>
-      <c r="G183" s="56"/>
+      <c r="G183" s="58"/>
       <c r="H183" s="32"/>
-      <c r="I183" s="57"/>
+      <c r="I183" s="59"/>
       <c r="J183" s="31"/>
     </row>
     <row r="184" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15211,9 +15205,9 @@
         <f aca="false">IF(OR(E184="",E184="TBC"),"TBC",IFERROR(E184/VLOOKUP(D184,Settings!$A$7:$B$17,2,FALSE()),E184))</f>
         <v>TBC</v>
       </c>
-      <c r="G184" s="56"/>
+      <c r="G184" s="58"/>
       <c r="H184" s="32"/>
-      <c r="I184" s="57"/>
+      <c r="I184" s="59"/>
       <c r="J184" s="31"/>
     </row>
     <row r="185" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15226,9 +15220,9 @@
         <f aca="false">IF(OR(E185="",E185="TBC"),"TBC",IFERROR(E185/VLOOKUP(D185,Settings!$A$7:$B$17,2,FALSE()),E185))</f>
         <v>TBC</v>
       </c>
-      <c r="G185" s="56"/>
+      <c r="G185" s="58"/>
       <c r="H185" s="32"/>
-      <c r="I185" s="57"/>
+      <c r="I185" s="59"/>
       <c r="J185" s="31"/>
     </row>
     <row r="186" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15241,9 +15235,9 @@
         <f aca="false">IF(OR(E186="",E186="TBC"),"TBC",IFERROR(E186/VLOOKUP(D186,Settings!$A$7:$B$17,2,FALSE()),E186))</f>
         <v>TBC</v>
       </c>
-      <c r="G186" s="56"/>
+      <c r="G186" s="58"/>
       <c r="H186" s="32"/>
-      <c r="I186" s="57"/>
+      <c r="I186" s="59"/>
       <c r="J186" s="31"/>
     </row>
     <row r="187" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15256,9 +15250,9 @@
         <f aca="false">IF(OR(E187="",E187="TBC"),"TBC",IFERROR(E187/VLOOKUP(D187,Settings!$A$7:$B$17,2,FALSE()),E187))</f>
         <v>TBC</v>
       </c>
-      <c r="G187" s="56"/>
+      <c r="G187" s="58"/>
       <c r="H187" s="32"/>
-      <c r="I187" s="57"/>
+      <c r="I187" s="59"/>
       <c r="J187" s="31"/>
     </row>
     <row r="188" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15271,9 +15265,9 @@
         <f aca="false">IF(OR(E188="",E188="TBC"),"TBC",IFERROR(E188/VLOOKUP(D188,Settings!$A$7:$B$17,2,FALSE()),E188))</f>
         <v>TBC</v>
       </c>
-      <c r="G188" s="56"/>
+      <c r="G188" s="58"/>
       <c r="H188" s="32"/>
-      <c r="I188" s="57"/>
+      <c r="I188" s="59"/>
       <c r="J188" s="31"/>
     </row>
     <row r="189" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15286,9 +15280,9 @@
         <f aca="false">IF(OR(E189="",E189="TBC"),"TBC",IFERROR(E189/VLOOKUP(D189,Settings!$A$7:$B$17,2,FALSE()),E189))</f>
         <v>TBC</v>
       </c>
-      <c r="G189" s="56"/>
+      <c r="G189" s="58"/>
       <c r="H189" s="32"/>
-      <c r="I189" s="57"/>
+      <c r="I189" s="59"/>
       <c r="J189" s="31"/>
     </row>
     <row r="190" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15301,9 +15295,9 @@
         <f aca="false">IF(OR(E190="",E190="TBC"),"TBC",IFERROR(E190/VLOOKUP(D190,Settings!$A$7:$B$17,2,FALSE()),E190))</f>
         <v>TBC</v>
       </c>
-      <c r="G190" s="56"/>
+      <c r="G190" s="58"/>
       <c r="H190" s="32"/>
-      <c r="I190" s="57"/>
+      <c r="I190" s="59"/>
       <c r="J190" s="31"/>
     </row>
     <row r="191" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15316,9 +15310,9 @@
         <f aca="false">IF(OR(E191="",E191="TBC"),"TBC",IFERROR(E191/VLOOKUP(D191,Settings!$A$7:$B$17,2,FALSE()),E191))</f>
         <v>TBC</v>
       </c>
-      <c r="G191" s="56"/>
+      <c r="G191" s="58"/>
       <c r="H191" s="32"/>
-      <c r="I191" s="57"/>
+      <c r="I191" s="59"/>
       <c r="J191" s="31"/>
     </row>
     <row r="192" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15331,9 +15325,9 @@
         <f aca="false">IF(OR(E192="",E192="TBC"),"TBC",IFERROR(E192/VLOOKUP(D192,Settings!$A$7:$B$17,2,FALSE()),E192))</f>
         <v>TBC</v>
       </c>
-      <c r="G192" s="56"/>
+      <c r="G192" s="58"/>
       <c r="H192" s="32"/>
-      <c r="I192" s="57"/>
+      <c r="I192" s="59"/>
       <c r="J192" s="31"/>
     </row>
     <row r="193" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15346,9 +15340,9 @@
         <f aca="false">IF(OR(E193="",E193="TBC"),"TBC",IFERROR(E193/VLOOKUP(D193,Settings!$A$7:$B$17,2,FALSE()),E193))</f>
         <v>TBC</v>
       </c>
-      <c r="G193" s="56"/>
+      <c r="G193" s="58"/>
       <c r="H193" s="32"/>
-      <c r="I193" s="57"/>
+      <c r="I193" s="59"/>
       <c r="J193" s="31"/>
     </row>
     <row r="194" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15361,9 +15355,9 @@
         <f aca="false">IF(OR(E194="",E194="TBC"),"TBC",IFERROR(E194/VLOOKUP(D194,Settings!$A$7:$B$17,2,FALSE()),E194))</f>
         <v>TBC</v>
       </c>
-      <c r="G194" s="56"/>
+      <c r="G194" s="58"/>
       <c r="H194" s="32"/>
-      <c r="I194" s="57"/>
+      <c r="I194" s="59"/>
       <c r="J194" s="31"/>
     </row>
     <row r="195" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15376,9 +15370,9 @@
         <f aca="false">IF(OR(E195="",E195="TBC"),"TBC",IFERROR(E195/VLOOKUP(D195,Settings!$A$7:$B$17,2,FALSE()),E195))</f>
         <v>TBC</v>
       </c>
-      <c r="G195" s="56"/>
+      <c r="G195" s="58"/>
       <c r="H195" s="32"/>
-      <c r="I195" s="57"/>
+      <c r="I195" s="59"/>
       <c r="J195" s="31"/>
     </row>
     <row r="196" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15391,9 +15385,9 @@
         <f aca="false">IF(OR(E196="",E196="TBC"),"TBC",IFERROR(E196/VLOOKUP(D196,Settings!$A$7:$B$17,2,FALSE()),E196))</f>
         <v>TBC</v>
       </c>
-      <c r="G196" s="56"/>
+      <c r="G196" s="58"/>
       <c r="H196" s="32"/>
-      <c r="I196" s="57"/>
+      <c r="I196" s="59"/>
       <c r="J196" s="31"/>
     </row>
     <row r="197" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15403,9 +15397,9 @@
       <c r="D197" s="42"/>
       <c r="E197" s="43"/>
       <c r="F197" s="43"/>
-      <c r="G197" s="58"/>
+      <c r="G197" s="60"/>
       <c r="H197" s="41"/>
-      <c r="I197" s="59"/>
+      <c r="I197" s="61"/>
       <c r="J197" s="48"/>
     </row>
     <row r="198" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15415,9 +15409,9 @@
       <c r="D198" s="42"/>
       <c r="E198" s="43"/>
       <c r="F198" s="43"/>
-      <c r="G198" s="58"/>
+      <c r="G198" s="60"/>
       <c r="H198" s="41"/>
-      <c r="I198" s="59"/>
+      <c r="I198" s="61"/>
       <c r="J198" s="48"/>
     </row>
     <row r="199" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15427,9 +15421,9 @@
       <c r="D199" s="42"/>
       <c r="E199" s="43"/>
       <c r="F199" s="43"/>
-      <c r="G199" s="58"/>
+      <c r="G199" s="60"/>
       <c r="H199" s="41"/>
-      <c r="I199" s="59"/>
+      <c r="I199" s="61"/>
       <c r="J199" s="48"/>
     </row>
     <row r="200" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15439,9 +15433,9 @@
       <c r="D200" s="42"/>
       <c r="E200" s="43"/>
       <c r="F200" s="43"/>
-      <c r="G200" s="58"/>
+      <c r="G200" s="60"/>
       <c r="H200" s="41"/>
-      <c r="I200" s="59"/>
+      <c r="I200" s="61"/>
       <c r="J200" s="48"/>
     </row>
   </sheetData>
@@ -15546,124 +15540,124 @@
       <c r="B2" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="62"/>
     </row>
     <row r="5" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="63"/>
     </row>
     <row r="6" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="62"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="66" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="66" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="66" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="66" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="62"/>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="68" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="69" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="70" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="72" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="73" t="s">
         <v>325</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="74" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="75" t="s">
         <v>327</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="76" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="62"/>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="77" t="s">
         <v>331</v>
       </c>
     </row>
@@ -15671,7 +15665,7 @@
       <c r="A22" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="77" t="s">
         <v>333</v>
       </c>
     </row>
@@ -15679,7 +15673,7 @@
       <c r="A23" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="77" t="s">
         <v>335</v>
       </c>
     </row>
@@ -15687,7 +15681,7 @@
       <c r="A24" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="77" t="s">
         <v>337</v>
       </c>
     </row>
@@ -15695,25 +15689,25 @@
       <c r="A25" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="77" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="62" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="60"/>
+      <c r="B27" s="62"/>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="77" t="s">
         <v>341</v>
       </c>
     </row>
@@ -15721,7 +15715,7 @@
       <c r="A29" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="77" t="s">
         <v>342</v>
       </c>
     </row>
@@ -15729,7 +15723,7 @@
       <c r="A30" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="77" t="s">
         <v>343</v>
       </c>
     </row>
@@ -15737,7 +15731,7 @@
       <c r="A31" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="77" t="s">
         <v>344</v>
       </c>
     </row>
@@ -15745,59 +15739,59 @@
       <c r="A32" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="77" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="62" t="s">
         <v>346</v>
       </c>
-      <c r="B34" s="60"/>
+      <c r="B34" s="62"/>
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="78" t="s">
         <v>347</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="79" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="78" t="s">
         <v>347</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="79" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="78" t="s">
         <v>347</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="79" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="B39" s="60"/>
+      <c r="B39" s="62"/>
     </row>
     <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="77" t="s">
         <v>352</v>
       </c>
     </row>
@@ -15805,7 +15799,7 @@
       <c r="A41" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="77" t="s">
         <v>353</v>
       </c>
     </row>
@@ -15813,7 +15807,7 @@
       <c r="A42" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="77" t="s">
         <v>354</v>
       </c>
     </row>
@@ -15821,49 +15815,49 @@
       <c r="A43" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="77" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="B45" s="60"/>
+      <c r="B45" s="62"/>
     </row>
     <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="76" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="79" t="s">
+      <c r="A47" s="81" t="s">
         <v>359</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="70" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>361</v>
       </c>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="70" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="79" t="s">
+      <c r="A49" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="70" t="s">
         <v>364</v>
       </c>
     </row>
@@ -15904,7 +15898,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -15939,280 +15933,298 @@
     </row>
     <row r="3" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="83" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="82" t="n">
+      <c r="C4" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="85" t="s">
         <v>371</v>
       </c>
-      <c r="E4" s="84"/>
+      <c r="E4" s="86"/>
     </row>
     <row r="5" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="82" t="s">
         <v>372</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="82" t="s">
         <v>374</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="82" t="s">
         <v>375</v>
       </c>
-      <c r="E6" s="85"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="87" t="n">
+      <c r="B7" s="89" t="n">
         <v>3.6725</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="90" t="s">
         <v>376</v>
       </c>
-      <c r="E7" s="84"/>
+      <c r="E7" s="86"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="87" t="n">
+      <c r="B8" s="89" t="n">
         <v>7.012512</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="90" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="90" t="s">
         <v>377</v>
       </c>
-      <c r="E8" s="84"/>
+      <c r="E8" s="86"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="90" t="n">
+      <c r="B9" s="92" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="90" t="s">
         <v>378</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="90" t="s">
         <v>378</v>
       </c>
-      <c r="E9" s="84"/>
+      <c r="E9" s="86"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="87" t="n">
+      <c r="B10" s="89" t="n">
         <v>0.8434</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="90" t="s">
         <v>379</v>
       </c>
-      <c r="E10" s="84"/>
+      <c r="E10" s="86"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="87" t="n">
+      <c r="B11" s="89" t="n">
         <v>1.2535</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="90" t="s">
         <v>380</v>
       </c>
-      <c r="E11" s="84"/>
+      <c r="E11" s="86"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="87" t="n">
+      <c r="B12" s="89" t="n">
         <v>78.8527</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="90" t="s">
         <v>381</v>
       </c>
-      <c r="E12" s="84"/>
+      <c r="E12" s="86"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="87" t="n">
+      <c r="B13" s="89" t="n">
         <v>90.63</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="90" t="s">
         <v>382</v>
       </c>
-      <c r="E13" s="84"/>
+      <c r="E13" s="86"/>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="88" t="s">
         <v>383</v>
       </c>
-      <c r="B14" s="87" t="n">
+      <c r="B14" s="89" t="n">
         <v>7.78</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="90" t="s">
         <v>384</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="E14" s="84"/>
+      <c r="E14" s="86"/>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="88" t="s">
         <v>386</v>
       </c>
-      <c r="B15" s="87" t="n">
+      <c r="B15" s="89" t="n">
         <v>3.75</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="90" t="s">
         <v>378</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="E15" s="84"/>
+      <c r="E15" s="86"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="88" t="s">
         <v>388</v>
       </c>
-      <c r="B16" s="87" t="n">
+      <c r="B16" s="89" t="n">
         <v>0.788</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="90" t="s">
         <v>384</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="E16" s="84"/>
+      <c r="E16" s="86"/>
     </row>
     <row r="17" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="B17" s="92" t="n">
+      <c r="B17" s="94" t="n">
         <v>0.37286</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="95" t="s">
         <v>389</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="95" t="s">
         <v>390</v>
       </c>
-      <c r="C18" s="80" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="93" t="s">
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+    </row>
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="94" t="n">
+      <c r="B20" s="98" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="95" t="s">
-        <v>391</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="93" t="s">
+      <c r="C20" s="99" t="s">
+        <v>393</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+    </row>
+    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="94" t="n">
+      <c r="B21" s="98" t="n">
         <v>0.005</v>
       </c>
-      <c r="C20" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="93" t="s">
+      <c r="C21" s="99" t="s">
+        <v>394</v>
+      </c>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="94" t="n">
+      <c r="B22" s="98" t="n">
         <v>0.005</v>
       </c>
-      <c r="C21" s="95" t="s">
-        <v>393</v>
-      </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-    </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="93" t="s">
+      <c r="C22" s="99" t="s">
+        <v>395</v>
+      </c>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+    </row>
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="94" t="n">
+      <c r="B23" s="98" t="n">
         <v>0</v>
       </c>
-      <c r="C22" s="95" t="s">
-        <v>394</v>
-      </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="93" t="s">
-        <v>395</v>
-      </c>
-      <c r="B23" s="94" t="n">
+      <c r="C23" s="99" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="97" t="s">
+        <v>397</v>
+      </c>
+      <c r="B24" s="98" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="95" t="s">
-        <v>396</v>
-      </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
+      <c r="C24" s="99" t="s">
+        <v>398</v>
+      </c>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
     </row>
     <row r="25" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="96" t="s">
-        <v>397</v>
-      </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+    </row>
+    <row r="26" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="101" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="3">
